--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -594,7 +594,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,16 +1264,502 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,492 +1772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,7 +2203,7 @@
       <selection activeCell="L39" sqref="L39:M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
     <col min="3" max="9" width="7.625" style="1" customWidth="1"/>
@@ -2220,12 +2220,12 @@
     <col min="26" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="194">
+    <row r="1" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A1" s="57">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="194">
+      <c r="L1" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="195"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,38 +2275,38 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="196" t="s">
+      <c r="U1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="197" t="s">
+      <c r="V1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="225" t="s">
+      <c r="X1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="225" t="s">
+      <c r="Y1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="225" t="s">
+      <c r="Z1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="225" t="s">
+      <c r="AB1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="225" t="s">
+      <c r="AC1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="225" t="s">
+      <c r="AD1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="225" t="s">
+      <c r="AE1" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="14.1" customHeight="1">
       <c r="A2" s="13">
         <f>WEEKNUM(A1,1)</f>
         <v>20</v>
@@ -2378,49 +2378,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="201" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="201" t="s">
+      <c r="D3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="65" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="223"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2440,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="221">
+      <c r="Y3" s="62">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="221">
+      <c r="Z3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="220">
+      <c r="AA3" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="221">
+      <c r="AB3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="221">
+      <c r="AC3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="221">
+      <c r="AD3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="221">
+      <c r="AE3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+    <row r="4" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="223"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2513,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-    </row>
-    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="219" t="s">
+      <c r="K5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="191"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2570,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="201">
+      <c r="Y5" s="65">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="201">
+      <c r="Z5" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="201">
+      <c r="AB5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="201">
+      <c r="AC5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="201">
+      <c r="AD5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="201">
+      <c r="AE5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="191"/>
+    <row r="6" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2633,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
-    </row>
-    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185" t="s">
+      <c r="X6" s="69"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="185" t="s">
+      <c r="L7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="186"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="217" t="s">
+      <c r="X7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="209">
+      <c r="Y7" s="73">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="209">
+      <c r="Z7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="209">
+      <c r="AA7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="209">
+      <c r="AB7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="209">
+      <c r="AC7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="209">
+      <c r="AD7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="209">
+      <c r="AE7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+    <row r="8" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2755,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2780,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
+      <c r="X8" s="85"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="185" t="s">
+      <c r="L9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="186"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2831,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="212" t="s">
+      <c r="X9" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="214">
+      <c r="Y9" s="81">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="216">
+      <c r="Z9" s="83">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="216">
+      <c r="AA9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="216">
+      <c r="AB9" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="216">
+      <c r="AC9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="216">
+      <c r="AD9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="216">
+      <c r="AE9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="211"/>
+    <row r="10" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2891,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2908,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="215"/>
-      <c r="AE10" s="215"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+    </row>
+    <row r="11" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2945,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="184"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2965,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="208" t="s">
+      <c r="X11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="201">
+      <c r="Y11" s="65">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="201">
+      <c r="Z11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="201">
+      <c r="AA11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="201">
+      <c r="AB11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="201">
+      <c r="AC11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="201">
+      <c r="AD11" s="65">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="65">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="205"/>
+    <row r="12" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3023,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3046,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="201"/>
-    </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="X12" s="69"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+    </row>
+    <row r="13" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A13" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="203"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="185" t="s">
+      <c r="L13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="186"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3108,9 +3108,9 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="205"/>
+    <row r="14" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3132,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3159,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="206" t="s">
+      <c r="X14" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="201">
+      <c r="Y14" s="65">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="201">
+      <c r="Z14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="201">
+      <c r="AA14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="201">
+      <c r="AB14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="201">
+      <c r="AC14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="201">
+      <c r="AD14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="201">
+      <c r="AE14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+    <row r="15" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="185" t="s">
+      <c r="L15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="186"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3239,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="201"/>
-      <c r="AD15" s="201"/>
-      <c r="AE15" s="201"/>
-    </row>
-    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+    </row>
+    <row r="16" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3274,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3297,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="206" t="s">
+      <c r="X16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="207">
+      <c r="Y16" s="91">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="207">
+      <c r="Z16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="207">
+      <c r="AA16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="207">
+      <c r="AB16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="207">
+      <c r="AD16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="207">
+      <c r="AE16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202" t="s">
+    <row r="17" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A17" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="203"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="202" t="s">
+      <c r="L17" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="203"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3376,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="205"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+    </row>
+    <row r="18" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3409,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="205"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3433,9 +3433,9 @@
         <v>O</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
+    <row r="19" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3445,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3454,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="199" t="s">
+      <c r="Y19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Z19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="199" t="s">
+      <c r="AA19" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="199" t="s">
+      <c r="AB19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="199" t="s">
+      <c r="AC19" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="199" t="s">
+      <c r="AD19" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="199" t="s">
+      <c r="AE19" s="93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
+    <row r="20" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3494,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3511,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
-    </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
-      <c r="B21" s="198"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+    </row>
+    <row r="21" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3531,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3542,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="189" t="s">
+      <c r="Y21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="189">
+      <c r="Z21" s="95">
         <v>3</v>
       </c>
-      <c r="AA21" s="189">
+      <c r="AA21" s="95">
         <v>2</v>
       </c>
-      <c r="AB21" s="189">
+      <c r="AB21" s="95">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189">
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="198"/>
+    <row r="22" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3579,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,15 +3596,15 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="190"/>
-    </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+    </row>
+    <row r="23" spans="1:31" ht="14.1" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="6"/>
@@ -3625,28 +3625,28 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="189" t="s">
+      <c r="Y23" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="189">
+      <c r="Z23" s="95">
         <v>4</v>
       </c>
-      <c r="AA23" s="189">
+      <c r="AA23" s="95">
         <v>3</v>
       </c>
-      <c r="AB23" s="189">
+      <c r="AB23" s="95">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189">
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95">
         <v>3</v>
       </c>
-      <c r="AE23" s="189">
+      <c r="AE23" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="14.1" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="6"/>
@@ -3667,20 +3667,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
-    </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="194">
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+    </row>
+    <row r="25" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="195"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3702,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="192" t="s">
+      <c r="J25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="193" t="s">
+      <c r="K25" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="194">
+      <c r="L25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="195"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,34 +3734,34 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="196" t="s">
+      <c r="U25" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="197" t="s">
+      <c r="V25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="189" t="s">
+      <c r="Y25" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="189">
+      <c r="Z25" s="95">
         <v>3</v>
       </c>
-      <c r="AA25" s="189">
+      <c r="AA25" s="95">
         <v>2</v>
       </c>
-      <c r="AB25" s="189">
+      <c r="AB25" s="95">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189">
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95">
         <v>4</v>
       </c>
-      <c r="AE25" s="189">
+      <c r="AE25" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <f>WEEKNUM(A25,1)</f>
         <v>20</v>
@@ -3797,8 +3797,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="193"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="97"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3834,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="196"/>
-      <c r="V26" s="197"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="190"/>
-    </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="U26" s="59"/>
+      <c r="V26" s="60"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+    </row>
+    <row r="27" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="191"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3881,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="189" t="s">
+      <c r="Y27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="189">
+      <c r="Z27" s="95">
         <v>4</v>
       </c>
-      <c r="AA27" s="189">
+      <c r="AA27" s="95">
         <v>3</v>
       </c>
-      <c r="AB27" s="189">
+      <c r="AB27" s="95">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189">
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95">
         <v>1</v>
       </c>
-      <c r="AE27" s="189">
+      <c r="AE27" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
+    <row r="28" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3922,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3945,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
-    </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+    </row>
+    <row r="29" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="184" t="s">
+      <c r="L29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="191"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="189" t="s">
+      <c r="Y29" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="189">
+      <c r="Z29" s="95">
         <v>3</v>
       </c>
-      <c r="AA29" s="189">
+      <c r="AA29" s="95">
         <v>2</v>
       </c>
-      <c r="AB29" s="189">
+      <c r="AB29" s="95">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189">
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95">
         <v>2</v>
       </c>
-      <c r="AE29" s="189">
+      <c r="AE29" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
+    <row r="30" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4030,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="184"/>
-      <c r="M30" s="191"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4047,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-    </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+    </row>
+    <row r="31" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="184"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="185" t="s">
+      <c r="L31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="186"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4093,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="189" t="s">
+      <c r="Y31" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="189">
+      <c r="Z31" s="95">
         <v>4</v>
       </c>
-      <c r="AA31" s="189">
+      <c r="AA31" s="95">
         <v>3</v>
       </c>
-      <c r="AB31" s="189">
+      <c r="AB31" s="95">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189">
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95">
         <v>3</v>
       </c>
-      <c r="AE31" s="189">
+      <c r="AE31" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
+    <row r="32" spans="1:31" ht="14.1" customHeight="1">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4134,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="187"/>
-      <c r="M32" s="188"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4157,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
-    </row>
-    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="184" t="s">
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+    </row>
+    <row r="33" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="185" t="s">
+      <c r="L33" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="186"/>
+      <c r="M33" s="76"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4204,9 +4204,9 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
+    <row r="34" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4224,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="78"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4248,11 +4248,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184" t="s">
+    <row r="35" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="184"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="184" t="s">
+      <c r="L35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="184"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4285,9 +4285,9 @@
       </c>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
+    <row r="36" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4303,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4327,11 +4327,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="184" t="s">
+    <row r="37" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A37" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4353,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="185" t="s">
+      <c r="L37" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="186"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4374,9 +4374,9 @@
       </c>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+    <row r="38" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4402,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4426,11 +4426,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+    <row r="39" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A39" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="184"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4450,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="186"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4461,9 +4461,9 @@
       <c r="T39" s="42"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+    <row r="40" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4487,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="187"/>
-      <c r="M40" s="188"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4505,15 +4505,15 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-    </row>
-    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
+    <row r="41" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+    </row>
+    <row r="42" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4522,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4533,9 +4533,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+    <row r="43" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4545,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+    <row r="44" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4568,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="14.1" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4592,7 +4592,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="14.1" customHeight="1">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4605,13 +4605,13 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="14.1" customHeight="1">
       <c r="A47"/>
       <c r="B47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="14.1" customHeight="1">
       <c r="A48"/>
       <c r="B48"/>
       <c r="L48"/>
@@ -4633,38 +4633,38 @@
       <c r="AH48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="183" t="s">
+    <row r="49" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="178" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178" t="s">
+      <c r="H49" s="100"/>
+      <c r="I49" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178" t="s">
+      <c r="J49" s="100"/>
+      <c r="K49" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="178" t="s">
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="178"/>
-      <c r="P49" s="179" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="179"/>
+      <c r="Q49" s="101"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4683,45 +4683,45 @@
       <c r="AH49" s="29"/>
       <c r="AI49" s="29"/>
     </row>
-    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="180">
+    <row r="50" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="102">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181">
+      <c r="D50" s="102"/>
+      <c r="E50" s="103">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181">
+      <c r="H50" s="103"/>
+      <c r="I50" s="103">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181">
+      <c r="J50" s="103"/>
+      <c r="K50" s="103">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181">
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="181"/>
-      <c r="P50" s="182">
+      <c r="O50" s="103"/>
+      <c r="P50" s="104">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="182"/>
+      <c r="Q50" s="104"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4740,47 +4740,47 @@
       <c r="AH50" s="27"/>
       <c r="AI50" s="27"/>
     </row>
-    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+    <row r="51" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A51" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="177"/>
-      <c r="C51" s="176">
+      <c r="B51" s="106"/>
+      <c r="C51" s="105">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176">
+      <c r="D51" s="105"/>
+      <c r="E51" s="105">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176">
+      <c r="F51" s="105"/>
+      <c r="G51" s="105">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176">
+      <c r="H51" s="105"/>
+      <c r="I51" s="105">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176">
+      <c r="J51" s="105"/>
+      <c r="K51" s="105">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176">
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176">
+      <c r="O51" s="105"/>
+      <c r="P51" s="105">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="176"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4799,24 +4799,24 @@
       <c r="AH51" s="27"/>
       <c r="AI51" s="27"/>
     </row>
-    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
-      <c r="N52" s="176"/>
-      <c r="O52" s="176"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
+    <row r="52" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4835,24 +4835,24 @@
       <c r="AH52" s="27"/>
       <c r="AI52" s="27"/>
     </row>
-    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="176"/>
-      <c r="M53" s="176"/>
-      <c r="N53" s="176"/>
-      <c r="O53" s="176"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="176"/>
+    <row r="53" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4871,40 +4871,40 @@
       <c r="AH53"/>
       <c r="AI53"/>
     </row>
-    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="177" t="s">
+    <row r="54" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A54" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="169">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107">
         <v>1095960</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169">
+      <c r="D54" s="107"/>
+      <c r="E54" s="107">
         <v>870450</v>
       </c>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169">
+      <c r="F54" s="107"/>
+      <c r="G54" s="107">
         <v>1020450</v>
       </c>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169">
+      <c r="H54" s="107"/>
+      <c r="I54" s="107">
         <v>1026450</v>
       </c>
-      <c r="J54" s="169"/>
-      <c r="K54" s="175">
+      <c r="J54" s="107"/>
+      <c r="K54" s="108">
         <v>1032450</v>
       </c>
-      <c r="L54" s="175"/>
-      <c r="M54" s="175"/>
-      <c r="N54" s="169">
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="107">
         <v>1056450</v>
       </c>
-      <c r="O54" s="169"/>
-      <c r="P54" s="169">
+      <c r="O54" s="107"/>
+      <c r="P54" s="107">
         <v>960450</v>
       </c>
-      <c r="Q54" s="169"/>
+      <c r="Q54" s="107"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4923,24 +4923,24 @@
       <c r="AH54"/>
       <c r="AI54"/>
     </row>
-    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
+    <row r="55" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4959,52 +4959,52 @@
       <c r="AH55"/>
       <c r="AI55"/>
     </row>
-    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="168" t="s">
+    <row r="56" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A56" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169">
+      <c r="B56" s="114"/>
+      <c r="C56" s="107">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169">
+      <c r="D56" s="107"/>
+      <c r="E56" s="107">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169">
+      <c r="F56" s="107"/>
+      <c r="G56" s="107">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169">
+      <c r="H56" s="107"/>
+      <c r="I56" s="107">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="169"/>
-      <c r="K56" s="175">
+      <c r="J56" s="107"/>
+      <c r="K56" s="108">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
-      <c r="N56" s="169">
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="107">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="169"/>
-      <c r="P56" s="169">
+      <c r="O56" s="107"/>
+      <c r="P56" s="107">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="169"/>
-      <c r="R56" s="170">
+      <c r="Q56" s="107"/>
+      <c r="R56" s="109">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="171"/>
-      <c r="T56" s="172" t="s">
+      <c r="S56" s="110"/>
+      <c r="T56" s="111" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5023,27 +5023,27 @@
       <c r="AH56"/>
       <c r="AI56"/>
     </row>
-    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="168"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="171"/>
-      <c r="S57" s="171"/>
-      <c r="T57" s="172"/>
+    <row r="57" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="111"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5060,77 +5060,77 @@
       <c r="AH57"/>
       <c r="AI57"/>
     </row>
-    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="173" t="s">
+    <row r="58" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A58" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="174">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174">
+      <c r="F58" s="113"/>
+      <c r="G58" s="113">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174">
+      <c r="H58" s="113"/>
+      <c r="I58" s="113">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174">
+      <c r="J58" s="113"/>
+      <c r="K58" s="113">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174">
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="174"/>
-      <c r="P58" s="174">
+      <c r="O58" s="113"/>
+      <c r="P58" s="113">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174">
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="174"/>
-      <c r="T58" s="172" t="s">
+      <c r="S58" s="113"/>
+      <c r="T58" s="111" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="172"/>
+    <row r="59" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="111"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5147,40 +5147,40 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="168" t="s">
+    <row r="60" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A60" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169">
+      <c r="B60" s="114"/>
+      <c r="C60" s="107">
         <v>5616890</v>
       </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169">
+      <c r="D60" s="107"/>
+      <c r="E60" s="107">
         <v>2704420</v>
       </c>
-      <c r="F60" s="169"/>
-      <c r="G60" s="169">
+      <c r="F60" s="107"/>
+      <c r="G60" s="107">
         <v>3785170</v>
       </c>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169">
+      <c r="H60" s="107"/>
+      <c r="I60" s="107">
         <v>4748100</v>
       </c>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169">
+      <c r="J60" s="107"/>
+      <c r="K60" s="107">
         <v>4277980</v>
       </c>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169">
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107">
         <v>5076670</v>
       </c>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169">
+      <c r="O60" s="107"/>
+      <c r="P60" s="107">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="169"/>
+      <c r="Q60" s="107"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5199,24 +5199,24 @@
       <c r="AH60"/>
       <c r="AI60"/>
     </row>
-    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="169"/>
+    <row r="61" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5235,40 +5235,40 @@
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
-    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168" t="s">
+    <row r="62" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A62" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169">
+      <c r="B62" s="114"/>
+      <c r="C62" s="107">
         <v>8170510</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107">
         <v>4484960</v>
       </c>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169">
+      <c r="F62" s="107"/>
+      <c r="G62" s="107">
         <v>2086960</v>
       </c>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169">
+      <c r="H62" s="107"/>
+      <c r="I62" s="107">
         <v>2634530</v>
       </c>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169">
+      <c r="J62" s="107"/>
+      <c r="K62" s="107">
         <v>4909830</v>
       </c>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169">
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107">
         <v>6227730</v>
       </c>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169">
+      <c r="O62" s="107"/>
+      <c r="P62" s="107">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="169"/>
+      <c r="Q62" s="107"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5287,24 +5287,24 @@
       <c r="AH62"/>
       <c r="AI62"/>
     </row>
-    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="169"/>
-      <c r="Q63" s="169"/>
+    <row r="63" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5318,46 +5318,46 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+    <row r="64" spans="1:35" ht="14.1" customHeight="1">
+      <c r="A64" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="143">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143">
+      <c r="F64" s="115"/>
+      <c r="G64" s="115">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143">
+      <c r="H64" s="115"/>
+      <c r="I64" s="115">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143">
+      <c r="J64" s="115"/>
+      <c r="K64" s="115">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143">
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143">
+      <c r="O64" s="115"/>
+      <c r="P64" s="115">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="143"/>
+      <c r="Q64" s="115"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5371,24 +5371,24 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
+    <row r="65" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5402,7 +5402,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5432,35 +5432,35 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A67" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="145"/>
-      <c r="C67" s="148">
+      <c r="B67" s="117"/>
+      <c r="C67" s="120">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="152" t="s">
+      <c r="D67" s="121"/>
+      <c r="E67" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="153"/>
-      <c r="G67" s="156">
+      <c r="F67" s="125"/>
+      <c r="G67" s="128">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="157"/>
-      <c r="I67" s="160" t="s">
+      <c r="H67" s="129"/>
+      <c r="I67" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="161"/>
-      <c r="K67" s="164">
+      <c r="J67" s="133"/>
+      <c r="K67" s="136">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="164"/>
-      <c r="M67" s="165"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="137"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5479,20 +5479,20 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="162"/>
-      <c r="J68" s="163"/>
-      <c r="K68" s="166"/>
-      <c r="L68" s="166"/>
-      <c r="M68" s="167"/>
+    <row r="68" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="139"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5506,47 +5506,47 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="133" t="s">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A69" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="134"/>
-      <c r="C69" s="137">
+      <c r="B69" s="161"/>
+      <c r="C69" s="164">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="141">
+      <c r="D69" s="165"/>
+      <c r="E69" s="168">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="142"/>
-      <c r="G69" s="141">
+      <c r="F69" s="169"/>
+      <c r="G69" s="168">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="142"/>
-      <c r="I69" s="141">
+      <c r="H69" s="169"/>
+      <c r="I69" s="168">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="142"/>
-      <c r="K69" s="116">
+      <c r="J69" s="169"/>
+      <c r="K69" s="140">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="120"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="116">
+      <c r="L69" s="144"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="140">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="117"/>
-      <c r="P69" s="120">
+      <c r="O69" s="141"/>
+      <c r="P69" s="144">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="121"/>
+      <c r="Q69" s="145"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5554,24 +5554,24 @@
       <c r="Y69"/>
       <c r="Z69"/>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
+    <row r="70" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A70" s="162"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="142"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="147"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5579,47 +5579,47 @@
       <c r="Y70"/>
       <c r="Z70"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="124" t="s">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A71" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="125">
+      <c r="B71" s="149"/>
+      <c r="C71" s="152">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="125">
+      <c r="D71" s="153"/>
+      <c r="E71" s="152">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="126"/>
-      <c r="G71" s="125">
+      <c r="F71" s="153"/>
+      <c r="G71" s="152">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="125">
+      <c r="H71" s="153"/>
+      <c r="I71" s="152">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="125">
+      <c r="J71" s="153"/>
+      <c r="K71" s="152">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="129"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="125">
+      <c r="L71" s="156"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="152">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="126"/>
-      <c r="P71" s="129">
+      <c r="O71" s="153"/>
+      <c r="P71" s="156">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="131"/>
+      <c r="Q71" s="158"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5627,24 +5627,24 @@
       <c r="Y71"/>
       <c r="Z71"/>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="132"/>
+    <row r="72" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A72" s="150"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="159"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5652,51 +5652,51 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109" t="s">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A73" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="90">
+      <c r="B73" s="190"/>
+      <c r="C73" s="170">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="90">
+      <c r="D73" s="171"/>
+      <c r="E73" s="170">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="90">
+      <c r="F73" s="193"/>
+      <c r="G73" s="170">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="91"/>
-      <c r="I73" s="90">
+      <c r="H73" s="171"/>
+      <c r="I73" s="170">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="90">
+      <c r="J73" s="171"/>
+      <c r="K73" s="170">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="94"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="90">
+      <c r="L73" s="174"/>
+      <c r="M73" s="171"/>
+      <c r="N73" s="170">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="91"/>
-      <c r="P73" s="94">
+      <c r="O73" s="171"/>
+      <c r="P73" s="174">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="98" t="s">
+      <c r="Q73" s="175"/>
+      <c r="R73" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="98"/>
+      <c r="S73" s="178"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5704,26 +5704,26 @@
       <c r="Y73"/>
       <c r="Z73"/>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
+    <row r="74" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A74" s="191"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="176"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="176"/>
+      <c r="Q74" s="177"/>
+      <c r="R74" s="178"/>
+      <c r="S74" s="178"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5731,52 +5731,52 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99" t="s">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A75" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="103">
+      <c r="B75" s="180"/>
+      <c r="C75" s="183">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="103">
+      <c r="D75" s="184"/>
+      <c r="E75" s="183">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="103">
+      <c r="F75" s="184"/>
+      <c r="G75" s="183">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="103">
+      <c r="H75" s="184"/>
+      <c r="I75" s="183">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="103">
+      <c r="J75" s="184"/>
+      <c r="K75" s="183">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="107"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="103">
+      <c r="L75" s="187"/>
+      <c r="M75" s="184"/>
+      <c r="N75" s="183">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="104"/>
-      <c r="P75" s="107">
+      <c r="O75" s="184"/>
+      <c r="P75" s="187">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="115">
+      <c r="Q75" s="196"/>
+      <c r="R75" s="198">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="115"/>
+      <c r="S75" s="198"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5784,26 +5784,26 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="115"/>
-      <c r="S76" s="115"/>
+    <row r="76" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A76" s="181"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="186"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="186"/>
+      <c r="K76" s="185"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="186"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="186"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="197"/>
+      <c r="R76" s="198"/>
+      <c r="S76" s="198"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5811,52 +5811,52 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A77" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="81">
+      <c r="B77" s="149"/>
+      <c r="C77" s="200">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="81">
+      <c r="D77" s="201"/>
+      <c r="E77" s="200">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81">
+      <c r="F77" s="201"/>
+      <c r="G77" s="200">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="81">
+      <c r="H77" s="201"/>
+      <c r="I77" s="200">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="81">
+      <c r="J77" s="201"/>
+      <c r="K77" s="200">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="85"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="81">
+      <c r="L77" s="204"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="200">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="82"/>
-      <c r="P77" s="85">
+      <c r="O77" s="201"/>
+      <c r="P77" s="204">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="89">
+      <c r="Q77" s="206"/>
+      <c r="R77" s="208">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="89"/>
+      <c r="S77" s="208"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5864,26 +5864,26 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
+    <row r="78" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A78" s="150"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="203"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="203"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="205"/>
+      <c r="M78" s="203"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="203"/>
+      <c r="P78" s="205"/>
+      <c r="Q78" s="207"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5891,52 +5891,52 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A79" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="68">
+      <c r="B79" s="190"/>
+      <c r="C79" s="210">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68">
+      <c r="D79" s="211"/>
+      <c r="E79" s="210">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="68">
+      <c r="F79" s="211"/>
+      <c r="G79" s="210">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="68">
+      <c r="H79" s="211"/>
+      <c r="I79" s="210">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="69"/>
-      <c r="K79" s="68">
+      <c r="J79" s="211"/>
+      <c r="K79" s="210">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="72"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="68">
+      <c r="L79" s="214"/>
+      <c r="M79" s="211"/>
+      <c r="N79" s="210">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="69"/>
-      <c r="P79" s="72">
+      <c r="O79" s="211"/>
+      <c r="P79" s="214">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="76">
+      <c r="Q79" s="216"/>
+      <c r="R79" s="218">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="76"/>
+      <c r="S79" s="218"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5944,26 +5944,26 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
+    <row r="80" spans="1:30" ht="14.1" customHeight="1">
+      <c r="A80" s="191"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="213"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="213"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="213"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="213"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="213"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="213"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="217"/>
+      <c r="R80" s="218"/>
+      <c r="S80" s="218"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5971,59 +5971,59 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="14.1" customHeight="1">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.1" customHeight="1">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+    <row r="83" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A83" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60" t="s">
+      <c r="B83" s="219"/>
+      <c r="C83" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="60" t="s">
+      <c r="E83" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="60" t="s">
+      <c r="G83" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="60" t="s">
+      <c r="I83" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="60" t="s">
+      <c r="J83" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="61"/>
-      <c r="N83" s="62">
+      <c r="M83" s="223"/>
+      <c r="N83" s="224">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6033,468 +6033,468 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="63"/>
+    <row r="84" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A84" s="219"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
+      <c r="G84" s="222"/>
+      <c r="H84" s="222"/>
+      <c r="I84" s="222"/>
+      <c r="J84" s="222"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="225"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A85" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56">
+      <c r="B85" s="219"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="220">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="220">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="220">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="220">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="221">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="61" t="s">
+      <c r="L85" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="61"/>
-      <c r="N85" s="62">
+      <c r="M85" s="223"/>
+      <c r="N85" s="224">
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="63"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+    <row r="86" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A86" s="219"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="220"/>
+      <c r="F86" s="220"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="221"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="225"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A87" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="56">
+      <c r="B87" s="219"/>
+      <c r="C87" s="220">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="220">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="220">
         <v>0.61</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="220">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57">
+      <c r="G87" s="220"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="221">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+    <row r="88" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A88" s="219"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="220"/>
+      <c r="D88" s="220"/>
+      <c r="E88" s="220"/>
+      <c r="F88" s="220"/>
+      <c r="G88" s="220"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="221"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58" t="s">
+    <row r="89" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A89" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="57" t="e">
+      <c r="B89" s="219"/>
+      <c r="C89" s="220"/>
+      <c r="D89" s="220"/>
+      <c r="E89" s="220"/>
+      <c r="F89" s="220"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="220"/>
+      <c r="I89" s="220"/>
+      <c r="J89" s="221" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="57"/>
+    <row r="90" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A90" s="219"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="220"/>
+      <c r="D90" s="220"/>
+      <c r="E90" s="220"/>
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="220"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="221"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="58" t="s">
+    <row r="91" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A91" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="57" t="e">
+      <c r="B91" s="219"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="221" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="57"/>
+    <row r="92" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A92" s="219"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="221"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A93" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+      <c r="D93" s="220"/>
+      <c r="E93" s="220"/>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="221"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
+    <row r="94" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A94" s="219"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="220"/>
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="221"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="14.1" customHeight="1">
       <c r="A95"/>
       <c r="B95"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="14.1" customHeight="1">
       <c r="A96"/>
       <c r="B96"/>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="14.1" customHeight="1">
       <c r="A97"/>
       <c r="B97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="14.1" customHeight="1">
       <c r="A98"/>
       <c r="B98"/>
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="14.1" customHeight="1">
       <c r="A99"/>
       <c r="B99"/>
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="14.1" customHeight="1">
       <c r="A100"/>
       <c r="B100"/>
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="14.1" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="14.1" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="14.1" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="14.1" customHeight="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="14.1" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="14.1" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="14.1" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="14.1" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="14.1" customHeight="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="14.1" customHeight="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="14.1" customHeight="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="14.1" customHeight="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="14.1" customHeight="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="14.1" customHeight="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="14.1" customHeight="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="14.1" customHeight="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="14.1" customHeight="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="14.1" customHeight="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="14.1" customHeight="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="14.1" customHeight="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="14.1" customHeight="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="14.1" customHeight="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="14.1" customHeight="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="14.1" customHeight="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="14.1" customHeight="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="14.1" customHeight="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="14.1" customHeight="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="14.1" customHeight="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="14.1" customHeight="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="14.1" customHeight="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="14.1" customHeight="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="14.1" customHeight="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="14.1" customHeight="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="14.1" customHeight="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="14.1" customHeight="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="14.1" customHeight="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="14.1" customHeight="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="L138"/>
@@ -6502,18 +6502,340 @@
     </row>
   </sheetData>
   <mergeCells count="370">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6538,340 +6860,18 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\sts4\SdProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -594,7 +594,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,7 +1264,418 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,499 +1690,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,11 +2199,11 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
     <col min="3" max="9" width="7.625" style="1" customWidth="1"/>
@@ -2220,12 +2220,12 @@
     <col min="26" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A1" s="57">
+    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="194">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="57">
+      <c r="L1" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="58"/>
+      <c r="M1" s="195"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,38 +2275,38 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AE1" s="225" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.1" customHeight="1">
+    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <f>WEEKNUM(A1,1)</f>
         <v>20</v>
@@ -2378,49 +2378,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="201" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="223"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2440,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="221">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="61">
+      <c r="AA3" s="220">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="62">
+      <c r="AD3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="62">
+      <c r="AE3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="223"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2513,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-    </row>
-    <row r="5" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="X4" s="224"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="191"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2570,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="65">
+      <c r="Y5" s="201">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="201">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="65">
+      <c r="AA5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="65">
+      <c r="AD5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="72"/>
+    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="191"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2633,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-    </row>
-    <row r="7" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="X6" s="208"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="76"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="84" t="s">
+      <c r="X7" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="209">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="73">
+      <c r="Z7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="AA7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="73">
+      <c r="AB7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="73">
+      <c r="AC7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="AD7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="73">
+      <c r="AE7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
+    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2755,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2780,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="X8" s="218"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="210"/>
+      <c r="AE8" s="210"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="76"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2831,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="79" t="s">
+      <c r="X9" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="81">
+      <c r="Y9" s="214">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="83">
+      <c r="Z9" s="216">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="83">
+      <c r="AB9" s="216">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="83">
+      <c r="AC9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="83">
+      <c r="AD9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="83">
+      <c r="AE9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="211"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2891,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2908,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="X10" s="213"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="215"/>
+      <c r="AE10" s="215"/>
+    </row>
+    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2945,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="184"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2965,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="69" t="s">
+      <c r="X11" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="65">
+      <c r="Y11" s="201">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="65">
+      <c r="Z11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="65">
+      <c r="AA11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="65">
+      <c r="AB11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="65">
+      <c r="AC11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="65">
+      <c r="AD11" s="201">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="65">
+      <c r="AE11" s="201">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
+    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="204"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3023,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3046,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-    </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="X12" s="208"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
+    </row>
+    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="76"/>
+      <c r="M13" s="186"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3108,9 +3108,9 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="204"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3132,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3159,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="90" t="s">
+      <c r="X14" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="201">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="65">
+      <c r="Z14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="65">
+      <c r="AA14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="65">
+      <c r="AB14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="65">
+      <c r="AC14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="65">
+      <c r="AD14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="65">
+      <c r="AE14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="76"/>
+      <c r="M15" s="186"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3239,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-    </row>
-    <row r="16" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="201"/>
+      <c r="AD15" s="201"/>
+      <c r="AE15" s="201"/>
+    </row>
+    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3274,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3297,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="90" t="s">
+      <c r="X16" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="91">
+      <c r="Y16" s="207">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="91">
+      <c r="Z16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="91">
+      <c r="AA16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="91">
+      <c r="AB16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="91">
+      <c r="AC16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="91">
+      <c r="AD16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="91">
+      <c r="AE16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="203"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3376,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
+      <c r="X17" s="206"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="207"/>
+      <c r="AE17" s="207"/>
+    </row>
+    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="204"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3409,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="205"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3433,9 +3433,9 @@
         <v>O</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3445,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3454,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="93" t="s">
+      <c r="Y19" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="93" t="s">
+      <c r="Z19" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="93" t="s">
+      <c r="AA19" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="93" t="s">
+      <c r="AB19" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="93" t="s">
+      <c r="AD19" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="93" t="s">
+      <c r="AE19" s="199" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3494,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3511,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-    </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+    </row>
+    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3531,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3542,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="95" t="s">
+      <c r="Y21" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="95">
+      <c r="Z21" s="189">
         <v>3</v>
       </c>
-      <c r="AA21" s="95">
+      <c r="AA21" s="189">
         <v>2</v>
       </c>
-      <c r="AB21" s="95">
+      <c r="AB21" s="189">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95">
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3579,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,15 +3596,15 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-    </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1">
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="190"/>
+    </row>
+    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="6"/>
@@ -3625,28 +3625,28 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="95" t="s">
+      <c r="Y23" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="95">
+      <c r="Z23" s="189">
         <v>4</v>
       </c>
-      <c r="AA23" s="95">
+      <c r="AA23" s="189">
         <v>3</v>
       </c>
-      <c r="AB23" s="95">
+      <c r="AB23" s="189">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95">
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189">
         <v>3</v>
       </c>
-      <c r="AE23" s="95">
+      <c r="AE23" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1">
+    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="6"/>
@@ -3667,20 +3667,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-    </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A25" s="57">
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="190"/>
+    </row>
+    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3702,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="58"/>
+      <c r="M25" s="195"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,34 +3734,34 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="95" t="s">
+      <c r="Y25" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="95">
+      <c r="Z25" s="189">
         <v>3</v>
       </c>
-      <c r="AA25" s="95">
+      <c r="AA25" s="189">
         <v>2</v>
       </c>
-      <c r="AB25" s="95">
+      <c r="AB25" s="189">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95">
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189">
         <v>4</v>
       </c>
-      <c r="AE25" s="95">
+      <c r="AE25" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1">
+    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <f>WEEKNUM(A25,1)</f>
         <v>20</v>
@@ -3797,8 +3797,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="97"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3834,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-    </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A27" s="64" t="s">
+      <c r="U26" s="196"/>
+      <c r="V26" s="197"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
+    </row>
+    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="72"/>
+      <c r="M27" s="191"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3881,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="95" t="s">
+      <c r="Y27" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="95">
+      <c r="Z27" s="189">
         <v>4</v>
       </c>
-      <c r="AA27" s="95">
+      <c r="AA27" s="189">
         <v>3</v>
       </c>
-      <c r="AB27" s="95">
+      <c r="AB27" s="189">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95">
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189">
         <v>1</v>
       </c>
-      <c r="AE27" s="95">
+      <c r="AE27" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3922,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="72"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="191"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3945,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-    </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A29" s="64" t="s">
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="190"/>
+    </row>
+    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="72"/>
+      <c r="M29" s="191"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="95" t="s">
+      <c r="Y29" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="95">
+      <c r="Z29" s="189">
         <v>3</v>
       </c>
-      <c r="AA29" s="95">
+      <c r="AA29" s="189">
         <v>2</v>
       </c>
-      <c r="AB29" s="95">
+      <c r="AB29" s="189">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95">
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189">
         <v>2</v>
       </c>
-      <c r="AE29" s="95">
+      <c r="AE29" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="184"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4030,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="191"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4047,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-    </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A31" s="64" t="s">
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
+    </row>
+    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="76"/>
+      <c r="M31" s="186"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4093,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="95" t="s">
+      <c r="Y31" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="95">
+      <c r="Z31" s="189">
         <v>4</v>
       </c>
-      <c r="AA31" s="95">
+      <c r="AA31" s="189">
         <v>3</v>
       </c>
-      <c r="AB31" s="95">
+      <c r="AB31" s="189">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95">
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189">
         <v>3</v>
       </c>
-      <c r="AE31" s="95">
+      <c r="AE31" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="184"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4134,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="188"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4157,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-    </row>
-    <row r="33" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A33" s="64" t="s">
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="190"/>
+    </row>
+    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="76"/>
+      <c r="M33" s="186"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4204,9 +4204,9 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4224,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="77"/>
-      <c r="M34" s="78"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4248,11 +4248,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4285,9 +4285,9 @@
       </c>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4303,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4327,11 +4327,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4353,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="76"/>
+      <c r="M37" s="186"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4374,9 +4374,9 @@
       </c>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4402,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4426,11 +4426,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4450,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4461,9 +4461,9 @@
       <c r="T39" s="42"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4487,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4505,15 +4505,15 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-    </row>
-    <row r="42" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+    </row>
+    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4522,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4533,9 +4533,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
+    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4545,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4568,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="14.1" customHeight="1">
+    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -4592,7 +4592,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:35" ht="14.1" customHeight="1">
+    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -4605,13 +4605,13 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1">
+    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1">
+    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="L48"/>
@@ -4633,38 +4633,38 @@
       <c r="AH48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99" t="s">
+    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100" t="s">
+      <c r="D49" s="183"/>
+      <c r="E49" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100" t="s">
+      <c r="F49" s="178"/>
+      <c r="G49" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100" t="s">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100" t="s">
+      <c r="J49" s="178"/>
+      <c r="K49" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100" t="s">
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="101" t="s">
+      <c r="O49" s="178"/>
+      <c r="P49" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="101"/>
+      <c r="Q49" s="179"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4683,45 +4683,45 @@
       <c r="AH49" s="29"/>
       <c r="AI49" s="29"/>
     </row>
-    <row r="50" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="102">
+    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="180">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103">
+      <c r="D50" s="180"/>
+      <c r="E50" s="181">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103">
+      <c r="F50" s="181"/>
+      <c r="G50" s="181">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103">
+      <c r="H50" s="181"/>
+      <c r="I50" s="181">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103">
+      <c r="J50" s="181"/>
+      <c r="K50" s="181">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103">
+      <c r="L50" s="181"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="104">
+      <c r="O50" s="181"/>
+      <c r="P50" s="182">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="104"/>
+      <c r="Q50" s="182"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4740,47 +4740,47 @@
       <c r="AH50" s="27"/>
       <c r="AI50" s="27"/>
     </row>
-    <row r="51" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A51" s="106" t="s">
+    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="105">
+      <c r="B51" s="177"/>
+      <c r="C51" s="176">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105">
+      <c r="D51" s="176"/>
+      <c r="E51" s="176">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105">
+      <c r="F51" s="176"/>
+      <c r="G51" s="176">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105">
+      <c r="H51" s="176"/>
+      <c r="I51" s="176">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105">
+      <c r="J51" s="176"/>
+      <c r="K51" s="176">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105">
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105">
+      <c r="O51" s="176"/>
+      <c r="P51" s="176">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="105"/>
+      <c r="Q51" s="176"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4799,24 +4799,24 @@
       <c r="AH51" s="27"/>
       <c r="AI51" s="27"/>
     </row>
-    <row r="52" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
+    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4835,24 +4835,24 @@
       <c r="AH52" s="27"/>
       <c r="AI52" s="27"/>
     </row>
-    <row r="53" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
+    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4871,40 +4871,40 @@
       <c r="AH53"/>
       <c r="AI53"/>
     </row>
-    <row r="54" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A54" s="106" t="s">
+    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107">
+      <c r="B54" s="177"/>
+      <c r="C54" s="169">
         <v>1095960</v>
       </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107">
+      <c r="D54" s="169"/>
+      <c r="E54" s="169">
         <v>870450</v>
       </c>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107">
+      <c r="F54" s="169"/>
+      <c r="G54" s="169">
         <v>1020450</v>
       </c>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107">
+      <c r="H54" s="169"/>
+      <c r="I54" s="169">
         <v>1026450</v>
       </c>
-      <c r="J54" s="107"/>
-      <c r="K54" s="108">
+      <c r="J54" s="169"/>
+      <c r="K54" s="175">
         <v>1032450</v>
       </c>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="107">
+      <c r="L54" s="175"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="169">
         <v>1056450</v>
       </c>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107">
+      <c r="O54" s="169"/>
+      <c r="P54" s="169">
         <v>960450</v>
       </c>
-      <c r="Q54" s="107"/>
+      <c r="Q54" s="169"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4923,24 +4923,24 @@
       <c r="AH54"/>
       <c r="AI54"/>
     </row>
-    <row r="55" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A55" s="106"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
+    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="175"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4959,52 +4959,52 @@
       <c r="AH55"/>
       <c r="AI55"/>
     </row>
-    <row r="56" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A56" s="114" t="s">
+    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="107">
+      <c r="B56" s="168"/>
+      <c r="C56" s="169">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107">
+      <c r="D56" s="169"/>
+      <c r="E56" s="169">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107">
+      <c r="F56" s="169"/>
+      <c r="G56" s="169">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107">
+      <c r="H56" s="169"/>
+      <c r="I56" s="169">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108">
+      <c r="J56" s="169"/>
+      <c r="K56" s="175">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="107">
+      <c r="L56" s="175"/>
+      <c r="M56" s="175"/>
+      <c r="N56" s="169">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="107"/>
-      <c r="P56" s="107">
+      <c r="O56" s="169"/>
+      <c r="P56" s="169">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="109">
+      <c r="Q56" s="169"/>
+      <c r="R56" s="170">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="110"/>
-      <c r="T56" s="111" t="s">
+      <c r="S56" s="171"/>
+      <c r="T56" s="172" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5023,27 +5023,27 @@
       <c r="AH56"/>
       <c r="AI56"/>
     </row>
-    <row r="57" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="110"/>
-      <c r="S57" s="110"/>
-      <c r="T57" s="111"/>
+    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="168"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="169"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="169"/>
+      <c r="Q57" s="169"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="172"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5060,77 +5060,77 @@
       <c r="AH57"/>
       <c r="AI57"/>
     </row>
-    <row r="58" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A58" s="112" t="s">
+    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113">
+      <c r="B58" s="173"/>
+      <c r="C58" s="174">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113">
+      <c r="D58" s="174"/>
+      <c r="E58" s="174">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113">
+      <c r="F58" s="174"/>
+      <c r="G58" s="174">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113">
+      <c r="H58" s="174"/>
+      <c r="I58" s="174">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113">
+      <c r="J58" s="174"/>
+      <c r="K58" s="174">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113">
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113">
+      <c r="O58" s="174"/>
+      <c r="P58" s="174">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113">
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="113"/>
-      <c r="T58" s="111" t="s">
+      <c r="S58" s="174"/>
+      <c r="T58" s="172" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="111"/>
+    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="173"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="174"/>
+      <c r="S59" s="174"/>
+      <c r="T59" s="172"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5147,40 +5147,40 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A60" s="114" t="s">
+    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="107">
+      <c r="B60" s="168"/>
+      <c r="C60" s="169">
         <v>5616890</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107">
+      <c r="D60" s="169"/>
+      <c r="E60" s="169">
         <v>2704420</v>
       </c>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107">
+      <c r="F60" s="169"/>
+      <c r="G60" s="169">
         <v>3785170</v>
       </c>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107">
+      <c r="H60" s="169"/>
+      <c r="I60" s="169">
         <v>4748100</v>
       </c>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107">
+      <c r="J60" s="169"/>
+      <c r="K60" s="169">
         <v>4277980</v>
       </c>
-      <c r="L60" s="107"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="107">
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169">
         <v>5076670</v>
       </c>
-      <c r="O60" s="107"/>
-      <c r="P60" s="107">
+      <c r="O60" s="169"/>
+      <c r="P60" s="169">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="107"/>
+      <c r="Q60" s="169"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5199,24 +5199,24 @@
       <c r="AH60"/>
       <c r="AI60"/>
     </row>
-    <row r="61" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
+    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5235,40 +5235,40 @@
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
-    <row r="62" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A62" s="114" t="s">
+    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="107">
+      <c r="B62" s="168"/>
+      <c r="C62" s="169">
         <v>8170510</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107">
+      <c r="D62" s="169"/>
+      <c r="E62" s="169">
         <v>4484960</v>
       </c>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107">
+      <c r="F62" s="169"/>
+      <c r="G62" s="169">
         <v>2086960</v>
       </c>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107">
+      <c r="H62" s="169"/>
+      <c r="I62" s="169">
         <v>2634530</v>
       </c>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107">
+      <c r="J62" s="169"/>
+      <c r="K62" s="169">
         <v>4909830</v>
       </c>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107">
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169">
         <v>6227730</v>
       </c>
-      <c r="O62" s="107"/>
-      <c r="P62" s="107">
+      <c r="O62" s="169"/>
+      <c r="P62" s="169">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="107"/>
+      <c r="Q62" s="169"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5287,24 +5287,24 @@
       <c r="AH62"/>
       <c r="AI62"/>
     </row>
-    <row r="63" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
+    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5318,46 +5318,46 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A64" s="114" t="s">
+    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="115">
+      <c r="B64" s="168"/>
+      <c r="C64" s="143">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115">
+      <c r="D64" s="143"/>
+      <c r="E64" s="143">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115">
+      <c r="F64" s="143"/>
+      <c r="G64" s="143">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115">
+      <c r="J64" s="143"/>
+      <c r="K64" s="143">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115">
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115">
+      <c r="O64" s="143"/>
+      <c r="P64" s="143">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="143"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5371,24 +5371,24 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
+    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5402,7 +5402,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5432,35 +5432,35 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A67" s="116" t="s">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="117"/>
-      <c r="C67" s="120">
+      <c r="B67" s="145"/>
+      <c r="C67" s="148">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="124" t="s">
+      <c r="D67" s="149"/>
+      <c r="E67" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="125"/>
-      <c r="G67" s="128">
+      <c r="F67" s="153"/>
+      <c r="G67" s="156">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="129"/>
-      <c r="I67" s="132" t="s">
+      <c r="H67" s="157"/>
+      <c r="I67" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="133"/>
-      <c r="K67" s="136">
+      <c r="J67" s="161"/>
+      <c r="K67" s="164">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="136"/>
-      <c r="M67" s="137"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5479,20 +5479,20 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A68" s="118"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="139"/>
+    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="146"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="166"/>
+      <c r="M68" s="167"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5506,47 +5506,47 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A69" s="160" t="s">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="164">
+      <c r="B69" s="134"/>
+      <c r="C69" s="137">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="165"/>
-      <c r="E69" s="168">
+      <c r="D69" s="138"/>
+      <c r="E69" s="141">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="169"/>
-      <c r="G69" s="168">
+      <c r="F69" s="142"/>
+      <c r="G69" s="141">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="169"/>
-      <c r="I69" s="168">
+      <c r="H69" s="142"/>
+      <c r="I69" s="141">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="169"/>
-      <c r="K69" s="140">
+      <c r="J69" s="142"/>
+      <c r="K69" s="116">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="144"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="140">
+      <c r="L69" s="120"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="116">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="141"/>
-      <c r="P69" s="144">
+      <c r="O69" s="117"/>
+      <c r="P69" s="120">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="145"/>
+      <c r="Q69" s="121"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5554,24 +5554,24 @@
       <c r="Y69"/>
       <c r="Z69"/>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A70" s="162"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="167"/>
-      <c r="I70" s="166"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="147"/>
+    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5579,47 +5579,47 @@
       <c r="Y70"/>
       <c r="Z70"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A71" s="148" t="s">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="152">
+      <c r="B71" s="78"/>
+      <c r="C71" s="125">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="153"/>
-      <c r="E71" s="152">
+      <c r="D71" s="126"/>
+      <c r="E71" s="125">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="153"/>
-      <c r="G71" s="152">
+      <c r="F71" s="126"/>
+      <c r="G71" s="125">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="153"/>
-      <c r="I71" s="152">
+      <c r="H71" s="126"/>
+      <c r="I71" s="125">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="153"/>
-      <c r="K71" s="152">
+      <c r="J71" s="126"/>
+      <c r="K71" s="125">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="156"/>
-      <c r="M71" s="153"/>
-      <c r="N71" s="152">
+      <c r="L71" s="129"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="125">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="153"/>
-      <c r="P71" s="156">
+      <c r="O71" s="126"/>
+      <c r="P71" s="129">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="158"/>
+      <c r="Q71" s="131"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5627,24 +5627,24 @@
       <c r="Y71"/>
       <c r="Z71"/>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A72" s="150"/>
-      <c r="B72" s="151"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="159"/>
+    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="132"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5652,51 +5652,51 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A73" s="189" t="s">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="190"/>
-      <c r="C73" s="170">
+      <c r="B73" s="65"/>
+      <c r="C73" s="90">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="171"/>
-      <c r="E73" s="170">
+      <c r="D73" s="91"/>
+      <c r="E73" s="90">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="193"/>
-      <c r="G73" s="170">
+      <c r="F73" s="110"/>
+      <c r="G73" s="90">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="170">
+      <c r="H73" s="91"/>
+      <c r="I73" s="90">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="171"/>
-      <c r="K73" s="170">
+      <c r="J73" s="91"/>
+      <c r="K73" s="90">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="174"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="170">
+      <c r="L73" s="94"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="90">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="171"/>
-      <c r="P73" s="174">
+      <c r="O73" s="91"/>
+      <c r="P73" s="94">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="175"/>
-      <c r="R73" s="178" t="s">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="178"/>
+      <c r="S73" s="98"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5704,26 +5704,26 @@
       <c r="Y73"/>
       <c r="Z73"/>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A74" s="191"/>
-      <c r="B74" s="192"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="176"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="176"/>
-      <c r="Q74" s="177"/>
-      <c r="R74" s="178"/>
-      <c r="S74" s="178"/>
+    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5731,52 +5731,52 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A75" s="179" t="s">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="180"/>
-      <c r="C75" s="183">
+      <c r="B75" s="100"/>
+      <c r="C75" s="103">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="184"/>
-      <c r="E75" s="183">
+      <c r="D75" s="104"/>
+      <c r="E75" s="103">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="184"/>
-      <c r="G75" s="183">
+      <c r="F75" s="104"/>
+      <c r="G75" s="103">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="184"/>
-      <c r="I75" s="183">
+      <c r="H75" s="104"/>
+      <c r="I75" s="103">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="184"/>
-      <c r="K75" s="183">
+      <c r="J75" s="104"/>
+      <c r="K75" s="103">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="187"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="183">
+      <c r="L75" s="107"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="103">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="184"/>
-      <c r="P75" s="187">
+      <c r="O75" s="104"/>
+      <c r="P75" s="107">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="196"/>
-      <c r="R75" s="198">
+      <c r="Q75" s="113"/>
+      <c r="R75" s="115">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="198"/>
+      <c r="S75" s="115"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5784,26 +5784,26 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A76" s="181"/>
-      <c r="B76" s="182"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="186"/>
-      <c r="I76" s="185"/>
-      <c r="J76" s="186"/>
-      <c r="K76" s="185"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="186"/>
-      <c r="N76" s="185"/>
-      <c r="O76" s="186"/>
-      <c r="P76" s="188"/>
-      <c r="Q76" s="197"/>
-      <c r="R76" s="198"/>
-      <c r="S76" s="198"/>
+    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="101"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="115"/>
+      <c r="S76" s="115"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5811,52 +5811,52 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A77" s="199" t="s">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="200">
+      <c r="B77" s="78"/>
+      <c r="C77" s="81">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="201"/>
-      <c r="E77" s="200">
+      <c r="D77" s="82"/>
+      <c r="E77" s="81">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="201"/>
-      <c r="G77" s="200">
+      <c r="F77" s="82"/>
+      <c r="G77" s="81">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="201"/>
-      <c r="I77" s="200">
+      <c r="H77" s="82"/>
+      <c r="I77" s="81">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="201"/>
-      <c r="K77" s="200">
+      <c r="J77" s="82"/>
+      <c r="K77" s="81">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="204"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="200">
+      <c r="L77" s="85"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="81">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="201"/>
-      <c r="P77" s="204">
+      <c r="O77" s="82"/>
+      <c r="P77" s="85">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="206"/>
-      <c r="R77" s="208">
+      <c r="Q77" s="87"/>
+      <c r="R77" s="89">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="208"/>
+      <c r="S77" s="89"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5864,26 +5864,26 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A78" s="150"/>
-      <c r="B78" s="151"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="203"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="203"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="203"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="205"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="203"/>
-      <c r="P78" s="205"/>
-      <c r="Q78" s="207"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
+    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="86"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5891,52 +5891,52 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A79" s="209" t="s">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="190"/>
-      <c r="C79" s="210">
+      <c r="B79" s="65"/>
+      <c r="C79" s="68">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="211"/>
-      <c r="E79" s="210">
+      <c r="D79" s="69"/>
+      <c r="E79" s="68">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="211"/>
-      <c r="G79" s="210">
+      <c r="F79" s="69"/>
+      <c r="G79" s="68">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="211"/>
-      <c r="I79" s="210">
+      <c r="H79" s="69"/>
+      <c r="I79" s="68">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="211"/>
-      <c r="K79" s="210">
+      <c r="J79" s="69"/>
+      <c r="K79" s="68">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="214"/>
-      <c r="M79" s="211"/>
-      <c r="N79" s="210">
+      <c r="L79" s="72"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="68">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="211"/>
-      <c r="P79" s="214">
+      <c r="O79" s="69"/>
+      <c r="P79" s="72">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="216"/>
-      <c r="R79" s="218">
+      <c r="Q79" s="74"/>
+      <c r="R79" s="76">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="218"/>
+      <c r="S79" s="76"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5944,26 +5944,26 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1">
-      <c r="A80" s="191"/>
-      <c r="B80" s="192"/>
-      <c r="C80" s="212"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="213"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="213"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="213"/>
-      <c r="K80" s="212"/>
-      <c r="L80" s="215"/>
-      <c r="M80" s="213"/>
-      <c r="N80" s="212"/>
-      <c r="O80" s="213"/>
-      <c r="P80" s="215"/>
-      <c r="Q80" s="217"/>
-      <c r="R80" s="218"/>
-      <c r="S80" s="218"/>
+    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="76"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5971,59 +5971,59 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="14.1" customHeight="1">
+    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:26" ht="14.1" customHeight="1">
+    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A83" s="219" t="s">
+    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="219"/>
-      <c r="C83" s="222" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="222" t="s">
+      <c r="D83" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="222" t="s">
+      <c r="E83" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="222" t="s">
+      <c r="F83" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="222" t="s">
+      <c r="G83" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="222" t="s">
+      <c r="H83" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="222" t="s">
+      <c r="I83" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="222" t="s">
+      <c r="J83" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="223" t="s">
+      <c r="L83" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="223"/>
-      <c r="N83" s="224">
+      <c r="M83" s="61"/>
+      <c r="N83" s="62">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="98"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6033,468 +6033,468 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A84" s="219"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="222"/>
-      <c r="D84" s="222"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="222"/>
-      <c r="G84" s="222"/>
-      <c r="H84" s="222"/>
-      <c r="I84" s="222"/>
-      <c r="J84" s="222"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="225"/>
+    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="63"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="98"/>
-      <c r="R84" s="98"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A85" s="219" t="s">
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="219"/>
-      <c r="C85" s="220"/>
-      <c r="D85" s="220"/>
-      <c r="E85" s="220"/>
-      <c r="F85" s="220">
+      <c r="B85" s="58"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="220">
+      <c r="G85" s="56">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="220">
+      <c r="H85" s="56">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="220">
+      <c r="I85" s="56">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="221">
+      <c r="J85" s="57">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="223" t="s">
+      <c r="L85" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="223"/>
-      <c r="N85" s="224">
+      <c r="M85" s="61"/>
+      <c r="N85" s="62">
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A86" s="219"/>
-      <c r="B86" s="219"/>
-      <c r="C86" s="220"/>
-      <c r="D86" s="220"/>
-      <c r="E86" s="220"/>
-      <c r="F86" s="220"/>
-      <c r="G86" s="220"/>
-      <c r="H86" s="220"/>
-      <c r="I86" s="220"/>
-      <c r="J86" s="221"/>
-      <c r="L86" s="223"/>
-      <c r="M86" s="223"/>
-      <c r="N86" s="225"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A87" s="219" t="s">
+    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="63"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="219"/>
-      <c r="C87" s="220">
+      <c r="B87" s="58"/>
+      <c r="C87" s="56">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="220">
+      <c r="D87" s="56">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="220">
+      <c r="E87" s="56">
         <v>0.61</v>
       </c>
-      <c r="F87" s="220">
+      <c r="F87" s="56">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="220"/>
-      <c r="H87" s="220"/>
-      <c r="I87" s="220"/>
-      <c r="J87" s="221">
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A88" s="219"/>
-      <c r="B88" s="219"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220"/>
-      <c r="F88" s="220"/>
-      <c r="G88" s="220"/>
-      <c r="H88" s="220"/>
-      <c r="I88" s="220"/>
-      <c r="J88" s="221"/>
+    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A89" s="219" t="s">
+    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="219"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="220"/>
-      <c r="G89" s="220"/>
-      <c r="H89" s="220"/>
-      <c r="I89" s="220"/>
-      <c r="J89" s="221" t="e">
+      <c r="B89" s="58"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="57" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A90" s="219"/>
-      <c r="B90" s="219"/>
-      <c r="C90" s="220"/>
-      <c r="D90" s="220"/>
-      <c r="E90" s="220"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="220"/>
-      <c r="H90" s="220"/>
-      <c r="I90" s="220"/>
-      <c r="J90" s="221"/>
+    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="57"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A91" s="219" t="s">
+    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="219"/>
-      <c r="C91" s="220"/>
-      <c r="D91" s="220"/>
-      <c r="E91" s="220"/>
-      <c r="F91" s="220"/>
-      <c r="G91" s="220"/>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
-      <c r="J91" s="221" t="e">
+      <c r="B91" s="58"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="57" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A92" s="219"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="220"/>
-      <c r="E92" s="220"/>
-      <c r="F92" s="220"/>
-      <c r="G92" s="220"/>
-      <c r="H92" s="220"/>
-      <c r="I92" s="220"/>
-      <c r="J92" s="221"/>
+    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="57"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A93" s="219" t="s">
+    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="219"/>
-      <c r="C93" s="220"/>
-      <c r="D93" s="220"/>
-      <c r="E93" s="220"/>
-      <c r="F93" s="220"/>
-      <c r="G93" s="220"/>
-      <c r="H93" s="220"/>
-      <c r="I93" s="220"/>
-      <c r="J93" s="221"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A94" s="219"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="220"/>
-      <c r="F94" s="220"/>
-      <c r="G94" s="220"/>
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="221"/>
+    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:26" ht="14.1" customHeight="1">
+    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:26" ht="14.1" customHeight="1">
+    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1">
+    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" ht="14.1" customHeight="1">
+    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1">
+    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1">
+    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" ht="14.1" customHeight="1">
+    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" ht="14.1" customHeight="1">
+    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" ht="14.1" customHeight="1">
+    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" ht="14.1" customHeight="1">
+    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" ht="14.1" customHeight="1">
+    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" ht="14.1" customHeight="1">
+    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" ht="14.1" customHeight="1">
+    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" ht="14.1" customHeight="1">
+    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" ht="14.1" customHeight="1">
+    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" ht="14.1" customHeight="1">
+    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" ht="14.1" customHeight="1">
+    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" ht="14.1" customHeight="1">
+    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" ht="14.1" customHeight="1">
+    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" ht="14.1" customHeight="1">
+    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" ht="14.1" customHeight="1">
+    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" ht="14.1" customHeight="1">
+    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" ht="14.1" customHeight="1">
+    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" ht="14.1" customHeight="1">
+    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" ht="14.1" customHeight="1">
+    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1">
+    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" ht="14.1" customHeight="1">
+    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" ht="14.1" customHeight="1">
+    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" ht="14.1" customHeight="1">
+    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" ht="14.1" customHeight="1">
+    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" ht="14.1" customHeight="1">
+    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" ht="14.1" customHeight="1">
+    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" ht="14.1" customHeight="1">
+    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" ht="14.1" customHeight="1">
+    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" ht="14.1" customHeight="1">
+    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" ht="14.1" customHeight="1">
+    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" ht="14.1" customHeight="1">
+    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" ht="14.1" customHeight="1">
+    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" ht="14.1" customHeight="1">
+    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" ht="14.1" customHeight="1">
+    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" ht="14.1" customHeight="1">
+    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" ht="14.1" customHeight="1">
+    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" ht="14.1" customHeight="1">
+    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" ht="14.1" customHeight="1">
+    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="L138"/>
@@ -6502,42 +6502,316 @@
     </row>
   </sheetData>
   <mergeCells count="370">
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
     <mergeCell ref="R83:R84"/>
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -6562,316 +6836,42 @@
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="L85:M86"/>
     <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -1264,16 +1264,502 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,492 +1772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,11 +2199,11 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
     <col min="3" max="9" width="7.625" style="1" customWidth="1"/>
@@ -2220,12 +2220,12 @@
     <col min="26" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="194">
+    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="57">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="194">
+      <c r="L1" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="195"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,38 +2275,38 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="196" t="s">
+      <c r="U1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="197" t="s">
+      <c r="V1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="225" t="s">
+      <c r="X1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="225" t="s">
+      <c r="Y1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="225" t="s">
+      <c r="Z1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="225" t="s">
+      <c r="AB1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="225" t="s">
+      <c r="AC1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="225" t="s">
+      <c r="AD1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="225" t="s">
+      <c r="AE1" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13">
         <f>WEEKNUM(A1,1)</f>
         <v>20</v>
@@ -2378,49 +2378,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="201" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="201" t="s">
+      <c r="D3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="65" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="223"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2440,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="221">
+      <c r="Y3" s="62">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="221">
+      <c r="Z3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="220">
+      <c r="AA3" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="221">
+      <c r="AB3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="221">
+      <c r="AC3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="221">
+      <c r="AD3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="221">
+      <c r="AE3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="223"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2513,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-    </row>
-    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="219" t="s">
+      <c r="K5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="191"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2570,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="201">
+      <c r="Y5" s="65">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="201">
+      <c r="Z5" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="201">
+      <c r="AB5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="201">
+      <c r="AC5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="201">
+      <c r="AD5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="201">
+      <c r="AE5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="191"/>
+    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2633,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
-    </row>
-    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185" t="s">
+      <c r="X6" s="69"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="185" t="s">
+      <c r="L7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="186"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="217" t="s">
+      <c r="X7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="209">
+      <c r="Y7" s="73">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="209">
+      <c r="Z7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="209">
+      <c r="AA7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="209">
+      <c r="AB7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="209">
+      <c r="AC7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="209">
+      <c r="AD7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="209">
+      <c r="AE7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2755,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2780,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
+      <c r="X8" s="85"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="185" t="s">
+      <c r="L9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="186"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2831,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="212" t="s">
+      <c r="X9" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="214">
+      <c r="Y9" s="81">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="216">
+      <c r="Z9" s="83">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="216">
+      <c r="AA9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="216">
+      <c r="AB9" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="216">
+      <c r="AC9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="216">
+      <c r="AD9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="216">
+      <c r="AE9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="211"/>
+    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2891,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2908,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="215"/>
-      <c r="AE10" s="215"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+    </row>
+    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2945,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="184"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2965,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="208" t="s">
+      <c r="X11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="201">
+      <c r="Y11" s="65">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="201">
+      <c r="Z11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="201">
+      <c r="AA11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="201">
+      <c r="AB11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="201">
+      <c r="AC11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="201">
+      <c r="AD11" s="65">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="65">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="205"/>
+    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3023,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3046,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="201"/>
-    </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="X12" s="69"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+    </row>
+    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="203"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="185" t="s">
+      <c r="L13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="186"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3108,9 +3108,9 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="205"/>
+    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3132,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3159,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="206" t="s">
+      <c r="X14" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="201">
+      <c r="Y14" s="65">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="201">
+      <c r="Z14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="201">
+      <c r="AA14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="201">
+      <c r="AB14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="201">
+      <c r="AC14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="201">
+      <c r="AD14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="201">
+      <c r="AE14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="185" t="s">
+      <c r="L15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="186"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3239,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="201"/>
-      <c r="AD15" s="201"/>
-      <c r="AE15" s="201"/>
-    </row>
-    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+    </row>
+    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3274,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3297,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="206" t="s">
+      <c r="X16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="207">
+      <c r="Y16" s="91">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="207">
+      <c r="Z16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="207">
+      <c r="AA16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="207">
+      <c r="AB16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="207">
+      <c r="AD16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="207">
+      <c r="AE16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202" t="s">
+    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="203"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="202" t="s">
+      <c r="L17" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="203"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3376,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="205"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+    </row>
+    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3409,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="205"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3433,9 +3433,9 @@
         <v>O</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
+    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3445,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3454,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="199" t="s">
+      <c r="Y19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Z19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="199" t="s">
+      <c r="AA19" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="199" t="s">
+      <c r="AB19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="199" t="s">
+      <c r="AC19" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="199" t="s">
+      <c r="AD19" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="199" t="s">
+      <c r="AE19" s="93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
+    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3494,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3511,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
-    </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
-      <c r="B21" s="198"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+    </row>
+    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3531,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3542,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="189" t="s">
+      <c r="Y21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="189">
+      <c r="Z21" s="95">
         <v>3</v>
       </c>
-      <c r="AA21" s="189">
+      <c r="AA21" s="95">
         <v>2</v>
       </c>
-      <c r="AB21" s="189">
+      <c r="AB21" s="95">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189">
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="198"/>
+    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3579,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,15 +3596,15 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="190"/>
-    </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+    </row>
+    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="6"/>
@@ -3625,28 +3625,28 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="189" t="s">
+      <c r="Y23" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="189">
+      <c r="Z23" s="95">
         <v>4</v>
       </c>
-      <c r="AA23" s="189">
+      <c r="AA23" s="95">
         <v>3</v>
       </c>
-      <c r="AB23" s="189">
+      <c r="AB23" s="95">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189">
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95">
         <v>3</v>
       </c>
-      <c r="AE23" s="189">
+      <c r="AE23" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="6"/>
@@ -3667,20 +3667,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
-    </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="194">
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+    </row>
+    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="195"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3702,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="192" t="s">
+      <c r="J25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="193" t="s">
+      <c r="K25" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="194">
+      <c r="L25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="195"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,34 +3734,34 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="196" t="s">
+      <c r="U25" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="197" t="s">
+      <c r="V25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="189" t="s">
+      <c r="Y25" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="189">
+      <c r="Z25" s="95">
         <v>3</v>
       </c>
-      <c r="AA25" s="189">
+      <c r="AA25" s="95">
         <v>2</v>
       </c>
-      <c r="AB25" s="189">
+      <c r="AB25" s="95">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189">
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95">
         <v>4</v>
       </c>
-      <c r="AE25" s="189">
+      <c r="AE25" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="13">
         <f>WEEKNUM(A25,1)</f>
         <v>20</v>
@@ -3797,8 +3797,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="193"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="97"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3834,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="196"/>
-      <c r="V26" s="197"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="190"/>
-    </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="U26" s="59"/>
+      <c r="V26" s="60"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+    </row>
+    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="191"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3881,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="189" t="s">
+      <c r="Y27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="189">
+      <c r="Z27" s="95">
         <v>4</v>
       </c>
-      <c r="AA27" s="189">
+      <c r="AA27" s="95">
         <v>3</v>
       </c>
-      <c r="AB27" s="189">
+      <c r="AB27" s="95">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189">
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95">
         <v>1</v>
       </c>
-      <c r="AE27" s="189">
+      <c r="AE27" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
+    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3922,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3945,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
-    </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+    </row>
+    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="184" t="s">
+      <c r="L29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="191"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="189" t="s">
+      <c r="Y29" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="189">
+      <c r="Z29" s="95">
         <v>3</v>
       </c>
-      <c r="AA29" s="189">
+      <c r="AA29" s="95">
         <v>2</v>
       </c>
-      <c r="AB29" s="189">
+      <c r="AB29" s="95">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189">
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95">
         <v>2</v>
       </c>
-      <c r="AE29" s="189">
+      <c r="AE29" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
+    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4030,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="184"/>
-      <c r="M30" s="191"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4047,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-    </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+    </row>
+    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="184"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="185" t="s">
+      <c r="L31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="186"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4093,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="189" t="s">
+      <c r="Y31" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="189">
+      <c r="Z31" s="95">
         <v>4</v>
       </c>
-      <c r="AA31" s="189">
+      <c r="AA31" s="95">
         <v>3</v>
       </c>
-      <c r="AB31" s="189">
+      <c r="AB31" s="95">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189">
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95">
         <v>3</v>
       </c>
-      <c r="AE31" s="189">
+      <c r="AE31" s="95">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
+    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4134,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="187"/>
-      <c r="M32" s="188"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4157,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
-    </row>
-    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="184" t="s">
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+    </row>
+    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="185" t="s">
+      <c r="L33" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="186"/>
+      <c r="M33" s="76"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4204,9 +4204,9 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
+    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4224,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="78"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4248,11 +4248,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184" t="s">
+    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="184"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="184" t="s">
+      <c r="L35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="184"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4285,9 +4285,9 @@
       </c>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
+    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4303,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4327,11 +4327,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="184" t="s">
+    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4353,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="185" t="s">
+      <c r="L37" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="186"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4374,9 +4374,9 @@
       </c>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4402,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4426,11 +4426,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="184"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4450,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="186"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4461,9 +4461,9 @@
       <c r="T39" s="42"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4487,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="187"/>
-      <c r="M40" s="188"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4505,15 +4505,15 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-    </row>
-    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
+    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+    </row>
+    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4522,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4533,9 +4533,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4545,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4568,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4579,9 +4579,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
+    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -4589,12 +4589,12 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-    </row>
-    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+    </row>
+    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4602,20 +4602,20 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-    </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-    </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+    </row>
+    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+    </row>
+    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
       <c r="U48" s="29"/>
@@ -4633,38 +4633,38 @@
       <c r="AH48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="183" t="s">
+    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="178" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178" t="s">
+      <c r="H49" s="100"/>
+      <c r="I49" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178" t="s">
+      <c r="J49" s="100"/>
+      <c r="K49" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="178" t="s">
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="178"/>
-      <c r="P49" s="179" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="179"/>
+      <c r="Q49" s="101"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4683,45 +4683,45 @@
       <c r="AH49" s="29"/>
       <c r="AI49" s="29"/>
     </row>
-    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="180">
+    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="102">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181">
+      <c r="D50" s="102"/>
+      <c r="E50" s="103">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181">
+      <c r="H50" s="103"/>
+      <c r="I50" s="103">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181">
+      <c r="J50" s="103"/>
+      <c r="K50" s="103">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181">
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="181"/>
-      <c r="P50" s="182">
+      <c r="O50" s="103"/>
+      <c r="P50" s="104">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="182"/>
+      <c r="Q50" s="104"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4740,47 +4740,47 @@
       <c r="AH50" s="27"/>
       <c r="AI50" s="27"/>
     </row>
-    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="177"/>
-      <c r="C51" s="176">
+      <c r="B51" s="106"/>
+      <c r="C51" s="105">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176">
+      <c r="D51" s="105"/>
+      <c r="E51" s="105">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176">
+      <c r="F51" s="105"/>
+      <c r="G51" s="105">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176">
+      <c r="H51" s="105"/>
+      <c r="I51" s="105">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176">
+      <c r="J51" s="105"/>
+      <c r="K51" s="105">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176">
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176">
+      <c r="O51" s="105"/>
+      <c r="P51" s="105">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="176"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4799,24 +4799,24 @@
       <c r="AH51" s="27"/>
       <c r="AI51" s="27"/>
     </row>
-    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
-      <c r="N52" s="176"/>
-      <c r="O52" s="176"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
+    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4835,24 +4835,24 @@
       <c r="AH52" s="27"/>
       <c r="AI52" s="27"/>
     </row>
-    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="176"/>
-      <c r="M53" s="176"/>
-      <c r="N53" s="176"/>
-      <c r="O53" s="176"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="176"/>
+    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4871,40 +4871,40 @@
       <c r="AH53"/>
       <c r="AI53"/>
     </row>
-    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="177" t="s">
+    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="169">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107">
         <v>1095960</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169">
+      <c r="D54" s="107"/>
+      <c r="E54" s="107">
         <v>870450</v>
       </c>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169">
+      <c r="F54" s="107"/>
+      <c r="G54" s="107">
         <v>1020450</v>
       </c>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169">
+      <c r="H54" s="107"/>
+      <c r="I54" s="107">
         <v>1026450</v>
       </c>
-      <c r="J54" s="169"/>
-      <c r="K54" s="175">
+      <c r="J54" s="107"/>
+      <c r="K54" s="108">
         <v>1032450</v>
       </c>
-      <c r="L54" s="175"/>
-      <c r="M54" s="175"/>
-      <c r="N54" s="169">
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="107">
         <v>1056450</v>
       </c>
-      <c r="O54" s="169"/>
-      <c r="P54" s="169">
+      <c r="O54" s="107"/>
+      <c r="P54" s="107">
         <v>960450</v>
       </c>
-      <c r="Q54" s="169"/>
+      <c r="Q54" s="107"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4923,24 +4923,24 @@
       <c r="AH54"/>
       <c r="AI54"/>
     </row>
-    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
+    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4959,52 +4959,52 @@
       <c r="AH55"/>
       <c r="AI55"/>
     </row>
-    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="168" t="s">
+    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169">
+      <c r="B56" s="114"/>
+      <c r="C56" s="107">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169">
+      <c r="D56" s="107"/>
+      <c r="E56" s="107">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169">
+      <c r="F56" s="107"/>
+      <c r="G56" s="107">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169">
+      <c r="H56" s="107"/>
+      <c r="I56" s="107">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="169"/>
-      <c r="K56" s="175">
+      <c r="J56" s="107"/>
+      <c r="K56" s="108">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
-      <c r="N56" s="169">
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="107">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="169"/>
-      <c r="P56" s="169">
+      <c r="O56" s="107"/>
+      <c r="P56" s="107">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="169"/>
-      <c r="R56" s="170">
+      <c r="Q56" s="107"/>
+      <c r="R56" s="109">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="171"/>
-      <c r="T56" s="172" t="s">
+      <c r="S56" s="110"/>
+      <c r="T56" s="111" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5023,27 +5023,27 @@
       <c r="AH56"/>
       <c r="AI56"/>
     </row>
-    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="168"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="171"/>
-      <c r="S57" s="171"/>
-      <c r="T57" s="172"/>
+    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="111"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5060,77 +5060,77 @@
       <c r="AH57"/>
       <c r="AI57"/>
     </row>
-    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="173" t="s">
+    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="174">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174">
+      <c r="F58" s="113"/>
+      <c r="G58" s="113">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174">
+      <c r="H58" s="113"/>
+      <c r="I58" s="113">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174">
+      <c r="J58" s="113"/>
+      <c r="K58" s="113">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174">
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="174"/>
-      <c r="P58" s="174">
+      <c r="O58" s="113"/>
+      <c r="P58" s="113">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174">
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="174"/>
-      <c r="T58" s="172" t="s">
+      <c r="S58" s="113"/>
+      <c r="T58" s="111" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="172"/>
+    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="111"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5147,40 +5147,40 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="168" t="s">
+    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169">
+      <c r="B60" s="114"/>
+      <c r="C60" s="107">
         <v>5616890</v>
       </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169">
+      <c r="D60" s="107"/>
+      <c r="E60" s="107">
         <v>2704420</v>
       </c>
-      <c r="F60" s="169"/>
-      <c r="G60" s="169">
+      <c r="F60" s="107"/>
+      <c r="G60" s="107">
         <v>3785170</v>
       </c>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169">
+      <c r="H60" s="107"/>
+      <c r="I60" s="107">
         <v>4748100</v>
       </c>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169">
+      <c r="J60" s="107"/>
+      <c r="K60" s="107">
         <v>4277980</v>
       </c>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169">
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107">
         <v>5076670</v>
       </c>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169">
+      <c r="O60" s="107"/>
+      <c r="P60" s="107">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="169"/>
+      <c r="Q60" s="107"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5199,24 +5199,24 @@
       <c r="AH60"/>
       <c r="AI60"/>
     </row>
-    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="169"/>
+    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5235,40 +5235,40 @@
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
-    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168" t="s">
+    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169">
+      <c r="B62" s="114"/>
+      <c r="C62" s="107">
         <v>8170510</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107">
         <v>4484960</v>
       </c>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169">
+      <c r="F62" s="107"/>
+      <c r="G62" s="107">
         <v>2086960</v>
       </c>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169">
+      <c r="H62" s="107"/>
+      <c r="I62" s="107">
         <v>2634530</v>
       </c>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169">
+      <c r="J62" s="107"/>
+      <c r="K62" s="107">
         <v>4909830</v>
       </c>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169">
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107">
         <v>6227730</v>
       </c>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169">
+      <c r="O62" s="107"/>
+      <c r="P62" s="107">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="169"/>
+      <c r="Q62" s="107"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5287,24 +5287,24 @@
       <c r="AH62"/>
       <c r="AI62"/>
     </row>
-    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="169"/>
-      <c r="Q63" s="169"/>
+    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5318,46 +5318,46 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="143">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143">
+      <c r="F64" s="115"/>
+      <c r="G64" s="115">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143">
+      <c r="H64" s="115"/>
+      <c r="I64" s="115">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143">
+      <c r="J64" s="115"/>
+      <c r="K64" s="115">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143">
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143">
+      <c r="O64" s="115"/>
+      <c r="P64" s="115">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="143"/>
+      <c r="Q64" s="115"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5371,24 +5371,24 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
+    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5402,7 +5402,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5432,35 +5432,35 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="145"/>
-      <c r="C67" s="148">
+      <c r="B67" s="117"/>
+      <c r="C67" s="120">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="152" t="s">
+      <c r="D67" s="121"/>
+      <c r="E67" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="153"/>
-      <c r="G67" s="156">
+      <c r="F67" s="125"/>
+      <c r="G67" s="128">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="157"/>
-      <c r="I67" s="160" t="s">
+      <c r="H67" s="129"/>
+      <c r="I67" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="161"/>
-      <c r="K67" s="164">
+      <c r="J67" s="133"/>
+      <c r="K67" s="136">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="164"/>
-      <c r="M67" s="165"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="137"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5479,20 +5479,20 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="162"/>
-      <c r="J68" s="163"/>
-      <c r="K68" s="166"/>
-      <c r="L68" s="166"/>
-      <c r="M68" s="167"/>
+    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="139"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5506,47 +5506,47 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="133" t="s">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="134"/>
-      <c r="C69" s="137">
+      <c r="B69" s="161"/>
+      <c r="C69" s="164">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="141">
+      <c r="D69" s="165"/>
+      <c r="E69" s="168">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="142"/>
-      <c r="G69" s="141">
+      <c r="F69" s="169"/>
+      <c r="G69" s="168">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="142"/>
-      <c r="I69" s="141">
+      <c r="H69" s="169"/>
+      <c r="I69" s="168">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="142"/>
-      <c r="K69" s="116">
+      <c r="J69" s="169"/>
+      <c r="K69" s="140">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="120"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="116">
+      <c r="L69" s="144"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="140">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="117"/>
-      <c r="P69" s="120">
+      <c r="O69" s="141"/>
+      <c r="P69" s="144">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="121"/>
+      <c r="Q69" s="145"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5554,24 +5554,24 @@
       <c r="Y69"/>
       <c r="Z69"/>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
+    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="162"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="142"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="147"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5579,47 +5579,47 @@
       <c r="Y70"/>
       <c r="Z70"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="124" t="s">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="125">
+      <c r="B71" s="149"/>
+      <c r="C71" s="152">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="125">
+      <c r="D71" s="153"/>
+      <c r="E71" s="152">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="126"/>
-      <c r="G71" s="125">
+      <c r="F71" s="153"/>
+      <c r="G71" s="152">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="125">
+      <c r="H71" s="153"/>
+      <c r="I71" s="152">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="125">
+      <c r="J71" s="153"/>
+      <c r="K71" s="152">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="129"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="125">
+      <c r="L71" s="156"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="152">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="126"/>
-      <c r="P71" s="129">
+      <c r="O71" s="153"/>
+      <c r="P71" s="156">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="131"/>
+      <c r="Q71" s="158"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5627,24 +5627,24 @@
       <c r="Y71"/>
       <c r="Z71"/>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="132"/>
+    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="150"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="159"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5652,51 +5652,51 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109" t="s">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="90">
+      <c r="B73" s="190"/>
+      <c r="C73" s="170">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="90">
+      <c r="D73" s="171"/>
+      <c r="E73" s="170">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="90">
+      <c r="F73" s="193"/>
+      <c r="G73" s="170">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="91"/>
-      <c r="I73" s="90">
+      <c r="H73" s="171"/>
+      <c r="I73" s="170">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="90">
+      <c r="J73" s="171"/>
+      <c r="K73" s="170">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="94"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="90">
+      <c r="L73" s="174"/>
+      <c r="M73" s="171"/>
+      <c r="N73" s="170">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="91"/>
-      <c r="P73" s="94">
+      <c r="O73" s="171"/>
+      <c r="P73" s="174">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="98" t="s">
+      <c r="Q73" s="175"/>
+      <c r="R73" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="98"/>
+      <c r="S73" s="178"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5704,26 +5704,26 @@
       <c r="Y73"/>
       <c r="Z73"/>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
+    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="191"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="176"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="176"/>
+      <c r="Q74" s="177"/>
+      <c r="R74" s="178"/>
+      <c r="S74" s="178"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5731,52 +5731,52 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99" t="s">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="103">
+      <c r="B75" s="180"/>
+      <c r="C75" s="183">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="103">
+      <c r="D75" s="184"/>
+      <c r="E75" s="183">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="103">
+      <c r="F75" s="184"/>
+      <c r="G75" s="183">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="103">
+      <c r="H75" s="184"/>
+      <c r="I75" s="183">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="103">
+      <c r="J75" s="184"/>
+      <c r="K75" s="183">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="107"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="103">
+      <c r="L75" s="187"/>
+      <c r="M75" s="184"/>
+      <c r="N75" s="183">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="104"/>
-      <c r="P75" s="107">
+      <c r="O75" s="184"/>
+      <c r="P75" s="187">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="115">
+      <c r="Q75" s="196"/>
+      <c r="R75" s="198">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="115"/>
+      <c r="S75" s="198"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5784,26 +5784,26 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="115"/>
-      <c r="S76" s="115"/>
+    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="181"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="186"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="186"/>
+      <c r="K76" s="185"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="186"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="186"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="197"/>
+      <c r="R76" s="198"/>
+      <c r="S76" s="198"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5811,52 +5811,52 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="81">
+      <c r="B77" s="149"/>
+      <c r="C77" s="200">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="81">
+      <c r="D77" s="201"/>
+      <c r="E77" s="200">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81">
+      <c r="F77" s="201"/>
+      <c r="G77" s="200">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="81">
+      <c r="H77" s="201"/>
+      <c r="I77" s="200">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="81">
+      <c r="J77" s="201"/>
+      <c r="K77" s="200">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="85"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="81">
+      <c r="L77" s="204"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="200">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="82"/>
-      <c r="P77" s="85">
+      <c r="O77" s="201"/>
+      <c r="P77" s="204">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="89">
+      <c r="Q77" s="206"/>
+      <c r="R77" s="208">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="89"/>
+      <c r="S77" s="208"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5864,26 +5864,26 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
+    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="150"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="203"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="203"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="205"/>
+      <c r="M78" s="203"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="203"/>
+      <c r="P78" s="205"/>
+      <c r="Q78" s="207"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5891,52 +5891,52 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="68">
+      <c r="B79" s="190"/>
+      <c r="C79" s="210">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68">
+      <c r="D79" s="211"/>
+      <c r="E79" s="210">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="68">
+      <c r="F79" s="211"/>
+      <c r="G79" s="210">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="68">
+      <c r="H79" s="211"/>
+      <c r="I79" s="210">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="69"/>
-      <c r="K79" s="68">
+      <c r="J79" s="211"/>
+      <c r="K79" s="210">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="72"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="68">
+      <c r="L79" s="214"/>
+      <c r="M79" s="211"/>
+      <c r="N79" s="210">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="69"/>
-      <c r="P79" s="72">
+      <c r="O79" s="211"/>
+      <c r="P79" s="214">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="76">
+      <c r="Q79" s="216"/>
+      <c r="R79" s="218">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="76"/>
+      <c r="S79" s="218"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5944,26 +5944,26 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
+    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A80" s="191"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="213"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="213"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="213"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="213"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="213"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="213"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="217"/>
+      <c r="R80" s="218"/>
+      <c r="S80" s="218"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5971,59 +5971,59 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60" t="s">
+      <c r="B83" s="219"/>
+      <c r="C83" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="60" t="s">
+      <c r="E83" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="60" t="s">
+      <c r="G83" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="60" t="s">
+      <c r="I83" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="60" t="s">
+      <c r="J83" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="61"/>
-      <c r="N83" s="62">
+      <c r="M83" s="223"/>
+      <c r="N83" s="224">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6033,487 +6033,813 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="63"/>
+    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="219"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
+      <c r="G84" s="222"/>
+      <c r="H84" s="222"/>
+      <c r="I84" s="222"/>
+      <c r="J84" s="222"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="225"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56">
+      <c r="B85" s="219"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="220">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="220">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="220">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="220">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="221">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="61" t="s">
+      <c r="L85" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="61"/>
-      <c r="N85" s="62">
+      <c r="M85" s="223"/>
+      <c r="N85" s="224">
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="63"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="219"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="220"/>
+      <c r="F86" s="220"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="221"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="225"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="56">
+      <c r="B87" s="219"/>
+      <c r="C87" s="220">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="220">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="220">
         <v>0.61</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="220">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57">
+      <c r="G87" s="220"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="221">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="219"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="220"/>
+      <c r="D88" s="220"/>
+      <c r="E88" s="220"/>
+      <c r="F88" s="220"/>
+      <c r="G88" s="220"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="221"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58" t="s">
+    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="57" t="e">
+      <c r="B89" s="219"/>
+      <c r="C89" s="220"/>
+      <c r="D89" s="220"/>
+      <c r="E89" s="220"/>
+      <c r="F89" s="220"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="220"/>
+      <c r="I89" s="220"/>
+      <c r="J89" s="221" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="57"/>
+    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="219"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="220"/>
+      <c r="D90" s="220"/>
+      <c r="E90" s="220"/>
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="220"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="221"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="58" t="s">
+    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="57" t="e">
+      <c r="B91" s="219"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="221" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="57"/>
+    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="219"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="221"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A93" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+      <c r="D93" s="220"/>
+      <c r="E93" s="220"/>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="221"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
+    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A94" s="219"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="220"/>
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="221"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A95"/>
       <c r="B95"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A96"/>
       <c r="B96"/>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A97"/>
       <c r="B97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A98"/>
       <c r="B98"/>
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A99"/>
       <c r="B99"/>
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A100"/>
       <c r="B100"/>
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A101"/>
       <c r="B101"/>
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A102"/>
       <c r="B102"/>
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A103"/>
       <c r="B103"/>
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A104"/>
       <c r="B104"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A105"/>
       <c r="B105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A106"/>
       <c r="B106"/>
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A107"/>
       <c r="B107"/>
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A108"/>
       <c r="B108"/>
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A109"/>
       <c r="B109"/>
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A110"/>
       <c r="B110"/>
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A111"/>
       <c r="B111"/>
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A112"/>
       <c r="B112"/>
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A113"/>
       <c r="B113"/>
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A114"/>
       <c r="B114"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A115"/>
       <c r="B115"/>
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A116"/>
       <c r="B116"/>
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A117"/>
       <c r="B117"/>
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A118"/>
       <c r="B118"/>
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A119"/>
       <c r="B119"/>
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A120"/>
       <c r="B120"/>
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A121"/>
       <c r="B121"/>
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A122"/>
       <c r="B122"/>
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A123"/>
       <c r="B123"/>
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A124"/>
       <c r="B124"/>
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A125"/>
       <c r="B125"/>
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A126"/>
       <c r="B126"/>
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A127"/>
       <c r="B127"/>
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A128"/>
       <c r="B128"/>
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A129"/>
       <c r="B129"/>
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A130"/>
       <c r="B130"/>
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A131"/>
       <c r="B131"/>
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A132"/>
       <c r="B132"/>
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A133"/>
       <c r="B133"/>
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A134"/>
       <c r="B134"/>
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A135"/>
       <c r="B135"/>
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A136"/>
       <c r="B136"/>
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A137"/>
       <c r="B137"/>
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A138"/>
       <c r="B138"/>
       <c r="L138"/>
       <c r="M138"/>
     </row>
   </sheetData>
-  <mergeCells count="370">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+  <mergeCells count="374">
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="L45:M46"/>
+    <mergeCell ref="L47:M48"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6538,340 +6864,18 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -1264,7 +1264,418 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,499 +1690,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,11 +2199,11 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47:M48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
     <col min="3" max="9" width="7.625" style="1" customWidth="1"/>
@@ -2220,12 +2220,12 @@
     <col min="26" max="16384" width="7.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="57">
+    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="194">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="57">
+      <c r="L1" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="58"/>
+      <c r="M1" s="195"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,38 +2275,38 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AE1" s="225" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <f>WEEKNUM(A1,1)</f>
         <v>20</v>
@@ -2378,49 +2378,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="64" t="s">
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="201" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="223"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2440,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="221">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="61">
+      <c r="AA3" s="220">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="62">
+      <c r="AD3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="62">
+      <c r="AE3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="223"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2513,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-    </row>
-    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="64" t="s">
+      <c r="X4" s="224"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
+    </row>
+    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="191"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2570,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="65">
+      <c r="Y5" s="201">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="201">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="65">
+      <c r="AA5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="65">
+      <c r="AD5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="72"/>
+    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="191"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2633,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-    </row>
-    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="75" t="s">
+      <c r="X6" s="208"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+    </row>
+    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="76"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="84" t="s">
+      <c r="X7" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="209">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="73">
+      <c r="Z7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="AA7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="73">
+      <c r="AB7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="73">
+      <c r="AC7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="AD7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="73">
+      <c r="AE7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
+    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2755,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2780,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="66" t="s">
+      <c r="X8" s="218"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="210"/>
+      <c r="AE8" s="210"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="76"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2831,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="79" t="s">
+      <c r="X9" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="81">
+      <c r="Y9" s="214">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="83">
+      <c r="Z9" s="216">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="83">
+      <c r="AB9" s="216">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="83">
+      <c r="AC9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="83">
+      <c r="AD9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="83">
+      <c r="AE9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="211"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2891,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2908,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="86" t="s">
+      <c r="X10" s="213"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="215"/>
+      <c r="AE10" s="215"/>
+    </row>
+    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2945,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="184"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2965,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="69" t="s">
+      <c r="X11" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="65">
+      <c r="Y11" s="201">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="65">
+      <c r="Z11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="65">
+      <c r="AA11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="65">
+      <c r="AB11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="65">
+      <c r="AC11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="65">
+      <c r="AD11" s="201">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="65">
+      <c r="AE11" s="201">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
+    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="204"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3023,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3046,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-    </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="86" t="s">
+      <c r="X12" s="208"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
+    </row>
+    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="76"/>
+      <c r="M13" s="186"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3108,9 +3108,9 @@
       </c>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="204"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3132,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3159,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="90" t="s">
+      <c r="X14" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="201">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="65">
+      <c r="Z14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="65">
+      <c r="AA14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="65">
+      <c r="AB14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="65">
+      <c r="AC14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="65">
+      <c r="AD14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="65">
+      <c r="AE14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="76"/>
+      <c r="M15" s="186"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3239,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-    </row>
-    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="201"/>
+      <c r="AD15" s="201"/>
+      <c r="AE15" s="201"/>
+    </row>
+    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3274,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3297,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="90" t="s">
+      <c r="X16" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="91">
+      <c r="Y16" s="207">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="91">
+      <c r="Z16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="91">
+      <c r="AA16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="91">
+      <c r="AB16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="91">
+      <c r="AC16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="91">
+      <c r="AD16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="91">
+      <c r="AE16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="203"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3376,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-    </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
+      <c r="X17" s="206"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="207"/>
+      <c r="AE17" s="207"/>
+    </row>
+    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="204"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3409,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="205"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3433,9 +3433,9 @@
         <v>O</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3445,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3454,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="93" t="s">
+      <c r="Y19" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="93" t="s">
+      <c r="Z19" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="93" t="s">
+      <c r="AA19" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="93" t="s">
+      <c r="AB19" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="93" t="s">
+      <c r="AD19" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="93" t="s">
+      <c r="AE19" s="199" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3494,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3511,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-    </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+    </row>
+    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3531,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3542,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="95" t="s">
+      <c r="Y21" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="95">
+      <c r="Z21" s="189">
         <v>3</v>
       </c>
-      <c r="AA21" s="95">
+      <c r="AA21" s="189">
         <v>2</v>
       </c>
-      <c r="AB21" s="95">
+      <c r="AB21" s="189">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95">
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3579,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,15 +3596,15 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-    </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="190"/>
+    </row>
+    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="6"/>
@@ -3625,28 +3625,28 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="95" t="s">
+      <c r="Y23" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="95">
+      <c r="Z23" s="189">
         <v>4</v>
       </c>
-      <c r="AA23" s="95">
+      <c r="AA23" s="189">
         <v>3</v>
       </c>
-      <c r="AB23" s="95">
+      <c r="AB23" s="189">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95">
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189">
         <v>3</v>
       </c>
-      <c r="AE23" s="95">
+      <c r="AE23" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="6"/>
@@ -3667,20 +3667,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-    </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="57">
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="190"/>
+    </row>
+    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3702,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="58"/>
+      <c r="M25" s="195"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,34 +3734,34 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="95" t="s">
+      <c r="Y25" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="95">
+      <c r="Z25" s="189">
         <v>3</v>
       </c>
-      <c r="AA25" s="95">
+      <c r="AA25" s="189">
         <v>2</v>
       </c>
-      <c r="AB25" s="95">
+      <c r="AB25" s="189">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95">
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189">
         <v>4</v>
       </c>
-      <c r="AE25" s="95">
+      <c r="AE25" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <f>WEEKNUM(A25,1)</f>
         <v>20</v>
@@ -3797,8 +3797,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="97"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3834,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-    </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="64" t="s">
+      <c r="U26" s="196"/>
+      <c r="V26" s="197"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
+    </row>
+    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="72"/>
+      <c r="M27" s="191"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3881,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="95" t="s">
+      <c r="Y27" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="95">
+      <c r="Z27" s="189">
         <v>4</v>
       </c>
-      <c r="AA27" s="95">
+      <c r="AA27" s="189">
         <v>3</v>
       </c>
-      <c r="AB27" s="95">
+      <c r="AB27" s="189">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95">
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189">
         <v>1</v>
       </c>
-      <c r="AE27" s="95">
+      <c r="AE27" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3922,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="72"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="191"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3945,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-    </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="64" t="s">
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="190"/>
+    </row>
+    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="72"/>
+      <c r="M29" s="191"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="95" t="s">
+      <c r="Y29" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="95">
+      <c r="Z29" s="189">
         <v>3</v>
       </c>
-      <c r="AA29" s="95">
+      <c r="AA29" s="189">
         <v>2</v>
       </c>
-      <c r="AB29" s="95">
+      <c r="AB29" s="189">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95">
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189">
         <v>2</v>
       </c>
-      <c r="AE29" s="95">
+      <c r="AE29" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="184"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4030,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="191"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4047,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-    </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="64" t="s">
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
+    </row>
+    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="76"/>
+      <c r="M31" s="186"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4093,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="95" t="s">
+      <c r="Y31" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="95">
+      <c r="Z31" s="189">
         <v>4</v>
       </c>
-      <c r="AA31" s="95">
+      <c r="AA31" s="189">
         <v>3</v>
       </c>
-      <c r="AB31" s="95">
+      <c r="AB31" s="189">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95">
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189">
         <v>3</v>
       </c>
-      <c r="AE31" s="95">
+      <c r="AE31" s="189">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="184"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4134,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="188"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4157,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
-    </row>
-    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="64" t="s">
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="190"/>
+    </row>
+    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="76"/>
+      <c r="M33" s="186"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4204,9 +4204,9 @@
       </c>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4224,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="77"/>
-      <c r="M34" s="78"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4248,11 +4248,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4285,9 +4285,9 @@
       </c>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4303,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4327,11 +4327,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4353,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="76"/>
+      <c r="M37" s="186"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4374,9 +4374,9 @@
       </c>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+    <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4402,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4426,11 +4426,11 @@
         <v>O</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4450,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4461,9 +4461,9 @@
       <c r="T39" s="42"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4487,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4505,15 +4505,15 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-    </row>
-    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+    </row>
+    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4522,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4533,9 +4533,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
+    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4545,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4568,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4579,9 +4579,9 @@
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
+    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -4589,12 +4589,12 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-    </row>
-    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+    </row>
+    <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4602,20 +4602,20 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-    </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-    </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+    </row>
+    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+    </row>
+    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
       <c r="U48" s="29"/>
@@ -4633,38 +4633,38 @@
       <c r="AH48" s="29"/>
       <c r="AI48" s="29"/>
     </row>
-    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99" t="s">
+    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100" t="s">
+      <c r="D49" s="183"/>
+      <c r="E49" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100" t="s">
+      <c r="F49" s="178"/>
+      <c r="G49" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100" t="s">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100" t="s">
+      <c r="J49" s="178"/>
+      <c r="K49" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100" t="s">
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="101" t="s">
+      <c r="O49" s="178"/>
+      <c r="P49" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="101"/>
+      <c r="Q49" s="179"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4683,45 +4683,45 @@
       <c r="AH49" s="29"/>
       <c r="AI49" s="29"/>
     </row>
-    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="102">
+    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="180">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103">
+      <c r="D50" s="180"/>
+      <c r="E50" s="181">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103">
+      <c r="F50" s="181"/>
+      <c r="G50" s="181">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103">
+      <c r="H50" s="181"/>
+      <c r="I50" s="181">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103">
+      <c r="J50" s="181"/>
+      <c r="K50" s="181">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103">
+      <c r="L50" s="181"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="104">
+      <c r="O50" s="181"/>
+      <c r="P50" s="182">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="104"/>
+      <c r="Q50" s="182"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4740,47 +4740,47 @@
       <c r="AH50" s="27"/>
       <c r="AI50" s="27"/>
     </row>
-    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="106" t="s">
+    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="105">
+      <c r="B51" s="177"/>
+      <c r="C51" s="176">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105">
+      <c r="D51" s="176"/>
+      <c r="E51" s="176">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105">
+      <c r="F51" s="176"/>
+      <c r="G51" s="176">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105">
+      <c r="H51" s="176"/>
+      <c r="I51" s="176">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105">
+      <c r="J51" s="176"/>
+      <c r="K51" s="176">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105">
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105">
+      <c r="O51" s="176"/>
+      <c r="P51" s="176">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="105"/>
+      <c r="Q51" s="176"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4799,24 +4799,24 @@
       <c r="AH51" s="27"/>
       <c r="AI51" s="27"/>
     </row>
-    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
+    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4835,24 +4835,24 @@
       <c r="AH52" s="27"/>
       <c r="AI52" s="27"/>
     </row>
-    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
+    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4871,40 +4871,40 @@
       <c r="AH53"/>
       <c r="AI53"/>
     </row>
-    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="106" t="s">
+    <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107">
+      <c r="B54" s="177"/>
+      <c r="C54" s="169">
         <v>1095960</v>
       </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107">
+      <c r="D54" s="169"/>
+      <c r="E54" s="169">
         <v>870450</v>
       </c>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107">
+      <c r="F54" s="169"/>
+      <c r="G54" s="169">
         <v>1020450</v>
       </c>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107">
+      <c r="H54" s="169"/>
+      <c r="I54" s="169">
         <v>1026450</v>
       </c>
-      <c r="J54" s="107"/>
-      <c r="K54" s="108">
+      <c r="J54" s="169"/>
+      <c r="K54" s="175">
         <v>1032450</v>
       </c>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="107">
+      <c r="L54" s="175"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="169">
         <v>1056450</v>
       </c>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107">
+      <c r="O54" s="169"/>
+      <c r="P54" s="169">
         <v>960450</v>
       </c>
-      <c r="Q54" s="107"/>
+      <c r="Q54" s="169"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4923,24 +4923,24 @@
       <c r="AH54"/>
       <c r="AI54"/>
     </row>
-    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="106"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
+    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="175"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4959,52 +4959,52 @@
       <c r="AH55"/>
       <c r="AI55"/>
     </row>
-    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="114" t="s">
+    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="107">
+      <c r="B56" s="168"/>
+      <c r="C56" s="169">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107">
+      <c r="D56" s="169"/>
+      <c r="E56" s="169">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107">
+      <c r="F56" s="169"/>
+      <c r="G56" s="169">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107">
+      <c r="H56" s="169"/>
+      <c r="I56" s="169">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108">
+      <c r="J56" s="169"/>
+      <c r="K56" s="175">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="107">
+      <c r="L56" s="175"/>
+      <c r="M56" s="175"/>
+      <c r="N56" s="169">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="107"/>
-      <c r="P56" s="107">
+      <c r="O56" s="169"/>
+      <c r="P56" s="169">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="109">
+      <c r="Q56" s="169"/>
+      <c r="R56" s="170">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="110"/>
-      <c r="T56" s="111" t="s">
+      <c r="S56" s="171"/>
+      <c r="T56" s="172" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5023,27 +5023,27 @@
       <c r="AH56"/>
       <c r="AI56"/>
     </row>
-    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="110"/>
-      <c r="S57" s="110"/>
-      <c r="T57" s="111"/>
+    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="168"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="169"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="169"/>
+      <c r="Q57" s="169"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="172"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5060,77 +5060,77 @@
       <c r="AH57"/>
       <c r="AI57"/>
     </row>
-    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="112" t="s">
+    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113">
+      <c r="B58" s="173"/>
+      <c r="C58" s="174">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113">
+      <c r="D58" s="174"/>
+      <c r="E58" s="174">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113">
+      <c r="F58" s="174"/>
+      <c r="G58" s="174">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113">
+      <c r="H58" s="174"/>
+      <c r="I58" s="174">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113">
+      <c r="J58" s="174"/>
+      <c r="K58" s="174">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113">
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113">
+      <c r="O58" s="174"/>
+      <c r="P58" s="174">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113">
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="113"/>
-      <c r="T58" s="111" t="s">
+      <c r="S58" s="174"/>
+      <c r="T58" s="172" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="111"/>
+    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="173"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="174"/>
+      <c r="S59" s="174"/>
+      <c r="T59" s="172"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5147,40 +5147,40 @@
       <c r="AH59"/>
       <c r="AI59"/>
     </row>
-    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="114" t="s">
+    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="107">
+      <c r="B60" s="168"/>
+      <c r="C60" s="169">
         <v>5616890</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107">
+      <c r="D60" s="169"/>
+      <c r="E60" s="169">
         <v>2704420</v>
       </c>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107">
+      <c r="F60" s="169"/>
+      <c r="G60" s="169">
         <v>3785170</v>
       </c>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107">
+      <c r="H60" s="169"/>
+      <c r="I60" s="169">
         <v>4748100</v>
       </c>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107">
+      <c r="J60" s="169"/>
+      <c r="K60" s="169">
         <v>4277980</v>
       </c>
-      <c r="L60" s="107"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="107">
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169">
         <v>5076670</v>
       </c>
-      <c r="O60" s="107"/>
-      <c r="P60" s="107">
+      <c r="O60" s="169"/>
+      <c r="P60" s="169">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="107"/>
+      <c r="Q60" s="169"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5199,24 +5199,24 @@
       <c r="AH60"/>
       <c r="AI60"/>
     </row>
-    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
+    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5235,40 +5235,40 @@
       <c r="AH61"/>
       <c r="AI61"/>
     </row>
-    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="114" t="s">
+    <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="107">
+      <c r="B62" s="168"/>
+      <c r="C62" s="169">
         <v>8170510</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107">
+      <c r="D62" s="169"/>
+      <c r="E62" s="169">
         <v>4484960</v>
       </c>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107">
+      <c r="F62" s="169"/>
+      <c r="G62" s="169">
         <v>2086960</v>
       </c>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107">
+      <c r="H62" s="169"/>
+      <c r="I62" s="169">
         <v>2634530</v>
       </c>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107">
+      <c r="J62" s="169"/>
+      <c r="K62" s="169">
         <v>4909830</v>
       </c>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107">
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169">
         <v>6227730</v>
       </c>
-      <c r="O62" s="107"/>
-      <c r="P62" s="107">
+      <c r="O62" s="169"/>
+      <c r="P62" s="169">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="107"/>
+      <c r="Q62" s="169"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5287,24 +5287,24 @@
       <c r="AH62"/>
       <c r="AI62"/>
     </row>
-    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
+    <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5318,46 +5318,46 @@
       <c r="AC63"/>
       <c r="AD63"/>
     </row>
-    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="114" t="s">
+    <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="115">
+      <c r="B64" s="168"/>
+      <c r="C64" s="143">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115">
+      <c r="D64" s="143"/>
+      <c r="E64" s="143">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115">
+      <c r="F64" s="143"/>
+      <c r="G64" s="143">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115">
+      <c r="J64" s="143"/>
+      <c r="K64" s="143">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115">
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115">
+      <c r="O64" s="143"/>
+      <c r="P64" s="143">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="143"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5371,24 +5371,24 @@
       <c r="AC64"/>
       <c r="AD64"/>
     </row>
-    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
+    <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5402,7 +5402,7 @@
       <c r="AC65"/>
       <c r="AD65"/>
     </row>
-    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5432,35 +5432,35 @@
       <c r="AC66"/>
       <c r="AD66"/>
     </row>
-    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A67" s="116" t="s">
+    <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="117"/>
-      <c r="C67" s="120">
+      <c r="B67" s="145"/>
+      <c r="C67" s="148">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="124" t="s">
+      <c r="D67" s="149"/>
+      <c r="E67" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="125"/>
-      <c r="G67" s="128">
+      <c r="F67" s="153"/>
+      <c r="G67" s="156">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="129"/>
-      <c r="I67" s="132" t="s">
+      <c r="H67" s="157"/>
+      <c r="I67" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="133"/>
-      <c r="K67" s="136">
+      <c r="J67" s="161"/>
+      <c r="K67" s="164">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="136"/>
-      <c r="M67" s="137"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5479,20 +5479,20 @@
       <c r="AC67"/>
       <c r="AD67"/>
     </row>
-    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A68" s="118"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="139"/>
+    <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="146"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="166"/>
+      <c r="M68" s="167"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5506,47 +5506,47 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
     </row>
-    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="160" t="s">
+    <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="164">
+      <c r="B69" s="134"/>
+      <c r="C69" s="137">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="165"/>
-      <c r="E69" s="168">
+      <c r="D69" s="138"/>
+      <c r="E69" s="141">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="169"/>
-      <c r="G69" s="168">
+      <c r="F69" s="142"/>
+      <c r="G69" s="141">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="169"/>
-      <c r="I69" s="168">
+      <c r="H69" s="142"/>
+      <c r="I69" s="141">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="169"/>
-      <c r="K69" s="140">
+      <c r="J69" s="142"/>
+      <c r="K69" s="116">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="144"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="140">
+      <c r="L69" s="120"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="116">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="141"/>
-      <c r="P69" s="144">
+      <c r="O69" s="117"/>
+      <c r="P69" s="120">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="145"/>
+      <c r="Q69" s="121"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5554,24 +5554,24 @@
       <c r="Y69"/>
       <c r="Z69"/>
     </row>
-    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A70" s="162"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="167"/>
-      <c r="I70" s="166"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="147"/>
+    <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5579,47 +5579,47 @@
       <c r="Y70"/>
       <c r="Z70"/>
     </row>
-    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="148" t="s">
+    <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="152">
+      <c r="B71" s="78"/>
+      <c r="C71" s="125">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="153"/>
-      <c r="E71" s="152">
+      <c r="D71" s="126"/>
+      <c r="E71" s="125">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="153"/>
-      <c r="G71" s="152">
+      <c r="F71" s="126"/>
+      <c r="G71" s="125">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="153"/>
-      <c r="I71" s="152">
+      <c r="H71" s="126"/>
+      <c r="I71" s="125">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="153"/>
-      <c r="K71" s="152">
+      <c r="J71" s="126"/>
+      <c r="K71" s="125">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="156"/>
-      <c r="M71" s="153"/>
-      <c r="N71" s="152">
+      <c r="L71" s="129"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="125">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="153"/>
-      <c r="P71" s="156">
+      <c r="O71" s="126"/>
+      <c r="P71" s="129">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="158"/>
+      <c r="Q71" s="131"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5627,24 +5627,24 @@
       <c r="Y71"/>
       <c r="Z71"/>
     </row>
-    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="150"/>
-      <c r="B72" s="151"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="159"/>
+    <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="132"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5652,51 +5652,51 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="189" t="s">
+    <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="190"/>
-      <c r="C73" s="170">
+      <c r="B73" s="65"/>
+      <c r="C73" s="90">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="171"/>
-      <c r="E73" s="170">
+      <c r="D73" s="91"/>
+      <c r="E73" s="90">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="193"/>
-      <c r="G73" s="170">
+      <c r="F73" s="110"/>
+      <c r="G73" s="90">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="170">
+      <c r="H73" s="91"/>
+      <c r="I73" s="90">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="171"/>
-      <c r="K73" s="170">
+      <c r="J73" s="91"/>
+      <c r="K73" s="90">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="174"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="170">
+      <c r="L73" s="94"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="90">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="171"/>
-      <c r="P73" s="174">
+      <c r="O73" s="91"/>
+      <c r="P73" s="94">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="175"/>
-      <c r="R73" s="178" t="s">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="178"/>
+      <c r="S73" s="98"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5704,26 +5704,26 @@
       <c r="Y73"/>
       <c r="Z73"/>
     </row>
-    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="191"/>
-      <c r="B74" s="192"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="176"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="176"/>
-      <c r="Q74" s="177"/>
-      <c r="R74" s="178"/>
-      <c r="S74" s="178"/>
+    <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5731,52 +5731,52 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="179" t="s">
+    <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="180"/>
-      <c r="C75" s="183">
+      <c r="B75" s="100"/>
+      <c r="C75" s="103">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="184"/>
-      <c r="E75" s="183">
+      <c r="D75" s="104"/>
+      <c r="E75" s="103">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="184"/>
-      <c r="G75" s="183">
+      <c r="F75" s="104"/>
+      <c r="G75" s="103">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="184"/>
-      <c r="I75" s="183">
+      <c r="H75" s="104"/>
+      <c r="I75" s="103">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="184"/>
-      <c r="K75" s="183">
+      <c r="J75" s="104"/>
+      <c r="K75" s="103">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="187"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="183">
+      <c r="L75" s="107"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="103">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="184"/>
-      <c r="P75" s="187">
+      <c r="O75" s="104"/>
+      <c r="P75" s="107">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="196"/>
-      <c r="R75" s="198">
+      <c r="Q75" s="113"/>
+      <c r="R75" s="115">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="198"/>
+      <c r="S75" s="115"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5784,26 +5784,26 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A76" s="181"/>
-      <c r="B76" s="182"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="186"/>
-      <c r="I76" s="185"/>
-      <c r="J76" s="186"/>
-      <c r="K76" s="185"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="186"/>
-      <c r="N76" s="185"/>
-      <c r="O76" s="186"/>
-      <c r="P76" s="188"/>
-      <c r="Q76" s="197"/>
-      <c r="R76" s="198"/>
-      <c r="S76" s="198"/>
+    <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="101"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="115"/>
+      <c r="S76" s="115"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5811,52 +5811,52 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="199" t="s">
+    <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="200">
+      <c r="B77" s="78"/>
+      <c r="C77" s="81">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="201"/>
-      <c r="E77" s="200">
+      <c r="D77" s="82"/>
+      <c r="E77" s="81">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="201"/>
-      <c r="G77" s="200">
+      <c r="F77" s="82"/>
+      <c r="G77" s="81">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="201"/>
-      <c r="I77" s="200">
+      <c r="H77" s="82"/>
+      <c r="I77" s="81">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="201"/>
-      <c r="K77" s="200">
+      <c r="J77" s="82"/>
+      <c r="K77" s="81">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="204"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="200">
+      <c r="L77" s="85"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="81">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="201"/>
-      <c r="P77" s="204">
+      <c r="O77" s="82"/>
+      <c r="P77" s="85">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="206"/>
-      <c r="R77" s="208">
+      <c r="Q77" s="87"/>
+      <c r="R77" s="89">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="208"/>
+      <c r="S77" s="89"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5864,26 +5864,26 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="150"/>
-      <c r="B78" s="151"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="203"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="203"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="203"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="205"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="203"/>
-      <c r="P78" s="205"/>
-      <c r="Q78" s="207"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
+    <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="86"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5891,52 +5891,52 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A79" s="209" t="s">
+    <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="190"/>
-      <c r="C79" s="210">
+      <c r="B79" s="65"/>
+      <c r="C79" s="68">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="211"/>
-      <c r="E79" s="210">
+      <c r="D79" s="69"/>
+      <c r="E79" s="68">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="211"/>
-      <c r="G79" s="210">
+      <c r="F79" s="69"/>
+      <c r="G79" s="68">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="211"/>
-      <c r="I79" s="210">
+      <c r="H79" s="69"/>
+      <c r="I79" s="68">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="211"/>
-      <c r="K79" s="210">
+      <c r="J79" s="69"/>
+      <c r="K79" s="68">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="214"/>
-      <c r="M79" s="211"/>
-      <c r="N79" s="210">
+      <c r="L79" s="72"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="68">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="211"/>
-      <c r="P79" s="214">
+      <c r="O79" s="69"/>
+      <c r="P79" s="72">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="216"/>
-      <c r="R79" s="218">
+      <c r="Q79" s="74"/>
+      <c r="R79" s="76">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="218"/>
+      <c r="S79" s="76"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5944,26 +5944,26 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A80" s="191"/>
-      <c r="B80" s="192"/>
-      <c r="C80" s="212"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="213"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="213"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="213"/>
-      <c r="K80" s="212"/>
-      <c r="L80" s="215"/>
-      <c r="M80" s="213"/>
-      <c r="N80" s="212"/>
-      <c r="O80" s="213"/>
-      <c r="P80" s="215"/>
-      <c r="Q80" s="217"/>
-      <c r="R80" s="218"/>
-      <c r="S80" s="218"/>
+    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="76"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5971,59 +5971,59 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="219" t="s">
+    <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="219"/>
-      <c r="C83" s="222" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="222" t="s">
+      <c r="D83" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="222" t="s">
+      <c r="E83" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="222" t="s">
+      <c r="F83" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="222" t="s">
+      <c r="G83" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="222" t="s">
+      <c r="H83" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="222" t="s">
+      <c r="I83" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="222" t="s">
+      <c r="J83" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="223" t="s">
+      <c r="L83" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="223"/>
-      <c r="N83" s="224">
+      <c r="M83" s="61"/>
+      <c r="N83" s="62">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="98"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6033,468 +6033,468 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A84" s="219"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="222"/>
-      <c r="D84" s="222"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="222"/>
-      <c r="G84" s="222"/>
-      <c r="H84" s="222"/>
-      <c r="I84" s="222"/>
-      <c r="J84" s="222"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="225"/>
+    <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="63"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="98"/>
-      <c r="R84" s="98"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A85" s="219" t="s">
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+    </row>
+    <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="219"/>
-      <c r="C85" s="220"/>
-      <c r="D85" s="220"/>
-      <c r="E85" s="220"/>
-      <c r="F85" s="220">
+      <c r="B85" s="58"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="220">
+      <c r="G85" s="56">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="220">
+      <c r="H85" s="56">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="220">
+      <c r="I85" s="56">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="221">
+      <c r="J85" s="57">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="223" t="s">
+      <c r="L85" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="223"/>
-      <c r="N85" s="224">
+      <c r="M85" s="61"/>
+      <c r="N85" s="62">
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="219"/>
-      <c r="B86" s="219"/>
-      <c r="C86" s="220"/>
-      <c r="D86" s="220"/>
-      <c r="E86" s="220"/>
-      <c r="F86" s="220"/>
-      <c r="G86" s="220"/>
-      <c r="H86" s="220"/>
-      <c r="I86" s="220"/>
-      <c r="J86" s="221"/>
-      <c r="L86" s="223"/>
-      <c r="M86" s="223"/>
-      <c r="N86" s="225"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="219" t="s">
+    <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="63"/>
+    </row>
+    <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="219"/>
-      <c r="C87" s="220">
+      <c r="B87" s="58"/>
+      <c r="C87" s="56">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="220">
+      <c r="D87" s="56">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="220">
+      <c r="E87" s="56">
         <v>0.61</v>
       </c>
-      <c r="F87" s="220">
+      <c r="F87" s="56">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="220"/>
-      <c r="H87" s="220"/>
-      <c r="I87" s="220"/>
-      <c r="J87" s="221">
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="219"/>
-      <c r="B88" s="219"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220"/>
-      <c r="F88" s="220"/>
-      <c r="G88" s="220"/>
-      <c r="H88" s="220"/>
-      <c r="I88" s="220"/>
-      <c r="J88" s="221"/>
+    <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="219" t="s">
+    <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="219"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="220"/>
-      <c r="G89" s="220"/>
-      <c r="H89" s="220"/>
-      <c r="I89" s="220"/>
-      <c r="J89" s="221" t="e">
+      <c r="B89" s="58"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="57" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="219"/>
-      <c r="B90" s="219"/>
-      <c r="C90" s="220"/>
-      <c r="D90" s="220"/>
-      <c r="E90" s="220"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="220"/>
-      <c r="H90" s="220"/>
-      <c r="I90" s="220"/>
-      <c r="J90" s="221"/>
+    <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="57"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="219" t="s">
+    <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="219"/>
-      <c r="C91" s="220"/>
-      <c r="D91" s="220"/>
-      <c r="E91" s="220"/>
-      <c r="F91" s="220"/>
-      <c r="G91" s="220"/>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
-      <c r="J91" s="221" t="e">
+      <c r="B91" s="58"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="57" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="219"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="220"/>
-      <c r="E92" s="220"/>
-      <c r="F92" s="220"/>
-      <c r="G92" s="220"/>
-      <c r="H92" s="220"/>
-      <c r="I92" s="220"/>
-      <c r="J92" s="221"/>
+    <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="57"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A93" s="219" t="s">
+    <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="219"/>
-      <c r="C93" s="220"/>
-      <c r="D93" s="220"/>
-      <c r="E93" s="220"/>
-      <c r="F93" s="220"/>
-      <c r="G93" s="220"/>
-      <c r="H93" s="220"/>
-      <c r="I93" s="220"/>
-      <c r="J93" s="221"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A94" s="219"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="220"/>
-      <c r="F94" s="220"/>
-      <c r="G94" s="220"/>
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="221"/>
+    <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="L138"/>
@@ -6502,42 +6502,320 @@
     </row>
   </sheetData>
   <mergeCells count="374">
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="L45:M46"/>
+    <mergeCell ref="L47:M48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
     <mergeCell ref="R83:R84"/>
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -6562,320 +6840,42 @@
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="L85:M86"/>
     <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="L45:M46"/>
-    <mergeCell ref="L47:M48"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>주차</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,6 +580,14 @@
   </si>
   <si>
     <t>22주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1264,16 +1272,502 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,492 +1780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,8 +2207,8 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:M46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2221,11 +2229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="194">
+      <c r="A1" s="57">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2257,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="194">
+      <c r="L1" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="195"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,34 +2283,34 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="196" t="s">
+      <c r="U1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="197" t="s">
+      <c r="V1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="225" t="s">
+      <c r="X1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="225" t="s">
+      <c r="Y1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="225" t="s">
+      <c r="Z1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="225" t="s">
+      <c r="AB1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="225" t="s">
+      <c r="AC1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="225" t="s">
+      <c r="AD1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="225" t="s">
+      <c r="AE1" s="56" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2378,49 +2386,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
     </row>
     <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="201" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="201" t="s">
+      <c r="D3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="65" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="223"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2448,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="221">
+      <c r="Y3" s="62">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="221">
+      <c r="Z3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="220">
+      <c r="AA3" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="221">
+      <c r="AB3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="221">
+      <c r="AC3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="221">
+      <c r="AD3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="221">
+      <c r="AE3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="223"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2521,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
     </row>
     <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="219" t="s">
+      <c r="K5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="191"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2578,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="201">
+      <c r="Y5" s="65">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="201">
+      <c r="Z5" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="201">
+      <c r="AB5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="201">
+      <c r="AC5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="201">
+      <c r="AD5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="201">
+      <c r="AE5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="191"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2641,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
     </row>
     <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2678,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="185" t="s">
+      <c r="L7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="186"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2700,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="217" t="s">
+      <c r="X7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="209">
+      <c r="Y7" s="73">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="209">
+      <c r="Z7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="209">
+      <c r="AA7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="209">
+      <c r="AB7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="209">
+      <c r="AC7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="209">
+      <c r="AD7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="209">
+      <c r="AE7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2763,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2788,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
     </row>
     <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2825,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="185" t="s">
+      <c r="L9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="186"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2839,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="212" t="s">
+      <c r="X9" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="214">
+      <c r="Y9" s="81">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="216">
+      <c r="Z9" s="83">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="216">
+      <c r="AA9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="216">
+      <c r="AB9" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="216">
+      <c r="AC9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="216">
+      <c r="AD9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="216">
+      <c r="AE9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="211"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2899,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2916,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="215"/>
-      <c r="AE10" s="215"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
     </row>
     <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2953,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="184"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2973,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="208" t="s">
+      <c r="X11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="201">
+      <c r="Y11" s="65">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="201">
+      <c r="Z11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="201">
+      <c r="AA11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="201">
+      <c r="AB11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="201">
+      <c r="AC11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="201">
+      <c r="AD11" s="65">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="65">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="205"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3031,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3054,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="201"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
     </row>
     <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="203"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3091,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="185" t="s">
+      <c r="L13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="186"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3109,8 +3117,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="205"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3140,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3167,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="206" t="s">
+      <c r="X14" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="201">
+      <c r="Y14" s="65">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="201">
+      <c r="Z14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="201">
+      <c r="AA14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="201">
+      <c r="AB14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="201">
+      <c r="AC14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="201">
+      <c r="AD14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="201">
+      <c r="AE14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3227,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="185" t="s">
+      <c r="L15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="186"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3247,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="201"/>
-      <c r="AD15" s="201"/>
-      <c r="AE15" s="201"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
     </row>
     <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3282,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3305,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="206" t="s">
+      <c r="X16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="207">
+      <c r="Y16" s="91">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="207">
+      <c r="Z16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="207">
+      <c r="AA16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="207">
+      <c r="AB16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="207">
+      <c r="AD16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="207">
+      <c r="AE16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="203"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3365,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="202" t="s">
+      <c r="L17" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="203"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3384,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
     </row>
     <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="205"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3417,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="205"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3434,8 +3442,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3453,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3462,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="199" t="s">
+      <c r="Y19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Z19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="199" t="s">
+      <c r="AA19" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="199" t="s">
+      <c r="AB19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="199" t="s">
+      <c r="AC19" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="199" t="s">
+      <c r="AD19" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="199" t="s">
+      <c r="AE19" s="93" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3502,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3519,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
     </row>
     <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3539,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3550,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="189" t="s">
+      <c r="Y21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="189">
+      <c r="Z21" s="95">
         <v>3</v>
       </c>
-      <c r="AA21" s="189">
+      <c r="AA21" s="95">
         <v>2</v>
       </c>
-      <c r="AB21" s="189">
+      <c r="AB21" s="95">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189">
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3587,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,13 +3604,13 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="190"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
     </row>
     <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -3625,24 +3633,24 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="189" t="s">
+      <c r="Y23" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="189">
+      <c r="Z23" s="95">
         <v>4</v>
       </c>
-      <c r="AA23" s="189">
+      <c r="AA23" s="95">
         <v>3</v>
       </c>
-      <c r="AB23" s="189">
+      <c r="AB23" s="95">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189">
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95">
         <v>3</v>
       </c>
-      <c r="AE23" s="189">
+      <c r="AE23" s="95">
         <v>0</v>
       </c>
     </row>
@@ -3667,20 +3675,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
     </row>
     <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="194">
+      <c r="A25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="195"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3710,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="192" t="s">
+      <c r="J25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="193" t="s">
+      <c r="K25" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="194">
+      <c r="L25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="195"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,30 +3742,30 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="196" t="s">
+      <c r="U25" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="197" t="s">
+      <c r="V25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="189" t="s">
+      <c r="Y25" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="189">
+      <c r="Z25" s="95">
         <v>3</v>
       </c>
-      <c r="AA25" s="189">
+      <c r="AA25" s="95">
         <v>2</v>
       </c>
-      <c r="AB25" s="189">
+      <c r="AB25" s="95">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189">
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95">
         <v>4</v>
       </c>
-      <c r="AE25" s="189">
+      <c r="AE25" s="95">
         <v>0</v>
       </c>
     </row>
@@ -3797,8 +3805,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="193"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="97"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3842,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="196"/>
-      <c r="V26" s="197"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="190"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="60"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
     </row>
     <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3870,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="191"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3889,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="189" t="s">
+      <c r="Y27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="189">
+      <c r="Z27" s="95">
         <v>4</v>
       </c>
-      <c r="AA27" s="189">
+      <c r="AA27" s="95">
         <v>3</v>
       </c>
-      <c r="AB27" s="189">
+      <c r="AB27" s="95">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189">
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95">
         <v>1</v>
       </c>
-      <c r="AE27" s="189">
+      <c r="AE27" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3930,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3953,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
     </row>
     <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3981,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="184" t="s">
+      <c r="L29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="191"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3995,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="189" t="s">
+      <c r="Y29" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="189">
+      <c r="Z29" s="95">
         <v>3</v>
       </c>
-      <c r="AA29" s="189">
+      <c r="AA29" s="95">
         <v>2</v>
       </c>
-      <c r="AB29" s="189">
+      <c r="AB29" s="95">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189">
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95">
         <v>2</v>
       </c>
-      <c r="AE29" s="189">
+      <c r="AE29" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4038,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="184"/>
-      <c r="M30" s="191"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4055,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
     </row>
     <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="184"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4081,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="185" t="s">
+      <c r="L31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="186"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4101,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="189" t="s">
+      <c r="Y31" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="189">
+      <c r="Z31" s="95">
         <v>4</v>
       </c>
-      <c r="AA31" s="189">
+      <c r="AA31" s="95">
         <v>3</v>
       </c>
-      <c r="AB31" s="189">
+      <c r="AB31" s="95">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189">
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95">
         <v>3</v>
       </c>
-      <c r="AE31" s="189">
+      <c r="AE31" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4142,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="187"/>
-      <c r="M32" s="188"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4165,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4191,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="185" t="s">
+      <c r="L33" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="186"/>
+      <c r="M33" s="76"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4205,8 +4213,8 @@
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4232,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="78"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4249,10 +4257,10 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="184"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4272,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="184" t="s">
+      <c r="L35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="184"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4286,8 +4294,8 @@
       <c r="U35" s="6"/>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4311,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4328,10 +4336,10 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4361,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="185" t="s">
+      <c r="L37" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="186"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4375,8 +4383,8 @@
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4410,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4427,10 +4435,10 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="184"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4458,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="186"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4462,8 +4470,8 @@
       <c r="U39" s="6"/>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4495,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="187"/>
-      <c r="M40" s="188"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4506,14 +4514,14 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4530,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4534,8 +4542,8 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4553,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4576,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4580,8 +4588,10 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="98"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -4589,12 +4599,12 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4602,20 +4612,22 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="L47" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="98"/>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
       <c r="U48" s="29"/>
@@ -4634,37 +4646,37 @@
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="183" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="178" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178" t="s">
+      <c r="H49" s="100"/>
+      <c r="I49" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178" t="s">
+      <c r="J49" s="100"/>
+      <c r="K49" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="178" t="s">
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="178"/>
-      <c r="P49" s="179" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="179"/>
+      <c r="Q49" s="101"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4684,44 +4696,44 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="180">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="102">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181">
+      <c r="D50" s="102"/>
+      <c r="E50" s="103">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181">
+      <c r="H50" s="103"/>
+      <c r="I50" s="103">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181">
+      <c r="J50" s="103"/>
+      <c r="K50" s="103">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181">
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="181"/>
-      <c r="P50" s="182">
+      <c r="O50" s="103"/>
+      <c r="P50" s="104">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="182"/>
+      <c r="Q50" s="104"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4741,46 +4753,46 @@
       <c r="AI50" s="27"/>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="177"/>
-      <c r="C51" s="176">
+      <c r="B51" s="106"/>
+      <c r="C51" s="105">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176">
+      <c r="D51" s="105"/>
+      <c r="E51" s="105">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176">
+      <c r="F51" s="105"/>
+      <c r="G51" s="105">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176">
+      <c r="H51" s="105"/>
+      <c r="I51" s="105">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176">
+      <c r="J51" s="105"/>
+      <c r="K51" s="105">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176">
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176">
+      <c r="O51" s="105"/>
+      <c r="P51" s="105">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="176"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4800,23 +4812,23 @@
       <c r="AI51" s="27"/>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
-      <c r="N52" s="176"/>
-      <c r="O52" s="176"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4836,23 +4848,23 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="176"/>
-      <c r="M53" s="176"/>
-      <c r="N53" s="176"/>
-      <c r="O53" s="176"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="176"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4872,39 +4884,39 @@
       <c r="AI53"/>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="177" t="s">
+      <c r="A54" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="169">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107">
         <v>1095960</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169">
+      <c r="D54" s="107"/>
+      <c r="E54" s="107">
         <v>870450</v>
       </c>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169">
+      <c r="F54" s="107"/>
+      <c r="G54" s="107">
         <v>1020450</v>
       </c>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169">
+      <c r="H54" s="107"/>
+      <c r="I54" s="107">
         <v>1026450</v>
       </c>
-      <c r="J54" s="169"/>
-      <c r="K54" s="175">
+      <c r="J54" s="107"/>
+      <c r="K54" s="108">
         <v>1032450</v>
       </c>
-      <c r="L54" s="175"/>
-      <c r="M54" s="175"/>
-      <c r="N54" s="169">
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="107">
         <v>1056450</v>
       </c>
-      <c r="O54" s="169"/>
-      <c r="P54" s="169">
+      <c r="O54" s="107"/>
+      <c r="P54" s="107">
         <v>960450</v>
       </c>
-      <c r="Q54" s="169"/>
+      <c r="Q54" s="107"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4924,23 +4936,23 @@
       <c r="AI54"/>
     </row>
     <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4960,51 +4972,51 @@
       <c r="AI55"/>
     </row>
     <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169">
+      <c r="B56" s="114"/>
+      <c r="C56" s="107">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169">
+      <c r="D56" s="107"/>
+      <c r="E56" s="107">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169">
+      <c r="F56" s="107"/>
+      <c r="G56" s="107">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169">
+      <c r="H56" s="107"/>
+      <c r="I56" s="107">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="169"/>
-      <c r="K56" s="175">
+      <c r="J56" s="107"/>
+      <c r="K56" s="108">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
-      <c r="N56" s="169">
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="107">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="169"/>
-      <c r="P56" s="169">
+      <c r="O56" s="107"/>
+      <c r="P56" s="107">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="169"/>
-      <c r="R56" s="170">
+      <c r="Q56" s="107"/>
+      <c r="R56" s="109">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="171"/>
-      <c r="T56" s="172" t="s">
+      <c r="S56" s="110"/>
+      <c r="T56" s="111" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5024,26 +5036,26 @@
       <c r="AI56"/>
     </row>
     <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="168"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="171"/>
-      <c r="S57" s="171"/>
-      <c r="T57" s="172"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="111"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5061,76 +5073,76 @@
       <c r="AI57"/>
     </row>
     <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="174">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174">
+      <c r="F58" s="113"/>
+      <c r="G58" s="113">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174">
+      <c r="H58" s="113"/>
+      <c r="I58" s="113">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174">
+      <c r="J58" s="113"/>
+      <c r="K58" s="113">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174">
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="174"/>
-      <c r="P58" s="174">
+      <c r="O58" s="113"/>
+      <c r="P58" s="113">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174">
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="174"/>
-      <c r="T58" s="172" t="s">
+      <c r="S58" s="113"/>
+      <c r="T58" s="111" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="172"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="111"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5148,39 +5160,39 @@
       <c r="AI59"/>
     </row>
     <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="168" t="s">
+      <c r="A60" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169">
+      <c r="B60" s="114"/>
+      <c r="C60" s="107">
         <v>5616890</v>
       </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169">
+      <c r="D60" s="107"/>
+      <c r="E60" s="107">
         <v>2704420</v>
       </c>
-      <c r="F60" s="169"/>
-      <c r="G60" s="169">
+      <c r="F60" s="107"/>
+      <c r="G60" s="107">
         <v>3785170</v>
       </c>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169">
+      <c r="H60" s="107"/>
+      <c r="I60" s="107">
         <v>4748100</v>
       </c>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169">
+      <c r="J60" s="107"/>
+      <c r="K60" s="107">
         <v>4277980</v>
       </c>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169">
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107">
         <v>5076670</v>
       </c>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169">
+      <c r="O60" s="107"/>
+      <c r="P60" s="107">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="169"/>
+      <c r="Q60" s="107"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5200,23 +5212,23 @@
       <c r="AI60"/>
     </row>
     <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="169"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5236,39 +5248,39 @@
       <c r="AI61"/>
     </row>
     <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168" t="s">
+      <c r="A62" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169">
+      <c r="B62" s="114"/>
+      <c r="C62" s="107">
         <v>8170510</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107">
         <v>4484960</v>
       </c>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169">
+      <c r="F62" s="107"/>
+      <c r="G62" s="107">
         <v>2086960</v>
       </c>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169">
+      <c r="H62" s="107"/>
+      <c r="I62" s="107">
         <v>2634530</v>
       </c>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169">
+      <c r="J62" s="107"/>
+      <c r="K62" s="107">
         <v>4909830</v>
       </c>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169">
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107">
         <v>6227730</v>
       </c>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169">
+      <c r="O62" s="107"/>
+      <c r="P62" s="107">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="169"/>
+      <c r="Q62" s="107"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5288,23 +5300,23 @@
       <c r="AI62"/>
     </row>
     <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="169"/>
-      <c r="Q63" s="169"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5319,45 +5331,45 @@
       <c r="AD63"/>
     </row>
     <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="143">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143">
+      <c r="F64" s="115"/>
+      <c r="G64" s="115">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143">
+      <c r="H64" s="115"/>
+      <c r="I64" s="115">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143">
+      <c r="J64" s="115"/>
+      <c r="K64" s="115">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143">
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143">
+      <c r="O64" s="115"/>
+      <c r="P64" s="115">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="143"/>
+      <c r="Q64" s="115"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5372,23 +5384,23 @@
       <c r="AD64"/>
     </row>
     <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5433,34 +5445,34 @@
       <c r="AD66"/>
     </row>
     <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="145"/>
-      <c r="C67" s="148">
+      <c r="B67" s="117"/>
+      <c r="C67" s="120">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="152" t="s">
+      <c r="D67" s="121"/>
+      <c r="E67" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="153"/>
-      <c r="G67" s="156">
+      <c r="F67" s="125"/>
+      <c r="G67" s="128">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="157"/>
-      <c r="I67" s="160" t="s">
+      <c r="H67" s="129"/>
+      <c r="I67" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="161"/>
-      <c r="K67" s="164">
+      <c r="J67" s="133"/>
+      <c r="K67" s="136">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="164"/>
-      <c r="M67" s="165"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="137"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5480,19 +5492,19 @@
       <c r="AD67"/>
     </row>
     <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="162"/>
-      <c r="J68" s="163"/>
-      <c r="K68" s="166"/>
-      <c r="L68" s="166"/>
-      <c r="M68" s="167"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="139"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5507,46 +5519,46 @@
       <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="133" t="s">
+      <c r="A69" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="134"/>
-      <c r="C69" s="137">
+      <c r="B69" s="161"/>
+      <c r="C69" s="164">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="141">
+      <c r="D69" s="165"/>
+      <c r="E69" s="168">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="142"/>
-      <c r="G69" s="141">
+      <c r="F69" s="169"/>
+      <c r="G69" s="168">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="142"/>
-      <c r="I69" s="141">
+      <c r="H69" s="169"/>
+      <c r="I69" s="168">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="142"/>
-      <c r="K69" s="116">
+      <c r="J69" s="169"/>
+      <c r="K69" s="140">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="120"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="116">
+      <c r="L69" s="144"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="140">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="117"/>
-      <c r="P69" s="120">
+      <c r="O69" s="141"/>
+      <c r="P69" s="144">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="121"/>
+      <c r="Q69" s="145"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5555,23 +5567,23 @@
       <c r="Z69"/>
     </row>
     <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="142"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="147"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5580,46 +5592,46 @@
       <c r="Z70"/>
     </row>
     <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="125">
+      <c r="B71" s="149"/>
+      <c r="C71" s="152">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="125">
+      <c r="D71" s="153"/>
+      <c r="E71" s="152">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="126"/>
-      <c r="G71" s="125">
+      <c r="F71" s="153"/>
+      <c r="G71" s="152">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="125">
+      <c r="H71" s="153"/>
+      <c r="I71" s="152">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="125">
+      <c r="J71" s="153"/>
+      <c r="K71" s="152">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="129"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="125">
+      <c r="L71" s="156"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="152">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="126"/>
-      <c r="P71" s="129">
+      <c r="O71" s="153"/>
+      <c r="P71" s="156">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="131"/>
+      <c r="Q71" s="158"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5628,23 +5640,23 @@
       <c r="Z71"/>
     </row>
     <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="132"/>
+      <c r="A72" s="150"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="159"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5653,50 +5665,50 @@
       <c r="Z72"/>
     </row>
     <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="90">
+      <c r="B73" s="190"/>
+      <c r="C73" s="170">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="90">
+      <c r="D73" s="171"/>
+      <c r="E73" s="170">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="90">
+      <c r="F73" s="193"/>
+      <c r="G73" s="170">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="91"/>
-      <c r="I73" s="90">
+      <c r="H73" s="171"/>
+      <c r="I73" s="170">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="90">
+      <c r="J73" s="171"/>
+      <c r="K73" s="170">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="94"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="90">
+      <c r="L73" s="174"/>
+      <c r="M73" s="171"/>
+      <c r="N73" s="170">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="91"/>
-      <c r="P73" s="94">
+      <c r="O73" s="171"/>
+      <c r="P73" s="174">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="98" t="s">
+      <c r="Q73" s="175"/>
+      <c r="R73" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="98"/>
+      <c r="S73" s="178"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5705,25 +5717,25 @@
       <c r="Z73"/>
     </row>
     <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
+      <c r="A74" s="191"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="176"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="176"/>
+      <c r="Q74" s="177"/>
+      <c r="R74" s="178"/>
+      <c r="S74" s="178"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5732,51 +5744,51 @@
       <c r="Z74"/>
     </row>
     <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="103">
+      <c r="B75" s="180"/>
+      <c r="C75" s="183">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="103">
+      <c r="D75" s="184"/>
+      <c r="E75" s="183">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="103">
+      <c r="F75" s="184"/>
+      <c r="G75" s="183">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="103">
+      <c r="H75" s="184"/>
+      <c r="I75" s="183">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="103">
+      <c r="J75" s="184"/>
+      <c r="K75" s="183">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="107"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="103">
+      <c r="L75" s="187"/>
+      <c r="M75" s="184"/>
+      <c r="N75" s="183">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="104"/>
-      <c r="P75" s="107">
+      <c r="O75" s="184"/>
+      <c r="P75" s="187">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="115">
+      <c r="Q75" s="196"/>
+      <c r="R75" s="198">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="115"/>
+      <c r="S75" s="198"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5785,25 +5797,25 @@
       <c r="Z75"/>
     </row>
     <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="115"/>
-      <c r="S76" s="115"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="186"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="186"/>
+      <c r="K76" s="185"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="186"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="186"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="197"/>
+      <c r="R76" s="198"/>
+      <c r="S76" s="198"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5812,51 +5824,51 @@
       <c r="Z76"/>
     </row>
     <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="81">
+      <c r="B77" s="149"/>
+      <c r="C77" s="200">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="81">
+      <c r="D77" s="201"/>
+      <c r="E77" s="200">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81">
+      <c r="F77" s="201"/>
+      <c r="G77" s="200">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="81">
+      <c r="H77" s="201"/>
+      <c r="I77" s="200">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="81">
+      <c r="J77" s="201"/>
+      <c r="K77" s="200">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="85"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="81">
+      <c r="L77" s="204"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="200">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="82"/>
-      <c r="P77" s="85">
+      <c r="O77" s="201"/>
+      <c r="P77" s="204">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="89">
+      <c r="Q77" s="206"/>
+      <c r="R77" s="208">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="89"/>
+      <c r="S77" s="208"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5865,25 +5877,25 @@
       <c r="Z77"/>
     </row>
     <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
+      <c r="A78" s="150"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="203"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="203"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="205"/>
+      <c r="M78" s="203"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="203"/>
+      <c r="P78" s="205"/>
+      <c r="Q78" s="207"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5892,51 +5904,51 @@
       <c r="Z78"/>
     </row>
     <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="68">
+      <c r="B79" s="190"/>
+      <c r="C79" s="210">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68">
+      <c r="D79" s="211"/>
+      <c r="E79" s="210">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="68">
+      <c r="F79" s="211"/>
+      <c r="G79" s="210">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="68">
+      <c r="H79" s="211"/>
+      <c r="I79" s="210">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="69"/>
-      <c r="K79" s="68">
+      <c r="J79" s="211"/>
+      <c r="K79" s="210">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="72"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="68">
+      <c r="L79" s="214"/>
+      <c r="M79" s="211"/>
+      <c r="N79" s="210">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="69"/>
-      <c r="P79" s="72">
+      <c r="O79" s="211"/>
+      <c r="P79" s="214">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="76">
+      <c r="Q79" s="216"/>
+      <c r="R79" s="218">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="76"/>
+      <c r="S79" s="218"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5945,25 +5957,25 @@
       <c r="Z79"/>
     </row>
     <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
+      <c r="A80" s="191"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="213"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="213"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="213"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="213"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="213"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="213"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="217"/>
+      <c r="R80" s="218"/>
+      <c r="S80" s="218"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5984,46 +5996,46 @@
       <c r="M82"/>
     </row>
     <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60" t="s">
+      <c r="B83" s="219"/>
+      <c r="C83" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="60" t="s">
+      <c r="E83" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="60" t="s">
+      <c r="G83" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="60" t="s">
+      <c r="I83" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="60" t="s">
+      <c r="J83" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="61"/>
-      <c r="N83" s="62">
+      <c r="M83" s="223"/>
+      <c r="N83" s="224">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6034,92 +6046,92 @@
       <c r="Z83"/>
     </row>
     <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="63"/>
+      <c r="A84" s="219"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
+      <c r="G84" s="222"/>
+      <c r="H84" s="222"/>
+      <c r="I84" s="222"/>
+      <c r="J84" s="222"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="225"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
     </row>
     <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56">
+      <c r="B85" s="219"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="220">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="220">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="220">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="220">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="221">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="61" t="s">
+      <c r="L85" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="61"/>
-      <c r="N85" s="62">
+      <c r="M85" s="223"/>
+      <c r="N85" s="224">
         <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="63"/>
+      <c r="A86" s="219"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="220"/>
+      <c r="F86" s="220"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="221"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="225"/>
     </row>
     <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="56">
+      <c r="B87" s="219"/>
+      <c r="C87" s="220">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="220">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="220">
         <v>0.61</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="220">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57">
+      <c r="G87" s="220"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="221">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
@@ -6127,32 +6139,32 @@
       <c r="M87"/>
     </row>
     <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+      <c r="A88" s="219"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="220"/>
+      <c r="D88" s="220"/>
+      <c r="E88" s="220"/>
+      <c r="F88" s="220"/>
+      <c r="G88" s="220"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="221"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58" t="s">
+      <c r="A89" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="57" t="e">
+      <c r="B89" s="219"/>
+      <c r="C89" s="220"/>
+      <c r="D89" s="220"/>
+      <c r="E89" s="220"/>
+      <c r="F89" s="220"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="220"/>
+      <c r="I89" s="220"/>
+      <c r="J89" s="221" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6160,32 +6172,32 @@
       <c r="M89"/>
     </row>
     <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="57"/>
+      <c r="A90" s="219"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="220"/>
+      <c r="D90" s="220"/>
+      <c r="E90" s="220"/>
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="220"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="221"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="57" t="e">
+      <c r="B91" s="219"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="221" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6193,46 +6205,46 @@
       <c r="M91"/>
     </row>
     <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="57"/>
+      <c r="A92" s="219"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="221"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
     <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+      <c r="D93" s="220"/>
+      <c r="E93" s="220"/>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="221"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
     <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
+      <c r="A94" s="219"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="220"/>
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="221"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
@@ -6502,18 +6514,344 @@
     </row>
   </sheetData>
   <mergeCells count="374">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="L45:M46"/>
+    <mergeCell ref="L47:M48"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6538,344 +6876,18 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="L45:M46"/>
-    <mergeCell ref="L47:M48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="330" windowWidth="22305" windowHeight="14970"/>
+    <workbookView xWindow="2685" yWindow="330" windowWidth="18915" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="5월12일~5월18일 (20주차)" sheetId="4" r:id="rId1"/>
@@ -583,11 +583,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추가1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가2</t>
+    <t>dd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1272,418 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1287,499 +1698,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2207,7 +2207,7 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L47" sqref="L47:M48"/>
     </sheetView>
   </sheetViews>
@@ -2229,11 +2229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57">
+      <c r="A1" s="194">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2257,11 +2257,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="57">
+      <c r="L1" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="58"/>
+      <c r="M1" s="195"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2283,34 +2283,34 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="V1" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="225" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AE1" s="225" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2386,49 +2386,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="197"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
     </row>
     <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="201" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="201" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="223"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2448,54 +2448,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="221">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="62">
+      <c r="Z3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="61">
+      <c r="AA3" s="220">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="62">
+      <c r="AB3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="62">
+      <c r="AC3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="62">
+      <c r="AD3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="62">
+      <c r="AE3" s="221">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="223"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2521,51 +2521,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
     </row>
     <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="191"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2578,52 +2578,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="65">
+      <c r="Y5" s="201">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="201">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="65">
+      <c r="AA5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="201">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="65">
+      <c r="AD5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="201">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="72"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="191"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2641,20 +2641,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
     </row>
     <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2678,10 +2678,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="75" t="s">
+      <c r="L7" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="76"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2700,44 +2700,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="84" t="s">
+      <c r="X7" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="209">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="73">
+      <c r="Z7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="AA7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="73">
+      <c r="AB7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="73">
+      <c r="AC7" s="209">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="AD7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="73">
+      <c r="AE7" s="209">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2763,8 +2763,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2788,20 +2788,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="210"/>
+      <c r="AE8" s="210"/>
     </row>
     <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2825,10 +2825,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="76"/>
+      <c r="M9" s="186"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2839,41 +2839,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="79" t="s">
+      <c r="X9" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="81">
+      <c r="Y9" s="214">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="83">
+      <c r="Z9" s="216">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="83">
+      <c r="AB9" s="216">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="83">
+      <c r="AC9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="83">
+      <c r="AD9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="83">
+      <c r="AE9" s="216">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2899,8 +2899,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2916,20 +2916,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="215"/>
+      <c r="AE10" s="215"/>
     </row>
     <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="203"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2953,10 +2953,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="184"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2973,41 +2973,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="69" t="s">
+      <c r="X11" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="65">
+      <c r="Y11" s="201">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="65">
+      <c r="Z11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="65">
+      <c r="AA11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="65">
+      <c r="AB11" s="201">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="65">
+      <c r="AC11" s="201">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="65">
+      <c r="AD11" s="201">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="65">
+      <c r="AE11" s="201">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3031,8 +3031,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3054,20 +3054,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
+      <c r="X12" s="208"/>
+      <c r="Y12" s="201"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
     </row>
     <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3091,10 +3091,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="76"/>
+      <c r="M13" s="186"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3117,8 +3117,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="204"/>
+      <c r="B14" s="205"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3140,8 +3140,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="188"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3167,43 +3167,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="90" t="s">
+      <c r="X14" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="65">
+      <c r="Y14" s="201">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="65">
+      <c r="Z14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="65">
+      <c r="AA14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="65">
+      <c r="AB14" s="201">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="65">
+      <c r="AC14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="65">
+      <c r="AD14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="65">
+      <c r="AE14" s="201">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3227,10 +3227,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="76"/>
+      <c r="M15" s="186"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3247,18 +3247,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="201"/>
+      <c r="Z15" s="201"/>
+      <c r="AA15" s="201"/>
+      <c r="AB15" s="201"/>
+      <c r="AC15" s="201"/>
+      <c r="AD15" s="201"/>
+      <c r="AE15" s="201"/>
     </row>
     <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="188"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3282,8 +3282,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="188"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3305,43 +3305,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="90" t="s">
+      <c r="X16" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="91">
+      <c r="Y16" s="207">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="91">
+      <c r="Z16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="91">
+      <c r="AA16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="91">
+      <c r="AB16" s="207">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="91">
+      <c r="AC16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="91">
+      <c r="AD16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="91">
+      <c r="AE16" s="207">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3365,10 +3365,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="203"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3384,18 +3384,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="91"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
+      <c r="X17" s="206"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="207"/>
+      <c r="AD17" s="207"/>
+      <c r="AE17" s="207"/>
     </row>
     <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3417,8 +3417,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="205"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3442,8 +3442,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3453,8 +3453,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3462,31 +3462,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="93" t="s">
+      <c r="Y19" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="93" t="s">
+      <c r="Z19" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="93" t="s">
+      <c r="AA19" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="93" t="s">
+      <c r="AB19" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="93" t="s">
+      <c r="AC19" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="93" t="s">
+      <c r="AD19" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="93" t="s">
+      <c r="AE19" s="199" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3502,8 +3502,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3519,17 +3519,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
     </row>
     <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3539,8 +3539,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3550,28 +3550,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="95" t="s">
+      <c r="Y21" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="95">
+      <c r="Z21" s="189">
         <v>3</v>
       </c>
-      <c r="AA21" s="95">
+      <c r="AA21" s="189">
         <v>2</v>
       </c>
-      <c r="AB21" s="95">
+      <c r="AB21" s="189">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95">
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3587,8 +3587,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3604,13 +3604,13 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="190"/>
+      <c r="AA22" s="190"/>
+      <c r="AB22" s="190"/>
+      <c r="AC22" s="190"/>
+      <c r="AD22" s="190"/>
+      <c r="AE22" s="190"/>
     </row>
     <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -3633,24 +3633,24 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="95" t="s">
+      <c r="Y23" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="95">
+      <c r="Z23" s="189">
         <v>4</v>
       </c>
-      <c r="AA23" s="95">
+      <c r="AA23" s="189">
         <v>3</v>
       </c>
-      <c r="AB23" s="95">
+      <c r="AB23" s="189">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95">
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189">
         <v>3</v>
       </c>
-      <c r="AE23" s="95">
+      <c r="AE23" s="189">
         <v>0</v>
       </c>
     </row>
@@ -3675,20 +3675,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="190"/>
+      <c r="AA24" s="190"/>
+      <c r="AB24" s="190"/>
+      <c r="AC24" s="190"/>
+      <c r="AD24" s="190"/>
+      <c r="AE24" s="190"/>
     </row>
     <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57">
+      <c r="A25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3710,17 +3710,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="194">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="58"/>
+      <c r="M25" s="195"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3742,30 +3742,30 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="60" t="s">
+      <c r="V25" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="95" t="s">
+      <c r="Y25" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="95">
+      <c r="Z25" s="189">
         <v>3</v>
       </c>
-      <c r="AA25" s="95">
+      <c r="AA25" s="189">
         <v>2</v>
       </c>
-      <c r="AB25" s="95">
+      <c r="AB25" s="189">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95">
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189">
         <v>4</v>
       </c>
-      <c r="AE25" s="95">
+      <c r="AE25" s="189">
         <v>0</v>
       </c>
     </row>
@@ -3805,8 +3805,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="97"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3842,21 +3842,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
+      <c r="U26" s="196"/>
+      <c r="V26" s="197"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
     </row>
     <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3870,10 +3870,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="64" t="s">
+      <c r="L27" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="72"/>
+      <c r="M27" s="191"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3889,30 +3889,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="95" t="s">
+      <c r="Y27" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="95">
+      <c r="Z27" s="189">
         <v>4</v>
       </c>
-      <c r="AA27" s="95">
+      <c r="AA27" s="189">
         <v>3</v>
       </c>
-      <c r="AB27" s="95">
+      <c r="AB27" s="189">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95">
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189">
         <v>1</v>
       </c>
-      <c r="AE27" s="95">
+      <c r="AE27" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3930,8 +3930,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="64"/>
-      <c r="M28" s="72"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="191"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3953,19 +3953,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="96"/>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="190"/>
+      <c r="AB28" s="190"/>
+      <c r="AC28" s="190"/>
+      <c r="AD28" s="190"/>
+      <c r="AE28" s="190"/>
     </row>
     <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="184"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3981,10 +3981,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="72"/>
+      <c r="M29" s="191"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3995,30 +3995,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="95" t="s">
+      <c r="Y29" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="95">
+      <c r="Z29" s="189">
         <v>3</v>
       </c>
-      <c r="AA29" s="95">
+      <c r="AA29" s="189">
         <v>2</v>
       </c>
-      <c r="AB29" s="95">
+      <c r="AB29" s="189">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95">
+      <c r="AC29" s="189"/>
+      <c r="AD29" s="189">
         <v>2</v>
       </c>
-      <c r="AE29" s="95">
+      <c r="AE29" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="184"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4038,8 +4038,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="191"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4055,19 +4055,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="96"/>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
+      <c r="AC30" s="190"/>
+      <c r="AD30" s="190"/>
+      <c r="AE30" s="190"/>
     </row>
     <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4081,10 +4081,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="76"/>
+      <c r="M31" s="186"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4101,30 +4101,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="95" t="s">
+      <c r="Y31" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="95">
+      <c r="Z31" s="189">
         <v>4</v>
       </c>
-      <c r="AA31" s="95">
+      <c r="AA31" s="189">
         <v>3</v>
       </c>
-      <c r="AB31" s="95">
+      <c r="AB31" s="189">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95">
+      <c r="AC31" s="189"/>
+      <c r="AD31" s="189">
         <v>3</v>
       </c>
-      <c r="AE31" s="95">
+      <c r="AE31" s="189">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="184"/>
+      <c r="B32" s="184"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4142,8 +4142,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="188"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4165,19 +4165,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="96"/>
-      <c r="AD32" s="96"/>
-      <c r="AE32" s="96"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="190"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="190"/>
+      <c r="AE32" s="190"/>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4191,10 +4191,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="76"/>
+      <c r="M33" s="186"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4213,8 +4213,8 @@
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="184"/>
+      <c r="B34" s="184"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4232,8 +4232,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="77"/>
-      <c r="M34" s="78"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="188"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4257,10 +4257,10 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4272,10 +4272,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="184"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4294,8 +4294,8 @@
       <c r="U35" s="6"/>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="184"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4311,8 +4311,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4336,10 +4336,10 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4361,10 +4361,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="75" t="s">
+      <c r="L37" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="76"/>
+      <c r="M37" s="186"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4383,8 +4383,8 @@
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4410,8 +4410,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="77"/>
-      <c r="M38" s="78"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="188"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4435,10 +4435,10 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="184"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4458,8 +4458,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4470,8 +4470,8 @@
       <c r="U39" s="6"/>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4495,8 +4495,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="78"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4514,14 +4514,14 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4530,8 +4530,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4542,8 +4542,8 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4553,14 +4553,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4576,8 +4576,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4588,10 +4588,8 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="98"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -4599,12 +4597,12 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4612,22 +4610,24 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="L47" s="98" t="s">
+      <c r="A47" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="59"/>
+      <c r="L47" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="M47" s="98"/>
+      <c r="M47" s="59"/>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
       <c r="U48" s="29"/>
@@ -4646,37 +4646,37 @@
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="100" t="s">
+      <c r="D49" s="183"/>
+      <c r="E49" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100" t="s">
+      <c r="F49" s="178"/>
+      <c r="G49" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100" t="s">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100" t="s">
+      <c r="J49" s="178"/>
+      <c r="K49" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="100"/>
-      <c r="M49" s="100"/>
-      <c r="N49" s="100" t="s">
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="100"/>
-      <c r="P49" s="101" t="s">
+      <c r="O49" s="178"/>
+      <c r="P49" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="101"/>
+      <c r="Q49" s="179"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4696,44 +4696,44 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="102">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="180">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="103">
+      <c r="D50" s="180"/>
+      <c r="E50" s="181">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103">
+      <c r="F50" s="181"/>
+      <c r="G50" s="181">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103">
+      <c r="H50" s="181"/>
+      <c r="I50" s="181">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103">
+      <c r="J50" s="181"/>
+      <c r="K50" s="181">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103">
+      <c r="L50" s="181"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="104">
+      <c r="O50" s="181"/>
+      <c r="P50" s="182">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="104"/>
+      <c r="Q50" s="182"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4753,46 +4753,46 @@
       <c r="AI50" s="27"/>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="105">
+      <c r="B51" s="177"/>
+      <c r="C51" s="176">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105">
+      <c r="D51" s="176"/>
+      <c r="E51" s="176">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105">
+      <c r="F51" s="176"/>
+      <c r="G51" s="176">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105">
+      <c r="H51" s="176"/>
+      <c r="I51" s="176">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105">
+      <c r="J51" s="176"/>
+      <c r="K51" s="176">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105">
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105">
+      <c r="O51" s="176"/>
+      <c r="P51" s="176">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="105"/>
+      <c r="Q51" s="176"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4812,23 +4812,23 @@
       <c r="AI51" s="27"/>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4848,23 +4848,23 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="106"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4884,39 +4884,39 @@
       <c r="AI53"/>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107">
+      <c r="B54" s="177"/>
+      <c r="C54" s="169">
         <v>1095960</v>
       </c>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107">
+      <c r="D54" s="169"/>
+      <c r="E54" s="169">
         <v>870450</v>
       </c>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107">
+      <c r="F54" s="169"/>
+      <c r="G54" s="169">
         <v>1020450</v>
       </c>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107">
+      <c r="H54" s="169"/>
+      <c r="I54" s="169">
         <v>1026450</v>
       </c>
-      <c r="J54" s="107"/>
-      <c r="K54" s="108">
+      <c r="J54" s="169"/>
+      <c r="K54" s="175">
         <v>1032450</v>
       </c>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="107">
+      <c r="L54" s="175"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="169">
         <v>1056450</v>
       </c>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107">
+      <c r="O54" s="169"/>
+      <c r="P54" s="169">
         <v>960450</v>
       </c>
-      <c r="Q54" s="107"/>
+      <c r="Q54" s="169"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4936,23 +4936,23 @@
       <c r="AI54"/>
     </row>
     <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="106"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="175"/>
+      <c r="L55" s="175"/>
+      <c r="M55" s="175"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4972,51 +4972,51 @@
       <c r="AI55"/>
     </row>
     <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="114" t="s">
+      <c r="A56" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="107">
+      <c r="B56" s="168"/>
+      <c r="C56" s="169">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107">
+      <c r="D56" s="169"/>
+      <c r="E56" s="169">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107">
+      <c r="F56" s="169"/>
+      <c r="G56" s="169">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107">
+      <c r="H56" s="169"/>
+      <c r="I56" s="169">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108">
+      <c r="J56" s="169"/>
+      <c r="K56" s="175">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="107">
+      <c r="L56" s="175"/>
+      <c r="M56" s="175"/>
+      <c r="N56" s="169">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="107"/>
-      <c r="P56" s="107">
+      <c r="O56" s="169"/>
+      <c r="P56" s="169">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="107"/>
-      <c r="R56" s="109">
+      <c r="Q56" s="169"/>
+      <c r="R56" s="170">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="110"/>
-      <c r="T56" s="111" t="s">
+      <c r="S56" s="171"/>
+      <c r="T56" s="172" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5036,26 +5036,26 @@
       <c r="AI56"/>
     </row>
     <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="110"/>
-      <c r="S57" s="110"/>
-      <c r="T57" s="111"/>
+      <c r="A57" s="168"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="169"/>
+      <c r="K57" s="175"/>
+      <c r="L57" s="175"/>
+      <c r="M57" s="175"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="169"/>
+      <c r="Q57" s="169"/>
+      <c r="R57" s="171"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="172"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5073,76 +5073,76 @@
       <c r="AI57"/>
     </row>
     <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113">
+      <c r="B58" s="173"/>
+      <c r="C58" s="174">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113">
+      <c r="D58" s="174"/>
+      <c r="E58" s="174">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113">
+      <c r="F58" s="174"/>
+      <c r="G58" s="174">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113">
+      <c r="H58" s="174"/>
+      <c r="I58" s="174">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113">
+      <c r="J58" s="174"/>
+      <c r="K58" s="174">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113">
+      <c r="L58" s="174"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="174">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113">
+      <c r="O58" s="174"/>
+      <c r="P58" s="174">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113">
+      <c r="Q58" s="174"/>
+      <c r="R58" s="174">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="113"/>
-      <c r="T58" s="111" t="s">
+      <c r="S58" s="174"/>
+      <c r="T58" s="172" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="113"/>
-      <c r="R59" s="113"/>
-      <c r="S59" s="113"/>
-      <c r="T59" s="111"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="174"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="174"/>
+      <c r="S59" s="174"/>
+      <c r="T59" s="172"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5160,39 +5160,39 @@
       <c r="AI59"/>
     </row>
     <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="107">
+      <c r="B60" s="168"/>
+      <c r="C60" s="169">
         <v>5616890</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107">
+      <c r="D60" s="169"/>
+      <c r="E60" s="169">
         <v>2704420</v>
       </c>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107">
+      <c r="F60" s="169"/>
+      <c r="G60" s="169">
         <v>3785170</v>
       </c>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107">
+      <c r="H60" s="169"/>
+      <c r="I60" s="169">
         <v>4748100</v>
       </c>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107">
+      <c r="J60" s="169"/>
+      <c r="K60" s="169">
         <v>4277980</v>
       </c>
-      <c r="L60" s="107"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="107">
+      <c r="L60" s="169"/>
+      <c r="M60" s="169"/>
+      <c r="N60" s="169">
         <v>5076670</v>
       </c>
-      <c r="O60" s="107"/>
-      <c r="P60" s="107">
+      <c r="O60" s="169"/>
+      <c r="P60" s="169">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="107"/>
+      <c r="Q60" s="169"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5212,23 +5212,23 @@
       <c r="AI60"/>
     </row>
     <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="169"/>
+      <c r="L61" s="169"/>
+      <c r="M61" s="169"/>
+      <c r="N61" s="169"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="169"/>
+      <c r="Q61" s="169"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5248,39 +5248,39 @@
       <c r="AI61"/>
     </row>
     <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="107">
+      <c r="B62" s="168"/>
+      <c r="C62" s="169">
         <v>8170510</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107">
+      <c r="D62" s="169"/>
+      <c r="E62" s="169">
         <v>4484960</v>
       </c>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107">
+      <c r="F62" s="169"/>
+      <c r="G62" s="169">
         <v>2086960</v>
       </c>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107">
+      <c r="H62" s="169"/>
+      <c r="I62" s="169">
         <v>2634530</v>
       </c>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107">
+      <c r="J62" s="169"/>
+      <c r="K62" s="169">
         <v>4909830</v>
       </c>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107">
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169">
         <v>6227730</v>
       </c>
-      <c r="O62" s="107"/>
-      <c r="P62" s="107">
+      <c r="O62" s="169"/>
+      <c r="P62" s="169">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="107"/>
+      <c r="Q62" s="169"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5300,23 +5300,23 @@
       <c r="AI62"/>
     </row>
     <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="169"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="169"/>
+      <c r="L63" s="169"/>
+      <c r="M63" s="169"/>
+      <c r="N63" s="169"/>
+      <c r="O63" s="169"/>
+      <c r="P63" s="169"/>
+      <c r="Q63" s="169"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5331,45 +5331,45 @@
       <c r="AD63"/>
     </row>
     <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114" t="s">
+      <c r="A64" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="115">
+      <c r="B64" s="168"/>
+      <c r="C64" s="143">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115">
+      <c r="D64" s="143"/>
+      <c r="E64" s="143">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115">
+      <c r="F64" s="143"/>
+      <c r="G64" s="143">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115">
+      <c r="J64" s="143"/>
+      <c r="K64" s="143">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115">
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115">
+      <c r="O64" s="143"/>
+      <c r="P64" s="143">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="115"/>
+      <c r="Q64" s="143"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5384,23 +5384,23 @@
       <c r="AD64"/>
     </row>
     <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
+      <c r="A65" s="168"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="143"/>
+      <c r="L65" s="143"/>
+      <c r="M65" s="143"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="143"/>
+      <c r="Q65" s="143"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5445,34 +5445,34 @@
       <c r="AD66"/>
     </row>
     <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="116" t="s">
+      <c r="A67" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="117"/>
-      <c r="C67" s="120">
+      <c r="B67" s="145"/>
+      <c r="C67" s="148">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="124" t="s">
+      <c r="D67" s="149"/>
+      <c r="E67" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="125"/>
-      <c r="G67" s="128">
+      <c r="F67" s="153"/>
+      <c r="G67" s="156">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="129"/>
-      <c r="I67" s="132" t="s">
+      <c r="H67" s="157"/>
+      <c r="I67" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="133"/>
-      <c r="K67" s="136">
+      <c r="J67" s="161"/>
+      <c r="K67" s="164">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="136"/>
-      <c r="M67" s="137"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5492,19 +5492,19 @@
       <c r="AD67"/>
     </row>
     <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="118"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="134"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="138"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="139"/>
+      <c r="A68" s="146"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="162"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="166"/>
+      <c r="L68" s="166"/>
+      <c r="M68" s="167"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5519,46 +5519,46 @@
       <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="160" t="s">
+      <c r="A69" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="161"/>
-      <c r="C69" s="164">
+      <c r="B69" s="134"/>
+      <c r="C69" s="137">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="165"/>
-      <c r="E69" s="168">
+      <c r="D69" s="138"/>
+      <c r="E69" s="141">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="169"/>
-      <c r="G69" s="168">
+      <c r="F69" s="142"/>
+      <c r="G69" s="141">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="169"/>
-      <c r="I69" s="168">
+      <c r="H69" s="142"/>
+      <c r="I69" s="141">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="169"/>
-      <c r="K69" s="140">
+      <c r="J69" s="142"/>
+      <c r="K69" s="116">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="144"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="140">
+      <c r="L69" s="120"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="116">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="141"/>
-      <c r="P69" s="144">
+      <c r="O69" s="117"/>
+      <c r="P69" s="120">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="145"/>
+      <c r="Q69" s="121"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5567,23 +5567,23 @@
       <c r="Z69"/>
     </row>
     <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="162"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="167"/>
-      <c r="I70" s="166"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="147"/>
+      <c r="A70" s="135"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="123"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5592,46 +5592,46 @@
       <c r="Z70"/>
     </row>
     <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="148" t="s">
+      <c r="A71" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="152">
+      <c r="B71" s="78"/>
+      <c r="C71" s="125">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="153"/>
-      <c r="E71" s="152">
+      <c r="D71" s="126"/>
+      <c r="E71" s="125">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="153"/>
-      <c r="G71" s="152">
+      <c r="F71" s="126"/>
+      <c r="G71" s="125">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="153"/>
-      <c r="I71" s="152">
+      <c r="H71" s="126"/>
+      <c r="I71" s="125">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="153"/>
-      <c r="K71" s="152">
+      <c r="J71" s="126"/>
+      <c r="K71" s="125">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="156"/>
-      <c r="M71" s="153"/>
-      <c r="N71" s="152">
+      <c r="L71" s="129"/>
+      <c r="M71" s="126"/>
+      <c r="N71" s="125">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="153"/>
-      <c r="P71" s="156">
+      <c r="O71" s="126"/>
+      <c r="P71" s="129">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="158"/>
+      <c r="Q71" s="131"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5640,23 +5640,23 @@
       <c r="Z71"/>
     </row>
     <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="150"/>
-      <c r="B72" s="151"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="154"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="157"/>
-      <c r="Q72" s="159"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="132"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5665,50 +5665,50 @@
       <c r="Z72"/>
     </row>
     <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="189" t="s">
+      <c r="A73" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="190"/>
-      <c r="C73" s="170">
+      <c r="B73" s="65"/>
+      <c r="C73" s="90">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="171"/>
-      <c r="E73" s="170">
+      <c r="D73" s="91"/>
+      <c r="E73" s="90">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="193"/>
-      <c r="G73" s="170">
+      <c r="F73" s="110"/>
+      <c r="G73" s="90">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="170">
+      <c r="H73" s="91"/>
+      <c r="I73" s="90">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="171"/>
-      <c r="K73" s="170">
+      <c r="J73" s="91"/>
+      <c r="K73" s="90">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="174"/>
-      <c r="M73" s="171"/>
-      <c r="N73" s="170">
+      <c r="L73" s="94"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="90">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="171"/>
-      <c r="P73" s="174">
+      <c r="O73" s="91"/>
+      <c r="P73" s="94">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="175"/>
-      <c r="R73" s="178" t="s">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="178"/>
+      <c r="S73" s="98"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5717,25 +5717,25 @@
       <c r="Z73"/>
     </row>
     <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="191"/>
-      <c r="B74" s="192"/>
-      <c r="C74" s="172"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="173"/>
-      <c r="K74" s="172"/>
-      <c r="L74" s="176"/>
-      <c r="M74" s="173"/>
-      <c r="N74" s="172"/>
-      <c r="O74" s="173"/>
-      <c r="P74" s="176"/>
-      <c r="Q74" s="177"/>
-      <c r="R74" s="178"/>
-      <c r="S74" s="178"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="112"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="98"/>
+      <c r="S74" s="98"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5744,51 +5744,51 @@
       <c r="Z74"/>
     </row>
     <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="179" t="s">
+      <c r="A75" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="180"/>
-      <c r="C75" s="183">
+      <c r="B75" s="100"/>
+      <c r="C75" s="103">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="184"/>
-      <c r="E75" s="183">
+      <c r="D75" s="104"/>
+      <c r="E75" s="103">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="184"/>
-      <c r="G75" s="183">
+      <c r="F75" s="104"/>
+      <c r="G75" s="103">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="184"/>
-      <c r="I75" s="183">
+      <c r="H75" s="104"/>
+      <c r="I75" s="103">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="184"/>
-      <c r="K75" s="183">
+      <c r="J75" s="104"/>
+      <c r="K75" s="103">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="187"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="183">
+      <c r="L75" s="107"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="103">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="184"/>
-      <c r="P75" s="187">
+      <c r="O75" s="104"/>
+      <c r="P75" s="107">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="196"/>
-      <c r="R75" s="198">
+      <c r="Q75" s="113"/>
+      <c r="R75" s="115">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="198"/>
+      <c r="S75" s="115"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5797,25 +5797,25 @@
       <c r="Z75"/>
     </row>
     <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="181"/>
-      <c r="B76" s="182"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="185"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="185"/>
-      <c r="H76" s="186"/>
-      <c r="I76" s="185"/>
-      <c r="J76" s="186"/>
-      <c r="K76" s="185"/>
-      <c r="L76" s="188"/>
-      <c r="M76" s="186"/>
-      <c r="N76" s="185"/>
-      <c r="O76" s="186"/>
-      <c r="P76" s="188"/>
-      <c r="Q76" s="197"/>
-      <c r="R76" s="198"/>
-      <c r="S76" s="198"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="106"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="115"/>
+      <c r="S76" s="115"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5824,51 +5824,51 @@
       <c r="Z76"/>
     </row>
     <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="199" t="s">
+      <c r="A77" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="149"/>
-      <c r="C77" s="200">
+      <c r="B77" s="78"/>
+      <c r="C77" s="81">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="201"/>
-      <c r="E77" s="200">
+      <c r="D77" s="82"/>
+      <c r="E77" s="81">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="201"/>
-      <c r="G77" s="200">
+      <c r="F77" s="82"/>
+      <c r="G77" s="81">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="201"/>
-      <c r="I77" s="200">
+      <c r="H77" s="82"/>
+      <c r="I77" s="81">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="201"/>
-      <c r="K77" s="200">
+      <c r="J77" s="82"/>
+      <c r="K77" s="81">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="204"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="200">
+      <c r="L77" s="85"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="81">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="201"/>
-      <c r="P77" s="204">
+      <c r="O77" s="82"/>
+      <c r="P77" s="85">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="206"/>
-      <c r="R77" s="208">
+      <c r="Q77" s="87"/>
+      <c r="R77" s="89">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="208"/>
+      <c r="S77" s="89"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5877,25 +5877,25 @@
       <c r="Z77"/>
     </row>
     <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150"/>
-      <c r="B78" s="151"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="203"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="203"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="203"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="205"/>
-      <c r="M78" s="203"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="203"/>
-      <c r="P78" s="205"/>
-      <c r="Q78" s="207"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="86"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="86"/>
+      <c r="Q78" s="88"/>
+      <c r="R78" s="89"/>
+      <c r="S78" s="89"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5904,51 +5904,51 @@
       <c r="Z78"/>
     </row>
     <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="209" t="s">
+      <c r="A79" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="190"/>
-      <c r="C79" s="210">
+      <c r="B79" s="65"/>
+      <c r="C79" s="68">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="211"/>
-      <c r="E79" s="210">
+      <c r="D79" s="69"/>
+      <c r="E79" s="68">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="211"/>
-      <c r="G79" s="210">
+      <c r="F79" s="69"/>
+      <c r="G79" s="68">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="211"/>
-      <c r="I79" s="210">
+      <c r="H79" s="69"/>
+      <c r="I79" s="68">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="211"/>
-      <c r="K79" s="210">
+      <c r="J79" s="69"/>
+      <c r="K79" s="68">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="214"/>
-      <c r="M79" s="211"/>
-      <c r="N79" s="210">
+      <c r="L79" s="72"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="68">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="211"/>
-      <c r="P79" s="214">
+      <c r="O79" s="69"/>
+      <c r="P79" s="72">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="216"/>
-      <c r="R79" s="218">
+      <c r="Q79" s="74"/>
+      <c r="R79" s="76">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="218"/>
+      <c r="S79" s="76"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5957,25 +5957,25 @@
       <c r="Z79"/>
     </row>
     <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="191"/>
-      <c r="B80" s="192"/>
-      <c r="C80" s="212"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="213"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="213"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="213"/>
-      <c r="K80" s="212"/>
-      <c r="L80" s="215"/>
-      <c r="M80" s="213"/>
-      <c r="N80" s="212"/>
-      <c r="O80" s="213"/>
-      <c r="P80" s="215"/>
-      <c r="Q80" s="217"/>
-      <c r="R80" s="218"/>
-      <c r="S80" s="218"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="76"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5996,46 +5996,46 @@
       <c r="M82"/>
     </row>
     <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="219" t="s">
+      <c r="A83" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="219"/>
-      <c r="C83" s="222" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="222" t="s">
+      <c r="D83" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="222" t="s">
+      <c r="E83" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="222" t="s">
+      <c r="F83" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="222" t="s">
+      <c r="G83" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="222" t="s">
+      <c r="H83" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="222" t="s">
+      <c r="I83" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="222" t="s">
+      <c r="J83" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="223" t="s">
+      <c r="L83" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="223"/>
-      <c r="N83" s="224">
+      <c r="M83" s="61"/>
+      <c r="N83" s="62">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="98"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6046,92 +6046,92 @@
       <c r="Z83"/>
     </row>
     <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="219"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="222"/>
-      <c r="D84" s="222"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="222"/>
-      <c r="G84" s="222"/>
-      <c r="H84" s="222"/>
-      <c r="I84" s="222"/>
-      <c r="J84" s="222"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="225"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="63"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="98"/>
-      <c r="R84" s="98"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
     </row>
     <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="219" t="s">
+      <c r="A85" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="219"/>
-      <c r="C85" s="220"/>
-      <c r="D85" s="220"/>
-      <c r="E85" s="220"/>
-      <c r="F85" s="220">
+      <c r="B85" s="58"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="220">
+      <c r="G85" s="56">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="220">
+      <c r="H85" s="56">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="220">
+      <c r="I85" s="56">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="221">
+      <c r="J85" s="57">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="223" t="s">
+      <c r="L85" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="223"/>
-      <c r="N85" s="224">
+      <c r="M85" s="61"/>
+      <c r="N85" s="62">
         <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="219"/>
-      <c r="B86" s="219"/>
-      <c r="C86" s="220"/>
-      <c r="D86" s="220"/>
-      <c r="E86" s="220"/>
-      <c r="F86" s="220"/>
-      <c r="G86" s="220"/>
-      <c r="H86" s="220"/>
-      <c r="I86" s="220"/>
-      <c r="J86" s="221"/>
-      <c r="L86" s="223"/>
-      <c r="M86" s="223"/>
-      <c r="N86" s="225"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="63"/>
     </row>
     <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="219" t="s">
+      <c r="A87" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="219"/>
-      <c r="C87" s="220">
+      <c r="B87" s="58"/>
+      <c r="C87" s="56">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="220">
+      <c r="D87" s="56">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="220">
+      <c r="E87" s="56">
         <v>0.61</v>
       </c>
-      <c r="F87" s="220">
+      <c r="F87" s="56">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="220"/>
-      <c r="H87" s="220"/>
-      <c r="I87" s="220"/>
-      <c r="J87" s="221">
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="57">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
@@ -6139,32 +6139,32 @@
       <c r="M87"/>
     </row>
     <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="219"/>
-      <c r="B88" s="219"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="220"/>
-      <c r="F88" s="220"/>
-      <c r="G88" s="220"/>
-      <c r="H88" s="220"/>
-      <c r="I88" s="220"/>
-      <c r="J88" s="221"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="57"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="219" t="s">
+      <c r="A89" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="219"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="220"/>
-      <c r="G89" s="220"/>
-      <c r="H89" s="220"/>
-      <c r="I89" s="220"/>
-      <c r="J89" s="221" t="e">
+      <c r="B89" s="58"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="57" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6172,32 +6172,32 @@
       <c r="M89"/>
     </row>
     <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="219"/>
-      <c r="B90" s="219"/>
-      <c r="C90" s="220"/>
-      <c r="D90" s="220"/>
-      <c r="E90" s="220"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="220"/>
-      <c r="H90" s="220"/>
-      <c r="I90" s="220"/>
-      <c r="J90" s="221"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="57"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="219" t="s">
+      <c r="A91" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="219"/>
-      <c r="C91" s="220"/>
-      <c r="D91" s="220"/>
-      <c r="E91" s="220"/>
-      <c r="F91" s="220"/>
-      <c r="G91" s="220"/>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
-      <c r="J91" s="221" t="e">
+      <c r="B91" s="58"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="57" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6205,46 +6205,46 @@
       <c r="M91"/>
     </row>
     <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="219"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="220"/>
-      <c r="E92" s="220"/>
-      <c r="F92" s="220"/>
-      <c r="G92" s="220"/>
-      <c r="H92" s="220"/>
-      <c r="I92" s="220"/>
-      <c r="J92" s="221"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="57"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
     <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="219" t="s">
+      <c r="A93" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="219"/>
-      <c r="C93" s="220"/>
-      <c r="D93" s="220"/>
-      <c r="E93" s="220"/>
-      <c r="F93" s="220"/>
-      <c r="G93" s="220"/>
-      <c r="H93" s="220"/>
-      <c r="I93" s="220"/>
-      <c r="J93" s="221"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="57"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
     <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="219"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="220"/>
-      <c r="F94" s="220"/>
-      <c r="G94" s="220"/>
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="221"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="57"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
@@ -6514,42 +6514,320 @@
     </row>
   </sheetData>
   <mergeCells count="374">
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="L45:M46"/>
+    <mergeCell ref="L47:M48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
     <mergeCell ref="R83:R84"/>
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -6574,320 +6852,42 @@
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="L85:M86"/>
     <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="L45:M46"/>
-    <mergeCell ref="L47:M48"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="124">
   <si>
     <t>주차</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,14 +580,6 @@
   </si>
   <si>
     <t>22주차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2207,7 +2199,7 @@
   </sheetPr>
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L47" sqref="L47:M48"/>
     </sheetView>
   </sheetViews>
@@ -4614,13 +4606,9 @@
       <c r="M46" s="59"/>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
-        <v>124</v>
-      </c>
+      <c r="A47" s="59"/>
       <c r="B47" s="59"/>
-      <c r="L47" s="59" t="s">
-        <v>125</v>
-      </c>
+      <c r="L47" s="59"/>
       <c r="M47" s="59"/>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">

--- a/Project/SdProject/멤버 정리.xlsx
+++ b/Project/SdProject/멤버 정리.xlsx
@@ -1264,16 +1264,502 @@
     <xf numFmtId="177" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,492 +1772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:AI138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47:M48"/>
+      <selection activeCell="L47" activeCellId="2" sqref="L19:M20 L21:M22 L47:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2221,11 +2221,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="194">
+      <c r="A1" s="57">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="B1" s="195"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="194">
+      <c r="L1" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M1" s="195"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2275,34 +2275,34 @@
       <c r="T1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="196" t="s">
+      <c r="U1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="197" t="s">
+      <c r="V1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="225" t="s">
+      <c r="X1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="225" t="s">
+      <c r="Y1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="225" t="s">
+      <c r="Z1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="225" t="s">
+      <c r="AA1" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="225" t="s">
+      <c r="AB1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="225" t="s">
+      <c r="AC1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="225" t="s">
+      <c r="AD1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="225" t="s">
+      <c r="AE1" s="56" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2378,49 +2378,49 @@
         <f>N2+6</f>
         <v>45430</v>
       </c>
-      <c r="U2" s="196"/>
-      <c r="V2" s="197"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
     </row>
     <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="201" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="201" t="s">
+      <c r="D3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="201" t="s">
+      <c r="G3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="65" t="s">
         <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="223"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="31"/>
       <c r="O3" s="52" t="s">
         <v>110</v>
@@ -2440,54 +2440,54 @@
       <c r="T3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="221">
+      <c r="Y3" s="62">
         <f t="shared" ref="Y3:AE3" si="0">COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"9.3~16.3")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"8~20")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9.3~16.3")+COUNTIFS(N3:N44,"9~16.3")</f>
         <v>2</v>
       </c>
-      <c r="Z3" s="221">
+      <c r="Z3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="220">
+      <c r="AA3" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB3" s="221">
+      <c r="AB3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC3" s="221">
+      <c r="AC3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AD3" s="221">
+      <c r="AD3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AE3" s="221">
+      <c r="AE3" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="223"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="36"/>
       <c r="O4" s="30">
         <v>7</v>
@@ -2513,51 +2513,51 @@
         <f t="array" ref="V4">_xlfn.IFS(U4&gt;15,"O",U4=15,"O",U4&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="220"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
     </row>
     <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="201" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="201" t="s">
+      <c r="D5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="201" t="s">
+      <c r="I5" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="219" t="s">
+      <c r="K5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="191"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -2570,52 +2570,52 @@
         <v>38</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="201">
+      <c r="Y5" s="65">
         <f t="shared" ref="Y5:AE5" si="1">COUNTIFS(C7:C44,"8~14")+COUNTIFS(C7:C44,"8~15")+COUNTIFS(C7:C44,"8~16")+COUNTIFS(C7:C44,"8~17")+COUNTIFS(C7:C44,"8~18")+COUNTIFS(C7:C44,"8~19")+COUNTIFS(C7:C44,"9~14")+COUNTIFS(C7:C44,"9~15")+COUNTIFS(C7:C44,"9~16")+COUNTIFS(C7:C44,"9~16.3")+COUNTIFS(C7:C44,"9~17")+COUNTIFS(C7:C44,"9~18")+COUNTIFS(C7:C44,"9~19")+COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~14")+COUNTIFS(C7:C44,"10~14.3")+COUNTIFS(C7:C44,"10~15")+COUNTIFS(C7:C44,"10~15.3")+COUNTIFS(C7:C44,"10~16")+COUNTIFS(C7:C44,"10~16.3")+COUNTIFS(C7:C44,"10~17")+COUNTIFS(C7:C44,"10~17.3")+COUNTIFS(C7:C44,"10~18")+COUNTIFS(C7:C44,"10~18.3")+COUNTIFS(C7:C44,"10~19")+COUNTIFS(C7:C44,"10~19.3")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10~20.3")+COUNTIFS(C7:C44,"10.3~14")+COUNTIFS(C7:C44,"10.3~14.3")+COUNTIFS(C7:C44,"10.3~15")+COUNTIFS(C7:C44,"10.3~15.3")+COUNTIFS(C7:C44,"10.3~16")+COUNTIFS(C7:C44,"10.3~16.3")+COUNTIFS(C7:C44,"10.3~17")+COUNTIFS(C7:C44,"10.3~17.3")+COUNTIFS(C7:C44,"10.3~18")+COUNTIFS(C7:C44,"10.3~18.3")+COUNTIFS(C7:C44,"10.3~19")+COUNTIFS(C7:C44,"10.3~19.3")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"10.3~20.3")+COUNTIFS(C7:C44,"11~14")+COUNTIFS(C7:C44,"11~15")+COUNTIFS(C7:C44,"11~16")+COUNTIFS(C7:C44,"11~17")+COUNTIFS(C7:C44,"11~18")+COUNTIFS(C7:C44,"11~19")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~14.3")+COUNTIFS(C7:C44,"11.3~15.3")+COUNTIFS(C7:C44,"11.3~16.3")+COUNTIFS(C7:C44,"11.3~17")+COUNTIFS(C7:C44,"11.3~17.3")+COUNTIFS(C7:C44,"11.3~18.3")+COUNTIFS(C7:C44,"11.3~19.3")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~15")+COUNTIFS(C7:C44,"12~16")+COUNTIFS(C7:C44,"12~17")+COUNTIFS(C7:C44,"12~18")+COUNTIFS(C7:C44,"12~19")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~15.3")+COUNTIFS(C7:C44,"12~16.3")+COUNTIFS(C7:C44,"12~17.3")+COUNTIFS(C7:C44,"12~18.3")+COUNTIFS(C7:C44,"12~19.3")+COUNTIFS(C7:C44,"12~20.3")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~15")+COUNTIFS(C7:C44,"12.3~16")+COUNTIFS(C7:C44,"12.3~17")+COUNTIFS(C7:C44,"12.3~18")+COUNTIFS(C7:C44,"12.3~19")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"8~14")+COUNTIFS(N3:N44,"8~15")+COUNTIFS(N3:N44,"8~16")+COUNTIFS(N3:N44,"8~17")+COUNTIFS(N3:N44,"8~18")+COUNTIFS(N3:N44,"8~19")+COUNTIFS(N3:N44,"9~14")+COUNTIFS(N3:N44,"9~15")+COUNTIFS(N3:N44,"9~16")+COUNTIFS(N3:N44,"9~16.3")+COUNTIFS(N3:N44,"9~17")+COUNTIFS(N3:N44,"9~18")+COUNTIFS(N3:N44,"9~19")+COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~14")+COUNTIFS(N3:N44,"10~14.3")+COUNTIFS(N3:N44,"10~15")+COUNTIFS(N3:N44,"10~15.3")+COUNTIFS(N3:N44,"10~16")+COUNTIFS(N3:N44,"10~16.3")+COUNTIFS(N3:N44,"10~17")+COUNTIFS(N3:N44,"10~17.3")+COUNTIFS(N3:N44,"10~18")+COUNTIFS(N3:N44,"10~18.3")+COUNTIFS(N3:N44,"10~19")+COUNTIFS(N3:N44,"10~19.3")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10~20.3")+COUNTIFS(N3:N44,"10.3~14")+COUNTIFS(N3:N44,"10.3~14.3")+COUNTIFS(N3:N44,"10.3~15")+COUNTIFS(N3:N44,"10.3~15.3")+COUNTIFS(N3:N44,"10.3~16")+COUNTIFS(N3:N44,"10.3~16.3")+COUNTIFS(N3:N44,"10.3~17")+COUNTIFS(N3:N44,"10.3~17.3")+COUNTIFS(N3:N44,"10.3~18")+COUNTIFS(N3:N44,"10.3~18.3")+COUNTIFS(N3:N44,"10.3~19")+COUNTIFS(N3:N44,"10.3~19.3")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"10.3~20.3")+COUNTIFS(N3:N44,"11~14")+COUNTIFS(N3:N44,"11~15")+COUNTIFS(N3:N44,"11~16")+COUNTIFS(N3:N44,"11~17")+COUNTIFS(N3:N44,"11~18")+COUNTIFS(N3:N44,"11~19")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~14.3")+COUNTIFS(N3:N44,"11.3~15.3")+COUNTIFS(N3:N44,"11.3~16.3")+COUNTIFS(N3:N44,"11.3~17")+COUNTIFS(N3:N44,"11.3~17.3")+COUNTIFS(N3:N44,"11.3~18.3")+COUNTIFS(N3:N44,"11.3~19.3")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~15")+COUNTIFS(N3:N44,"12~16")+COUNTIFS(N3:N44,"12~17")+COUNTIFS(N3:N44,"12~18")+COUNTIFS(N3:N44,"12~19")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~15.3")+COUNTIFS(N3:N44,"12~16.3")+COUNTIFS(N3:N44,"12~17.3")+COUNTIFS(N3:N44,"12~18.3")+COUNTIFS(N3:N44,"12~19.3")+COUNTIFS(N3:N44,"12~20.3")+COUNTIFS(N3:N44,"12~21.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~15")+COUNTIFS(N3:N44,"12.3~16")+COUNTIFS(N3:N44,"12.3~17")+COUNTIFS(N3:N44,"12.3~18")+COUNTIFS(N3:N44,"12.3~19")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z5" s="201">
+      <c r="Z5" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="201">
+      <c r="AB5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC5" s="201">
+      <c r="AC5" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD5" s="201">
+      <c r="AD5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="201">
+      <c r="AE5" s="65">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="191"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="36"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -2633,20 +2633,20 @@
         <f t="array" ref="V6">_xlfn.IFS(U6&gt;15,"O",U6=15,"O",U6&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="201"/>
-      <c r="AA6" s="201"/>
-      <c r="AB6" s="201"/>
-      <c r="AC6" s="201"/>
-      <c r="AD6" s="201"/>
-      <c r="AE6" s="201"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
     </row>
     <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="31" t="s">
         <v>118</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="185" t="s">
+      <c r="L7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="186"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="37" t="s">
         <v>40</v>
       </c>
@@ -2692,44 +2692,44 @@
         <v>40</v>
       </c>
       <c r="U7" s="6"/>
-      <c r="X7" s="217" t="s">
+      <c r="X7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="209">
+      <c r="Y7" s="73">
         <f t="shared" ref="Y7:AE7" si="2">COUNTIFS(C7:C44,"9~20")+COUNTIFS(C7:C44,"10~20")+COUNTIFS(C7:C44,"10.3~20")+COUNTIFS(C7:C44,"11~20")+COUNTIFS(C7:C44,"11~21")+COUNTIFS(C7:C44,"11.3~20.3")+COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~20")+COUNTIFS(C7:C44,"12~21")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~20")+COUNTIFS(C7:C44,"12.3~21")+COUNTIFS(C7:C44,"12.3~22")+COUNTIFS(C7:C44,"12.3~22.3")
 +COUNTIFS(N3:N44,"9~20")+COUNTIFS(N3:N44,"10~20")+COUNTIFS(N3:N44,"10.3~20")+COUNTIFS(N3:N44,"11~20")+COUNTIFS(N3:N44,"11~21")+COUNTIFS(N3:N44,"11.3~20.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~20")+COUNTIFS(N3:N44,"12~21")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~20")+COUNTIFS(N3:N44,"12.3~21")+COUNTIFS(N3:N44,"12.3~22")+COUNTIFS(N3:N44,"12.3~22.3")
 +COUNTIFS(C7:C44,"13.3~20")+COUNTIFS(C7:C44,"13.3~21")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~20")+COUNTIFS(C7:C44,"14~21")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~20")+COUNTIFS(C7:C44,"14.3~20.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~20")+COUNTIFS(C7:C44,"15~21")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~20")+COUNTIFS(C7:C44,"15.3~21")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~20")+COUNTIFS(C7:C44,"16~21")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~20")+COUNTIFS(C7:C44,"16.3~21")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~20")+COUNTIFS(C7:C44,"17~21")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~20")+COUNTIFS(C7:C44,"18~21")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")
 +COUNTIFS(N3:N44,"13.3~20")+COUNTIFS(N3:N44,"13.3~21")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~20")+COUNTIFS(N3:N44,"14~21")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~20")+COUNTIFS(N3:N44,"14.3~20.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~20")+COUNTIFS(N3:N44,"15~21")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~20")+COUNTIFS(N3:N44,"15.3~21")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~20")+COUNTIFS(N3:N44,"16~21")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~20")+COUNTIFS(N3:N44,"16.3~21")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~20")+COUNTIFS(N3:N44,"17~21")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~20")+COUNTIFS(N3:N44,"18~21")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>7</v>
       </c>
-      <c r="Z7" s="209">
+      <c r="Z7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AA7" s="209">
+      <c r="AA7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AB7" s="209">
+      <c r="AB7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AC7" s="209">
+      <c r="AC7" s="73">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AD7" s="209">
+      <c r="AD7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="209">
+      <c r="AE7" s="73">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="188"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="36"/>
       <c r="D8" s="30">
         <v>8</v>
@@ -2755,8 +2755,8 @@
         <f t="array" ref="K8">_xlfn.IFS(J8=40,"O",J8&lt;40,"LOW",J8&gt;40,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="38">
         <v>8</v>
       </c>
@@ -2780,20 +2780,20 @@
         <f t="array" ref="V8">_xlfn.IFS(U8&gt;15,"O",U8=15,"O",U8&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
     </row>
     <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="185" t="s">
+      <c r="L9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="186"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -2831,41 +2831,41 @@
         <v>38</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="X9" s="212" t="s">
+      <c r="X9" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="214">
+      <c r="Y9" s="81">
         <f>COUNTIFS(C7:C44,"11.3~21.3")+COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"11.3~22")+COUNTIFS(C7:C44,"12~21.3")+COUNTIFS(C7:C44,"12~22")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(N3:N44,"11.3~21.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"11.3~22")+COUNTIFS(N3:N44,"12~22")+COUNTIFS(N3:N44,"12.3~21.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(C7:C44,"13.3~21.3")+COUNTIFS(C7:C44,"13.3~22")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~21.3")+COUNTIFS(C7:C44,"14~22")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~21.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"14.3~22")+COUNTIFS(C7:C44,"15~21.3")+COUNTIFS(C7:C44,"15~22")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~21.3")+COUNTIFS(C7:C44,"15.3~22")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~21.3")+COUNTIFS(C7:C44,"16~22")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~21.3")+COUNTIFS(C7:C44,"16.3~22")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~21.3")+COUNTIFS(C7:C44,"17~22")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"18~21.3")+COUNTIFS(C7:C44,"18~22")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(N3:N44,"13.3~21.3")+COUNTIFS(N3:N44,"13.3~22")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~21.3")+COUNTIFS(N3:N44,"14~22")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~21.3")+COUNTIFS(N3:N44,"14.3~22")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~21.3")+COUNTIFS(N3:N44,"15~22")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~21.3")+COUNTIFS(N3:N44,"15.3~22")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~21.3")+COUNTIFS(N3:N44,"16~22")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~21.3")+COUNTIFS(N3:N44,"16.3~22")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~21.3")+COUNTIFS(N3:N44,"17~22")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"18~21.3")+COUNTIFS(N3:N44,"18~22")+COUNTIFS(N3:N44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="Z9" s="216">
+      <c r="Z9" s="83">
         <f t="shared" ref="Z9:AE9" si="3">COUNTIFS(D7:D44,"11.3~21.3")+COUNTIFS(D7:D44,"11.3~22.3")+COUNTIFS(D7:D44,"11.3~22")+COUNTIFS(D7:D44,"12~21.3")+COUNTIFS(D7:D44,"12~22")+COUNTIFS(D7:D44,"12.3~22.3")+COUNTIFS(O3:O44,"11.3~21.3")+COUNTIFS(O3:O44,"11.3~22.3")+COUNTIFS(O3:O44,"11.3~22")+COUNTIFS(O3:O44,"12~22")+COUNTIFS(O3:O44,"12.3~21.3")+COUNTIFS(O3:O44,"12.3~22.3")+COUNTIFS(D7:D44,"13.3~21.3")+COUNTIFS(D7:D44,"13.3~22")+COUNTIFS(D7:D44,"13.3~22.3")+COUNTIFS(D7:D44,"14~21.3")+COUNTIFS(D7:D44,"14~22")+COUNTIFS(D7:D44,"14~22.3")+COUNTIFS(D7:D44,"14.3~21.3")+COUNTIFS(D7:D44,"14.3~22.3")+COUNTIFS(D7:D44,"14.3~22")+COUNTIFS(D7:D44,"15~21.3")+COUNTIFS(D7:D44,"15~22")+COUNTIFS(D7:D44,"15~22.3")+COUNTIFS(D7:D44,"15.3~21.3")+COUNTIFS(D7:D44,"15.3~22")+COUNTIFS(D7:D44,"15.3~22.3")+COUNTIFS(D7:D44,"16~21.3")+COUNTIFS(D7:D44,"16~22")+COUNTIFS(D7:D44,"16~22.3")+COUNTIFS(D7:D44,"16.3~21.3")+COUNTIFS(D7:D44,"16.3~22")+COUNTIFS(D7:D44,"16.3~22.3")+COUNTIFS(D7:D44,"17~21.3")+COUNTIFS(D7:D44,"17~22")+COUNTIFS(D7:D44,"17~22.3")+COUNTIFS(D7:D44,"18~21.3")+COUNTIFS(D7:D44,"18~22")+COUNTIFS(D7:D44,"18~22.3")+COUNTIFS(O3:O44,"13.3~21.3")+COUNTIFS(O3:O44,"13.3~22")+COUNTIFS(O3:O44,"13.3~22.3")+COUNTIFS(O3:O44,"14~21.3")+COUNTIFS(O3:O44,"14~22")+COUNTIFS(O3:O44,"14~22.3")+COUNTIFS(O3:O44,"14.3~21.3")+COUNTIFS(O3:O44,"14.3~22")+COUNTIFS(O3:O44,"14.3~22.3")+COUNTIFS(O3:O44,"15~21.3")+COUNTIFS(O3:O44,"15~22")+COUNTIFS(O3:O44,"15~22.3")+COUNTIFS(O3:O44,"15.3~21.3")+COUNTIFS(O3:O44,"15.3~22")+COUNTIFS(O3:O44,"15.3~22.3")+COUNTIFS(O3:O44,"16~21.3")+COUNTIFS(O3:O44,"16~22")+COUNTIFS(O3:O44,"16~22.3")+COUNTIFS(O3:O44,"16.3~21.3")+COUNTIFS(O3:O44,"16.3~22")+COUNTIFS(O3:O44,"16.3~22.3")+COUNTIFS(O3:O44,"17~21.3")+COUNTIFS(O3:O44,"17~22")+COUNTIFS(O3:O44,"17~22.3")+COUNTIFS(O3:O44,"18~21.3")+COUNTIFS(O3:O44,"18~22")+COUNTIFS(O3:O44,"18~22.3")</f>
         <v>6</v>
       </c>
-      <c r="AA9" s="216">
+      <c r="AA9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB9" s="216">
+      <c r="AB9" s="83">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AC9" s="216">
+      <c r="AC9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AD9" s="216">
+      <c r="AD9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AE9" s="216">
+      <c r="AE9" s="83">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
-      <c r="B10" s="211"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="40">
         <v>9</v>
       </c>
@@ -2891,8 +2891,8 @@
         <f t="array" ref="K10">_xlfn.IFS(J10=46,"O",J10&lt;46,"LOW",J10&gt;46,"HIGH")</f>
         <v>O</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
       <c r="P10" s="43"/>
@@ -2908,20 +2908,20 @@
         <f t="array" ref="V10">_xlfn.IFS(U10&gt;15,"O",U10=15,"O",U10&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="215"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="215"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="215"/>
-      <c r="AE10" s="215"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
     </row>
     <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="31" t="s">
         <v>118</v>
       </c>
@@ -2945,10 +2945,10 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="184"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="32" t="s">
@@ -2965,41 +2965,41 @@
         <v>44</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="X11" s="208" t="s">
+      <c r="X11" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="201">
+      <c r="Y11" s="65">
         <f t="shared" ref="Y11:AE11" si="4">COUNT(C10,C12,C14,C16,C18,C28,C30,C32,C34,C36,C38,C40,C42,C44,C20,C22,N4,N6,N8,N10,N12,N14,N16,N18,N20,N22,N28,N30,N32,N34,N36,N38,N40,N42,N44)</f>
         <v>11</v>
       </c>
-      <c r="Z11" s="201">
+      <c r="Z11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA11" s="201">
+      <c r="AA11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB11" s="201">
+      <c r="AB11" s="65">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AC11" s="201">
+      <c r="AC11" s="65">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AD11" s="201">
+      <c r="AD11" s="65">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="65">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="205"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="36"/>
       <c r="D12" s="41">
         <v>9</v>
@@ -3023,8 +3023,8 @@
         <f t="array" ref="K12">_xlfn.IFS(J12=46,"O",J12&lt;46,"LOW",J12&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="41">
@@ -3046,20 +3046,20 @@
         <f t="array" ref="V12">_xlfn.IFS(U12&gt;15,"O",U12=15,"O",U12&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X12" s="208"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="201"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
     </row>
     <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="203"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="32" t="s">
         <v>83</v>
       </c>
@@ -3083,10 +3083,10 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="185" t="s">
+      <c r="L13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="186"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="32" t="s">
         <v>44</v>
       </c>
@@ -3109,8 +3109,8 @@
       <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="205"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="41">
         <v>9</v>
       </c>
@@ -3132,8 +3132,8 @@
         <f t="array" ref="K14">_xlfn.IFS(J14=46,"O",J14&lt;46,"LOW",J14&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
       <c r="N14" s="41">
         <v>5</v>
       </c>
@@ -3159,43 +3159,43 @@
         <f t="array" ref="V14">_xlfn.IFS(U14&gt;15,"O",U14=15,"O",U14&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X14" s="206" t="s">
+      <c r="X14" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="201">
+      <c r="Y14" s="65">
         <f t="shared" ref="Y14:AE14" si="5">COUNTIFS(C7:C44,"11.3~22.3")+COUNTIFS(C7:C44,"12~22.3")+COUNTIFS(C7:C44,"12.3~22.3")+COUNTIFS(C7:C44,"13~22.3")+COUNTIFS(C7:C44,"13.3~22.3")+COUNTIFS(C7:C44,"14~22.3")+COUNTIFS(C7:C44,"14.3~22.3")+COUNTIFS(C7:C44,"15~22.3")+COUNTIFS(C7:C44,"15.3~22.3")+COUNTIFS(C7:C44,"16~22.3")+COUNTIFS(C7:C44,"16.3~22.3")+COUNTIFS(C7:C44,"17~22.3")+COUNTIFS(C7:C44,"17.3~22.3")+COUNTIFS(C7:C44,"18~22.3")+COUNTIFS(C7:C44,"18.3~22.3")+COUNTIFS(N3:N44,"11.3~22.3")+COUNTIFS(N3:N44,"12~22.3")+COUNTIFS(N3:N44,"12.3~22.3")+COUNTIFS(N3:N44,"13~22.3")+COUNTIFS(N3:N44,"13.3~22.3")+COUNTIFS(N3:N44,"14~22.3")+COUNTIFS(N3:N44,"14.3~22.3")+COUNTIFS(N3:N44,"15~22.3")+COUNTIFS(N3:N44,"15.3~22.3")+COUNTIFS(N3:N44,"16~22.3")+COUNTIFS(N3:N44,"16.3~22.3")+COUNTIFS(N3:N44,"17~22.3")+COUNTIFS(N3:N44,"17.3~22.3")+COUNTIFS(N3:N44,"18~22.3")+COUNTIFS(N3:N44,"18.3~22.3")</f>
         <v>5</v>
       </c>
-      <c r="Z14" s="201">
+      <c r="Z14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AA14" s="201">
+      <c r="AA14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AB14" s="201">
+      <c r="AB14" s="65">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AC14" s="201">
+      <c r="AC14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AD14" s="201">
+      <c r="AD14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AE14" s="201">
+      <c r="AE14" s="65">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="186"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="185" t="s">
+      <c r="L15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="186"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="32" t="s">
         <v>36</v>
       </c>
@@ -3239,18 +3239,18 @@
         <v>38</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="X15" s="206"/>
-      <c r="Y15" s="201"/>
-      <c r="Z15" s="201"/>
-      <c r="AA15" s="201"/>
-      <c r="AB15" s="201"/>
-      <c r="AC15" s="201"/>
-      <c r="AD15" s="201"/>
-      <c r="AE15" s="201"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
     </row>
     <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -3274,8 +3274,8 @@
         <f t="array" ref="K16">_xlfn.IFS(J16=46,"O",J16&lt;46,"LOW",J16&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L16" s="187"/>
-      <c r="M16" s="188"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
       <c r="N16" s="41">
         <v>4</v>
       </c>
@@ -3297,43 +3297,43 @@
         <f t="array" ref="V16">_xlfn.IFS(U16&gt;15,"O",U16=15,"O",U16&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="X16" s="206" t="s">
+      <c r="X16" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="207">
+      <c r="Y16" s="91">
         <f t="shared" ref="Y16:AE16" si="6">(Y14*0.25)*0.83</f>
         <v>1.0374999999999999</v>
       </c>
-      <c r="Z16" s="207">
+      <c r="Z16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AA16" s="207">
+      <c r="AA16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AB16" s="207">
+      <c r="AB16" s="91">
         <f t="shared" si="6"/>
         <v>1.0374999999999999</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AD16" s="207">
+      <c r="AD16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
-      <c r="AE16" s="207">
+      <c r="AE16" s="91">
         <f t="shared" si="6"/>
         <v>1.2449999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="203"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="31" t="s">
         <v>118</v>
       </c>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="202" t="s">
+      <c r="L17" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="203"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="35" t="s">
         <v>42</v>
       </c>
@@ -3376,18 +3376,18 @@
       <c r="T17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="206"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
-      <c r="AC17" s="207"/>
-      <c r="AD17" s="207"/>
-      <c r="AE17" s="207"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
     </row>
     <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="205"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="36"/>
       <c r="D18" s="45">
         <v>10</v>
@@ -3409,8 +3409,8 @@
         <f t="array" ref="K18">_xlfn.IFS(J18=46,"O",J18&lt;46,"LOW",J18&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="205"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
       <c r="N18" s="46">
         <v>5</v>
       </c>
@@ -3434,8 +3434,8 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3445,8 +3445,8 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3454,31 +3454,31 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="Y19" s="199" t="s">
+      <c r="Y19" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Z19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="AA19" s="199" t="s">
+      <c r="AA19" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="199" t="s">
+      <c r="AB19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="AC19" s="199" t="s">
+      <c r="AC19" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="199" t="s">
+      <c r="AD19" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="AE19" s="199" t="s">
+      <c r="AE19" s="93" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3494,8 +3494,8 @@
         <f t="array" ref="K20">_xlfn.IFS(J20=46,"O",J20&lt;46,"LOW",J20&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3511,17 +3511,17 @@
         <f t="array" ref="V20">_xlfn.IFS(U20&gt;15,"O",U20=15,"O",U20&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
     </row>
     <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="198"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3531,8 +3531,8 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -3542,28 +3542,28 @@
       <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="189" t="s">
+      <c r="Y21" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="189">
+      <c r="Z21" s="95">
         <v>3</v>
       </c>
-      <c r="AA21" s="189">
+      <c r="AA21" s="95">
         <v>2</v>
       </c>
-      <c r="AB21" s="189">
+      <c r="AB21" s="95">
         <f>Z21-AA21</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="189"/>
-      <c r="AD21" s="189"/>
-      <c r="AE21" s="189">
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="198"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3579,8 +3579,8 @@
         <f t="array" ref="K22">_xlfn.IFS(J22=46,"O",J22&lt;46,"LOW",J22&gt;46,"HIGH")</f>
         <v>LOW</v>
       </c>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3596,13 +3596,13 @@
         <f t="array" ref="V22">_xlfn.IFS(U22&gt;15,"O",U22=15,"O",U22&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
-      <c r="AA22" s="190"/>
-      <c r="AB22" s="190"/>
-      <c r="AC22" s="190"/>
-      <c r="AD22" s="190"/>
-      <c r="AE22" s="190"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
     </row>
     <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
@@ -3625,24 +3625,24 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="Y23" s="189" t="s">
+      <c r="Y23" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="Z23" s="189">
+      <c r="Z23" s="95">
         <v>4</v>
       </c>
-      <c r="AA23" s="189">
+      <c r="AA23" s="95">
         <v>3</v>
       </c>
-      <c r="AB23" s="189">
+      <c r="AB23" s="95">
         <f>Z23-AA23</f>
         <v>1</v>
       </c>
-      <c r="AC23" s="189"/>
-      <c r="AD23" s="189">
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95">
         <v>3</v>
       </c>
-      <c r="AE23" s="189">
+      <c r="AE23" s="95">
         <v>0</v>
       </c>
     </row>
@@ -3667,20 +3667,20 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
     </row>
     <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="194">
+      <c r="A25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="B25" s="195"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,17 +3702,17 @@
       <c r="I25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="192" t="s">
+      <c r="J25" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="193" t="s">
+      <c r="K25" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="194">
+      <c r="L25" s="57">
         <f>A1</f>
         <v>45424</v>
       </c>
-      <c r="M25" s="195"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="3" t="s">
         <v>1</v>
       </c>
@@ -3734,30 +3734,30 @@
       <c r="T25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U25" s="196" t="s">
+      <c r="U25" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="V25" s="197" t="s">
+      <c r="V25" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="Y25" s="189" t="s">
+      <c r="Y25" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="Z25" s="189">
+      <c r="Z25" s="95">
         <v>3</v>
       </c>
-      <c r="AA25" s="189">
+      <c r="AA25" s="95">
         <v>2</v>
       </c>
-      <c r="AB25" s="189">
+      <c r="AB25" s="95">
         <f>Z25-AA25</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189">
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95">
         <v>4</v>
       </c>
-      <c r="AE25" s="189">
+      <c r="AE25" s="95">
         <v>0</v>
       </c>
     </row>
@@ -3797,8 +3797,8 @@
         <f>C26+6</f>
         <v>45430</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="193"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="97"/>
       <c r="L26" s="13">
         <f>WEEKNUM(L25,1)</f>
         <v>20</v>
@@ -3834,21 +3834,21 @@
         <f>N26+6</f>
         <v>45430</v>
       </c>
-      <c r="U26" s="196"/>
-      <c r="V26" s="197"/>
-      <c r="Y26" s="190"/>
-      <c r="Z26" s="190"/>
-      <c r="AA26" s="190"/>
-      <c r="AB26" s="190"/>
-      <c r="AC26" s="190"/>
-      <c r="AD26" s="190"/>
-      <c r="AE26" s="190"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="60"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
     </row>
     <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -3862,10 +3862,10 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="184" t="s">
+      <c r="L27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="191"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="32" t="s">
         <v>41</v>
       </c>
@@ -3881,30 +3881,30 @@
       <c r="T27" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Y27" s="189" t="s">
+      <c r="Y27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="189">
+      <c r="Z27" s="95">
         <v>4</v>
       </c>
-      <c r="AA27" s="189">
+      <c r="AA27" s="95">
         <v>3</v>
       </c>
-      <c r="AB27" s="189">
+      <c r="AB27" s="95">
         <f>Z27-AA27</f>
         <v>1</v>
       </c>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189">
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95">
         <v>1</v>
       </c>
-      <c r="AE27" s="189">
+      <c r="AE27" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
-      <c r="B28" s="184"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3922,8 +3922,8 @@
         <f t="array" ref="K28">_xlfn.IFS(J28&gt;15,"O",J28=15,"O",J28&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L28" s="184"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="41">
         <v>7.5</v>
       </c>
@@ -3945,19 +3945,19 @@
         <f t="array" ref="V28">_xlfn.IFS(U28&gt;15,"O",U28=15,"O",U28&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
     </row>
     <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="52" t="s">
         <v>103</v>
       </c>
@@ -3973,10 +3973,10 @@
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="184" t="s">
+      <c r="L29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="191"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3987,30 +3987,30 @@
         <v>38</v>
       </c>
       <c r="U29" s="6"/>
-      <c r="Y29" s="189" t="s">
+      <c r="Y29" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="189">
+      <c r="Z29" s="95">
         <v>3</v>
       </c>
-      <c r="AA29" s="189">
+      <c r="AA29" s="95">
         <v>2</v>
       </c>
-      <c r="AB29" s="189">
+      <c r="AB29" s="95">
         <f>Z29-AA29</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="189"/>
-      <c r="AD29" s="189">
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95">
         <v>2</v>
       </c>
-      <c r="AE29" s="189">
+      <c r="AE29" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
-      <c r="B30" s="184"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="30">
         <v>8</v>
       </c>
@@ -4030,8 +4030,8 @@
         <f t="array" ref="K30">_xlfn.IFS(J30&gt;15,"O",J30=15,"O",J30&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L30" s="184"/>
-      <c r="M30" s="191"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
@@ -4047,19 +4047,19 @@
         <f t="array" ref="V30">_xlfn.IFS(U30&gt;15,"O",U30=15,"O",U30&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
-      <c r="AC30" s="190"/>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
     </row>
     <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="184"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="185" t="s">
+      <c r="L31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="186"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="39" t="s">
         <v>94</v>
       </c>
@@ -4093,30 +4093,30 @@
         <v>38</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="Y31" s="189" t="s">
+      <c r="Y31" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Z31" s="189">
+      <c r="Z31" s="95">
         <v>4</v>
       </c>
-      <c r="AA31" s="189">
+      <c r="AA31" s="95">
         <v>3</v>
       </c>
-      <c r="AB31" s="189">
+      <c r="AB31" s="95">
         <f>Z31-AA31</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="189"/>
-      <c r="AD31" s="189">
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95">
         <v>3</v>
       </c>
-      <c r="AE31" s="189">
+      <c r="AE31" s="95">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
-      <c r="B32" s="184"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
@@ -4134,8 +4134,8 @@
         <f t="array" ref="K32">_xlfn.IFS(J32&gt;15,"O",J32=15,"O",J32&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L32" s="187"/>
-      <c r="M32" s="188"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="40">
         <v>6.5</v>
       </c>
@@ -4157,19 +4157,19 @@
         <f t="array" ref="V32">_xlfn.IFS(U32&gt;15,"O",U32=15,"O",U32&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="190"/>
-      <c r="AB32" s="190"/>
-      <c r="AC32" s="190"/>
-      <c r="AD32" s="190"/>
-      <c r="AE32" s="190"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
+      <c r="AC32" s="96"/>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
     </row>
     <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="184"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32" t="s">
         <v>36</v>
@@ -4183,10 +4183,10 @@
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="185" t="s">
+      <c r="L33" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="186"/>
+      <c r="M33" s="76"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
@@ -4205,8 +4205,8 @@
       <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
-      <c r="B34" s="184"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="36"/>
       <c r="D34" s="41">
         <v>4</v>
@@ -4224,8 +4224,8 @@
         <f t="array" ref="K34">_xlfn.IFS(J34&gt;15,"O",J34=15,"O",J34&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="188"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="78"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="36"/>
@@ -4249,10 +4249,10 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="184"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -4264,10 +4264,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="184" t="s">
+      <c r="L35" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="184"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="32" t="s">
@@ -4286,8 +4286,8 @@
       <c r="U35" s="6"/>
     </row>
     <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
-      <c r="B36" s="184"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -4303,8 +4303,8 @@
         <f t="array" ref="K36">_xlfn.IFS(J36&gt;15,"O",J36=15,"O",J36&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="41">
@@ -4328,10 +4328,10 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="47" t="s">
         <v>86</v>
       </c>
@@ -4353,10 +4353,10 @@
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="185" t="s">
+      <c r="L37" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="186"/>
+      <c r="M37" s="76"/>
       <c r="N37" s="32" t="s">
         <v>37</v>
       </c>
@@ -4375,8 +4375,8 @@
       <c r="U37" s="6"/>
     </row>
     <row r="38" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="40">
         <v>8</v>
       </c>
@@ -4402,8 +4402,8 @@
         <f t="array" ref="K38">_xlfn.IFS(J38&gt;15,"O",J38=15,"O",J38&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="188"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="78"/>
       <c r="N38" s="41">
         <v>6</v>
       </c>
@@ -4427,10 +4427,10 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+      <c r="A39" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="184"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32" t="s">
         <v>37</v>
@@ -4450,8 +4450,8 @@
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="185"/>
-      <c r="M39" s="186"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="42"/>
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
@@ -4462,8 +4462,8 @@
       <c r="U39" s="6"/>
     </row>
     <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="36"/>
       <c r="D40" s="41">
         <v>6</v>
@@ -4487,8 +4487,8 @@
         <f t="array" ref="K40">_xlfn.IFS(J40&gt;15,"O",J40=15,"O",J40&lt;15,"X")</f>
         <v>O</v>
       </c>
-      <c r="L40" s="187"/>
-      <c r="M40" s="188"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
@@ -4506,14 +4506,14 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
     </row>
     <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="J42" s="25">
         <f>SUM(C42:I42)</f>
         <v>0</v>
@@ -4522,8 +4522,8 @@
         <f t="array" ref="K42">_xlfn.IFS(J42&gt;15,"O",J42=15,"O",J42&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="U42" s="25">
         <f>SUM(N42:T42)</f>
         <v>0</v>
@@ -4534,8 +4534,8 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -4545,14 +4545,14 @@
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
@@ -4568,8 +4568,8 @@
         <f t="array" ref="K44">_xlfn.IFS(J44&gt;15,"O",J44=15,"O",J44&lt;15,"X")</f>
         <v>X</v>
       </c>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
       <c r="U44" s="25">
         <f>SUM(N44:T44)</f>
         <v>0</v>
@@ -4580,8 +4580,8 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -4589,12 +4589,12 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
     </row>
     <row r="46" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -4602,20 +4602,20 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
     </row>
     <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
     </row>
     <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
       <c r="U48" s="29"/>
@@ -4634,37 +4634,37 @@
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="183" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="178" t="s">
+      <c r="D49" s="99"/>
+      <c r="E49" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178" t="s">
+      <c r="F49" s="100"/>
+      <c r="G49" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178" t="s">
+      <c r="H49" s="100"/>
+      <c r="I49" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178" t="s">
+      <c r="J49" s="100"/>
+      <c r="K49" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="178" t="s">
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="178"/>
-      <c r="P49" s="179" t="s">
+      <c r="O49" s="100"/>
+      <c r="P49" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="179"/>
+      <c r="Q49" s="101"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4684,44 +4684,44 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="180">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="102">
         <f>C2</f>
         <v>45424</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181">
+      <c r="D50" s="102"/>
+      <c r="E50" s="103">
         <f>C50+1</f>
         <v>45425</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181">
+      <c r="F50" s="103"/>
+      <c r="G50" s="103">
         <f>C50+2</f>
         <v>45426</v>
       </c>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181">
+      <c r="H50" s="103"/>
+      <c r="I50" s="103">
         <f>C50+3</f>
         <v>45427</v>
       </c>
-      <c r="J50" s="181"/>
-      <c r="K50" s="181">
+      <c r="J50" s="103"/>
+      <c r="K50" s="103">
         <f>C50+4</f>
         <v>45428</v>
       </c>
-      <c r="L50" s="181"/>
-      <c r="M50" s="181"/>
-      <c r="N50" s="181">
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103">
         <f>C50+5</f>
         <v>45429</v>
       </c>
-      <c r="O50" s="181"/>
-      <c r="P50" s="182">
+      <c r="O50" s="103"/>
+      <c r="P50" s="104">
         <f>C50+6</f>
         <v>45430</v>
       </c>
-      <c r="Q50" s="182"/>
+      <c r="Q50" s="104"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -4741,46 +4741,46 @@
       <c r="AI50" s="27"/>
     </row>
     <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="177"/>
-      <c r="C51" s="176">
+      <c r="B51" s="106"/>
+      <c r="C51" s="105">
         <f>SUM(C8,C10,C12,C14,C16,C18,C20,C22,C28,C30,C32,C34,C36,C38,C40,N4,N6,N8,N10,N12,N14,N16,N18,N28,N30,N32,N34,N36,N38,N40,C42,C44,N42,N44,N20,N22,Y16)</f>
         <v>77.037499999999994</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176">
+      <c r="D51" s="105"/>
+      <c r="E51" s="105">
         <f>SUM(D8,D9,D12,D14,D16,D18,D20,D22,D28,D30,D32,D34,D36,D38,D40,D42,D44,O4,O6,O8,O10,O12,O14,O16,O18,O20,O22,O28,O30,O32,O34,O36,O38,O40,O42,O44,Z16)</f>
         <v>69.537499999999994</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176">
+      <c r="F51" s="105"/>
+      <c r="G51" s="105">
         <f>SUM(E8,E10,E12,E14,E16,E18,E20,E22,E28,E30,E32,E34,E36,E44,E38,E40,E42,P4,P6,P8,P10,P12,P14,P16,P18,P20,P22,P28,P30,P32,P34,P36,P38,P40,P42,P44,AA16)</f>
         <v>68.037499999999994</v>
       </c>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176">
+      <c r="H51" s="105"/>
+      <c r="I51" s="105">
         <f>SUM(F8,F10,F12,F14,F16,F18,F20,F22,F28,F30,F32,F34,F36,F38,F40,F42,F44,Q4,Q6,Q8,Q10,Q12,Q14,Q16,Q18,Q20,Q22,Q28,Q30,Q32,Q34,Q36,Q38,Q40,Q42,Q44,AB16)</f>
         <v>80.537499999999994</v>
       </c>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176">
+      <c r="J51" s="105"/>
+      <c r="K51" s="105">
         <f>SUM(G8,G10,G12,G14,G16,G18,G20,G22,G28,G30,G32,G34,G36,G38,G40,G42,G44,R4,R6,R8,R10,R12,R14,R16,R18,R20,R22,R28,R30,R32,R34,R36,R38,R40,R42,R44,AC16)</f>
         <v>77.245000000000005</v>
       </c>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176">
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105">
         <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H28,H30,H32,H34,H36,H38,H40,H42,H44,S4,S6,S8,S10,S12,S14,S16,S18,S20,S22,S28,S30,S32,S34,S36,S38,S40,S42,S44,AD16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="O51" s="176"/>
-      <c r="P51" s="176">
+      <c r="O51" s="105"/>
+      <c r="P51" s="105">
         <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I28,I30,I32,I34,I36,I38,I40,I42,I44,T4,T6,T8,T10,T12,T14,T16,T18,T20,T22,T28,T30,T32,T34,T36,T38,T40,T42,T44,AE16)</f>
         <v>87.745000000000005</v>
       </c>
-      <c r="Q51" s="176"/>
+      <c r="Q51" s="105"/>
       <c r="S51" s="49"/>
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
@@ -4800,23 +4800,23 @@
       <c r="AI51" s="27"/>
     </row>
     <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="177"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
-      <c r="N52" s="176"/>
-      <c r="O52" s="176"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
       <c r="S52" s="49"/>
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
@@ -4836,23 +4836,23 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="176"/>
-      <c r="M53" s="176"/>
-      <c r="N53" s="176"/>
-      <c r="O53" s="176"/>
-      <c r="P53" s="176"/>
-      <c r="Q53" s="176"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
       <c r="S53" s="49"/>
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
@@ -4872,39 +4872,39 @@
       <c r="AI53"/>
     </row>
     <row r="54" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="177" t="s">
+      <c r="A54" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="169">
+      <c r="B54" s="106"/>
+      <c r="C54" s="107">
         <v>1095960</v>
       </c>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169">
+      <c r="D54" s="107"/>
+      <c r="E54" s="107">
         <v>870450</v>
       </c>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169">
+      <c r="F54" s="107"/>
+      <c r="G54" s="107">
         <v>1020450</v>
       </c>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169">
+      <c r="H54" s="107"/>
+      <c r="I54" s="107">
         <v>1026450</v>
       </c>
-      <c r="J54" s="169"/>
-      <c r="K54" s="175">
+      <c r="J54" s="107"/>
+      <c r="K54" s="108">
         <v>1032450</v>
       </c>
-      <c r="L54" s="175"/>
-      <c r="M54" s="175"/>
-      <c r="N54" s="169">
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="107">
         <v>1056450</v>
       </c>
-      <c r="O54" s="169"/>
-      <c r="P54" s="169">
+      <c r="O54" s="107"/>
+      <c r="P54" s="107">
         <v>960450</v>
       </c>
-      <c r="Q54" s="169"/>
+      <c r="Q54" s="107"/>
       <c r="S54" s="49"/>
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
@@ -4924,23 +4924,23 @@
       <c r="AI54"/>
     </row>
     <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
@@ -4960,51 +4960,51 @@
       <c r="AI55"/>
     </row>
     <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="168" t="s">
+      <c r="A56" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169">
+      <c r="B56" s="114"/>
+      <c r="C56" s="107">
         <f>C51*14451</f>
         <v>1113268.9124999999</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169">
+      <c r="D56" s="107"/>
+      <c r="E56" s="107">
         <f>E51*14451</f>
         <v>1004886.4124999999</v>
       </c>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169">
+      <c r="F56" s="107"/>
+      <c r="G56" s="107">
         <f>G51*14451</f>
         <v>983209.91249999986</v>
       </c>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169">
+      <c r="H56" s="107"/>
+      <c r="I56" s="107">
         <f>I51*14451</f>
         <v>1163847.4124999999</v>
       </c>
-      <c r="J56" s="169"/>
-      <c r="K56" s="175">
+      <c r="J56" s="107"/>
+      <c r="K56" s="108">
         <v>1163847.4124999999</v>
       </c>
-      <c r="L56" s="175"/>
-      <c r="M56" s="175"/>
-      <c r="N56" s="169">
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="107">
         <f>N51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="O56" s="169"/>
-      <c r="P56" s="169">
+      <c r="O56" s="107"/>
+      <c r="P56" s="107">
         <f>P51*14451</f>
         <v>1268002.9950000001</v>
       </c>
-      <c r="Q56" s="169"/>
-      <c r="R56" s="170">
+      <c r="Q56" s="107"/>
+      <c r="R56" s="109">
         <f>SUM(C56:Q57)</f>
         <v>7965066.0524999993</v>
       </c>
-      <c r="S56" s="171"/>
-      <c r="T56" s="172" t="s">
+      <c r="S56" s="110"/>
+      <c r="T56" s="111" t="s">
         <v>104</v>
       </c>
       <c r="U56" s="50"/>
@@ -5024,26 +5024,26 @@
       <c r="AI56"/>
     </row>
     <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="168"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="169"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="169"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-      <c r="M57" s="175"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="169"/>
-      <c r="Q57" s="169"/>
-      <c r="R57" s="171"/>
-      <c r="S57" s="171"/>
-      <c r="T57" s="172"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
+      <c r="T57" s="111"/>
       <c r="U57" s="50"/>
       <c r="V57" s="50"/>
       <c r="W57" s="50"/>
@@ -5061,76 +5061,76 @@
       <c r="AI57"/>
     </row>
     <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="174">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113">
         <f>C56/C54-100%</f>
         <v>1.5793379776634087E-2</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113">
         <f>E56/E54-100%</f>
         <v>0.15444472686541433</v>
       </c>
-      <c r="F58" s="174"/>
-      <c r="G58" s="174">
+      <c r="F58" s="113"/>
+      <c r="G58" s="113">
         <f>G56/G54-100%</f>
         <v>-3.6493789504630447E-2</v>
       </c>
-      <c r="H58" s="174"/>
-      <c r="I58" s="174">
+      <c r="H58" s="113"/>
+      <c r="I58" s="113">
         <f>I56/I54-100%</f>
         <v>0.13385689755954977</v>
       </c>
-      <c r="J58" s="174"/>
-      <c r="K58" s="174">
+      <c r="J58" s="113"/>
+      <c r="K58" s="113">
         <f>K56/K54-100%</f>
         <v>0.12726757954380341</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="174"/>
-      <c r="N58" s="174">
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113">
         <f>N56/N54-100%</f>
         <v>0.20024894221212564</v>
       </c>
-      <c r="O58" s="174"/>
-      <c r="P58" s="174">
+      <c r="O58" s="113"/>
+      <c r="P58" s="113">
         <f>P56/P54-100%</f>
         <v>0.32021760112447306</v>
       </c>
-      <c r="Q58" s="174"/>
-      <c r="R58" s="174">
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113">
         <f>AVERAGE(C58:Q59)</f>
         <v>0.13076219108248141</v>
       </c>
-      <c r="S58" s="174"/>
-      <c r="T58" s="172" t="s">
+      <c r="S58" s="113"/>
+      <c r="T58" s="111" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
-      <c r="G59" s="174"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="174"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="174"/>
-      <c r="L59" s="174"/>
-      <c r="M59" s="174"/>
-      <c r="N59" s="174"/>
-      <c r="O59" s="174"/>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="174"/>
-      <c r="R59" s="174"/>
-      <c r="S59" s="174"/>
-      <c r="T59" s="172"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="111"/>
       <c r="U59" s="50"/>
       <c r="V59" s="50"/>
       <c r="W59" s="50"/>
@@ -5148,39 +5148,39 @@
       <c r="AI59"/>
     </row>
     <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="168" t="s">
+      <c r="A60" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169">
+      <c r="B60" s="114"/>
+      <c r="C60" s="107">
         <v>5616890</v>
       </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169">
+      <c r="D60" s="107"/>
+      <c r="E60" s="107">
         <v>2704420</v>
       </c>
-      <c r="F60" s="169"/>
-      <c r="G60" s="169">
+      <c r="F60" s="107"/>
+      <c r="G60" s="107">
         <v>3785170</v>
       </c>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169">
+      <c r="H60" s="107"/>
+      <c r="I60" s="107">
         <v>4748100</v>
       </c>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169">
+      <c r="J60" s="107"/>
+      <c r="K60" s="107">
         <v>4277980</v>
       </c>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169">
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107">
         <v>5076670</v>
       </c>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169">
+      <c r="O60" s="107"/>
+      <c r="P60" s="107">
         <v>6000340</v>
       </c>
-      <c r="Q60" s="169"/>
+      <c r="Q60" s="107"/>
       <c r="S60" s="49"/>
       <c r="T60" s="50"/>
       <c r="U60" s="50"/>
@@ -5200,23 +5200,23 @@
       <c r="AI60"/>
     </row>
     <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
-      <c r="M61" s="169"/>
-      <c r="N61" s="169"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="169"/>
-      <c r="Q61" s="169"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
       <c r="S61" s="49"/>
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
@@ -5236,39 +5236,39 @@
       <c r="AI61"/>
     </row>
     <row r="62" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="168" t="s">
+      <c r="A62" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169">
+      <c r="B62" s="114"/>
+      <c r="C62" s="107">
         <v>8170510</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169">
+      <c r="D62" s="107"/>
+      <c r="E62" s="107">
         <v>4484960</v>
       </c>
-      <c r="F62" s="169"/>
-      <c r="G62" s="169">
+      <c r="F62" s="107"/>
+      <c r="G62" s="107">
         <v>2086960</v>
       </c>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169">
+      <c r="H62" s="107"/>
+      <c r="I62" s="107">
         <v>2634530</v>
       </c>
-      <c r="J62" s="169"/>
-      <c r="K62" s="169">
+      <c r="J62" s="107"/>
+      <c r="K62" s="107">
         <v>4909830</v>
       </c>
-      <c r="L62" s="169"/>
-      <c r="M62" s="169"/>
-      <c r="N62" s="169">
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107">
         <v>6227730</v>
       </c>
-      <c r="O62" s="169"/>
-      <c r="P62" s="169">
+      <c r="O62" s="107"/>
+      <c r="P62" s="107">
         <v>5253860</v>
       </c>
-      <c r="Q62" s="169"/>
+      <c r="Q62" s="107"/>
       <c r="S62" s="49"/>
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
@@ -5288,23 +5288,23 @@
       <c r="AI62"/>
     </row>
     <row r="63" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="168"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="169"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="169"/>
-      <c r="M63" s="169"/>
-      <c r="N63" s="169"/>
-      <c r="O63" s="169"/>
-      <c r="P63" s="169"/>
-      <c r="Q63" s="169"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
       <c r="S63" s="49"/>
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
@@ -5319,45 +5319,45 @@
       <c r="AD63"/>
     </row>
     <row r="64" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="143">
+      <c r="B64" s="114"/>
+      <c r="C64" s="115">
         <f>C62/C60-100%</f>
         <v>0.45463236773374582</v>
       </c>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143">
+      <c r="D64" s="115"/>
+      <c r="E64" s="115">
         <f>E62/E60-100%</f>
         <v>0.65838146441750922</v>
       </c>
-      <c r="F64" s="143"/>
-      <c r="G64" s="143">
+      <c r="F64" s="115"/>
+      <c r="G64" s="115">
         <f>G62/G60-100%</f>
         <v>-0.44864827735610291</v>
       </c>
-      <c r="H64" s="143"/>
-      <c r="I64" s="143">
+      <c r="H64" s="115"/>
+      <c r="I64" s="115">
         <f>I62/I60-100%</f>
         <v>-0.44514016132768897</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143">
+      <c r="J64" s="115"/>
+      <c r="K64" s="115">
         <v>-3.4771556266833259E-2</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143">
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115">
         <f>N62/N60-100%</f>
         <v>0.22673524180220506</v>
       </c>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143">
+      <c r="O64" s="115"/>
+      <c r="P64" s="115">
         <f>P62/P60-100%</f>
         <v>-0.12440628364392681</v>
       </c>
-      <c r="Q64" s="143"/>
+      <c r="Q64" s="115"/>
       <c r="S64" s="49"/>
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
@@ -5372,23 +5372,23 @@
       <c r="AD64"/>
     </row>
     <row r="65" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="168"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="143"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="143"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
       <c r="S65" s="49"/>
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
@@ -5433,34 +5433,34 @@
       <c r="AD66"/>
     </row>
     <row r="67" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="145"/>
-      <c r="C67" s="148">
+      <c r="B67" s="117"/>
+      <c r="C67" s="120">
         <f>AVERAGE(C64:Q65)</f>
         <v>4.0968970765558312E-2</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="152" t="s">
+      <c r="D67" s="121"/>
+      <c r="E67" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="153"/>
-      <c r="G67" s="156">
+      <c r="F67" s="125"/>
+      <c r="G67" s="128">
         <f>AVERAGE(K64:Q65)</f>
         <v>2.2519133963814997E-2</v>
       </c>
-      <c r="H67" s="157"/>
-      <c r="I67" s="160" t="s">
+      <c r="H67" s="129"/>
+      <c r="I67" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="161"/>
-      <c r="K67" s="164">
+      <c r="J67" s="133"/>
+      <c r="K67" s="136">
         <f>AVERAGE(C67,G67)</f>
         <v>3.1744052364686651E-2</v>
       </c>
-      <c r="L67" s="164"/>
-      <c r="M67" s="165"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="137"/>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
@@ -5480,19 +5480,19 @@
       <c r="AD67"/>
     </row>
     <row r="68" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
-      <c r="B68" s="147"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="162"/>
-      <c r="J68" s="163"/>
-      <c r="K68" s="166"/>
-      <c r="L68" s="166"/>
-      <c r="M68" s="167"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="139"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
@@ -5507,46 +5507,46 @@
       <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="133" t="s">
+      <c r="A69" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="134"/>
-      <c r="C69" s="137">
+      <c r="B69" s="161"/>
+      <c r="C69" s="164">
         <f>C62+C62*C67</f>
         <v>8505247.385329701</v>
       </c>
-      <c r="D69" s="138"/>
-      <c r="E69" s="141">
+      <c r="D69" s="165"/>
+      <c r="E69" s="168">
         <f>E62+E62*C67</f>
         <v>4668704.1951246988</v>
       </c>
-      <c r="F69" s="142"/>
-      <c r="G69" s="141">
+      <c r="F69" s="169"/>
+      <c r="G69" s="168">
         <f>G62+G62*C67</f>
         <v>2172460.6032288894</v>
       </c>
-      <c r="H69" s="142"/>
-      <c r="I69" s="141">
+      <c r="H69" s="169"/>
+      <c r="I69" s="168">
         <f>I62+I62*C67</f>
         <v>2742463.9825509861</v>
       </c>
-      <c r="J69" s="142"/>
-      <c r="K69" s="116">
+      <c r="J69" s="169"/>
+      <c r="K69" s="140">
         <f>K62+K62*C67</f>
         <v>5110980.6817338616</v>
       </c>
-      <c r="L69" s="120"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="116">
+      <c r="L69" s="144"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="140">
         <f>N62+N62*C67</f>
         <v>6482873.6883057905</v>
       </c>
-      <c r="O69" s="117"/>
-      <c r="P69" s="120">
+      <c r="O69" s="141"/>
+      <c r="P69" s="144">
         <f>P62+P62*C67</f>
         <v>5469105.2367463363</v>
       </c>
-      <c r="Q69" s="121"/>
+      <c r="Q69" s="145"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -5555,23 +5555,23 @@
       <c r="Z69"/>
     </row>
     <row r="70" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="135"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="118"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="123"/>
+      <c r="A70" s="162"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="142"/>
+      <c r="L70" s="146"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="142"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="147"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -5580,46 +5580,46 @@
       <c r="Z70"/>
     </row>
     <row r="71" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="125">
+      <c r="B71" s="149"/>
+      <c r="C71" s="152">
         <f>C62+C62*G67</f>
         <v>8354502.80924269</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="125">
+      <c r="D71" s="153"/>
+      <c r="E71" s="152">
         <f>E62+E62*G67</f>
         <v>4585957.4150623521</v>
       </c>
-      <c r="F71" s="126"/>
-      <c r="G71" s="125">
+      <c r="F71" s="153"/>
+      <c r="G71" s="152">
         <f>G62+G62*G67</f>
         <v>2133956.5318171233</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="125">
+      <c r="H71" s="153"/>
+      <c r="I71" s="152">
         <f>I62+I62*G67</f>
         <v>2693857.3340016897</v>
       </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="125">
+      <c r="J71" s="153"/>
+      <c r="K71" s="152">
         <f>K62+K62*G67</f>
         <v>5020395.1195095582</v>
       </c>
-      <c r="L71" s="129"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="125">
+      <c r="L71" s="156"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="152">
         <f>N62+N62*G67</f>
         <v>6367973.0861604698</v>
       </c>
-      <c r="O71" s="126"/>
-      <c r="P71" s="129">
+      <c r="O71" s="153"/>
+      <c r="P71" s="156">
         <f>P62+P62*G67</f>
         <v>5372172.377167129</v>
       </c>
-      <c r="Q71" s="131"/>
+      <c r="Q71" s="158"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -5628,23 +5628,23 @@
       <c r="Z71"/>
     </row>
     <row r="72" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="127"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="132"/>
+      <c r="A72" s="150"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="157"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="155"/>
+      <c r="P72" s="157"/>
+      <c r="Q72" s="159"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -5653,50 +5653,50 @@
       <c r="Z72"/>
     </row>
     <row r="73" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="90">
+      <c r="B73" s="190"/>
+      <c r="C73" s="170">
         <f>C62+C62*K67</f>
         <v>8429875.0972861964</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="90">
+      <c r="D73" s="171"/>
+      <c r="E73" s="170">
         <f>E62+E62*K67</f>
         <v>4627330.805093525</v>
       </c>
-      <c r="F73" s="110"/>
-      <c r="G73" s="90">
+      <c r="F73" s="193"/>
+      <c r="G73" s="170">
         <f>G62+G62*K67</f>
         <v>2153208.5675230063</v>
       </c>
-      <c r="H73" s="91"/>
-      <c r="I73" s="90">
+      <c r="H73" s="171"/>
+      <c r="I73" s="170">
         <f>I62+I62*K67</f>
         <v>2718160.6582763381</v>
       </c>
-      <c r="J73" s="91"/>
-      <c r="K73" s="90">
+      <c r="J73" s="171"/>
+      <c r="K73" s="170">
         <f>K62+K62*K67</f>
         <v>5065687.9006217094</v>
       </c>
-      <c r="L73" s="94"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="90">
+      <c r="L73" s="174"/>
+      <c r="M73" s="171"/>
+      <c r="N73" s="170">
         <f>N62+N62*K67</f>
         <v>6425423.3872331297</v>
       </c>
-      <c r="O73" s="91"/>
-      <c r="P73" s="94">
+      <c r="O73" s="171"/>
+      <c r="P73" s="174">
         <f>P62+P62*K67</f>
         <v>5420638.8069567326</v>
       </c>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="98" t="s">
+      <c r="Q73" s="175"/>
+      <c r="R73" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="S73" s="98"/>
+      <c r="S73" s="178"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -5705,25 +5705,25 @@
       <c r="Z73"/>
     </row>
     <row r="74" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="112"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
+      <c r="A74" s="191"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="194"/>
+      <c r="F74" s="195"/>
+      <c r="G74" s="172"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
+      <c r="K74" s="172"/>
+      <c r="L74" s="176"/>
+      <c r="M74" s="173"/>
+      <c r="N74" s="172"/>
+      <c r="O74" s="173"/>
+      <c r="P74" s="176"/>
+      <c r="Q74" s="177"/>
+      <c r="R74" s="178"/>
+      <c r="S74" s="178"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -5732,51 +5732,51 @@
       <c r="Z74"/>
     </row>
     <row r="75" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="103">
+      <c r="B75" s="180"/>
+      <c r="C75" s="183">
         <f>C56/C69</f>
         <v>0.13089200843472523</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="103">
+      <c r="D75" s="184"/>
+      <c r="E75" s="183">
         <f>E56/E69</f>
         <v>0.21523882655691787</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="103">
+      <c r="F75" s="184"/>
+      <c r="G75" s="183">
         <f>G56/G69</f>
         <v>0.45257893792811366</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="103">
+      <c r="H75" s="184"/>
+      <c r="I75" s="183">
         <f>I56/I69</f>
         <v>0.4243801996689896</v>
       </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="103">
+      <c r="J75" s="184"/>
+      <c r="K75" s="183">
         <f>K56/K69</f>
         <v>0.2277150873724636</v>
       </c>
-      <c r="L75" s="107"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="103">
+      <c r="L75" s="187"/>
+      <c r="M75" s="184"/>
+      <c r="N75" s="183">
         <f>N56/N69</f>
         <v>0.19559273494519916</v>
       </c>
-      <c r="O75" s="104"/>
-      <c r="P75" s="107">
+      <c r="O75" s="184"/>
+      <c r="P75" s="187">
         <f>P56/P69</f>
         <v>0.23184834449343247</v>
       </c>
-      <c r="Q75" s="113"/>
-      <c r="R75" s="115">
+      <c r="Q75" s="196"/>
+      <c r="R75" s="198">
         <f>AVERAGE(C75:Q76)</f>
         <v>0.26832087705712021</v>
       </c>
-      <c r="S75" s="115"/>
+      <c r="S75" s="198"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -5785,25 +5785,25 @@
       <c r="Z75"/>
     </row>
     <row r="76" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="115"/>
-      <c r="S76" s="115"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="182"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="186"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="186"/>
+      <c r="K76" s="185"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="186"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="186"/>
+      <c r="P76" s="188"/>
+      <c r="Q76" s="197"/>
+      <c r="R76" s="198"/>
+      <c r="S76" s="198"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -5812,51 +5812,51 @@
       <c r="Z76"/>
     </row>
     <row r="77" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="81">
+      <c r="B77" s="149"/>
+      <c r="C77" s="200">
         <f>C56/C71</f>
         <v>0.13325376002846953</v>
       </c>
-      <c r="D77" s="82"/>
-      <c r="E77" s="81">
+      <c r="D77" s="201"/>
+      <c r="E77" s="200">
         <f>E56/E71</f>
         <v>0.21912249101997758</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="81">
+      <c r="F77" s="201"/>
+      <c r="G77" s="200">
         <f>G56/G71</f>
         <v>0.46074505166362001</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="81">
+      <c r="H77" s="201"/>
+      <c r="I77" s="200">
         <f>I56/I71</f>
         <v>0.43203750911750022</v>
       </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="81">
+      <c r="J77" s="201"/>
+      <c r="K77" s="200">
         <f>K56/K71</f>
         <v>0.23182386740382618</v>
       </c>
-      <c r="L77" s="85"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="81">
+      <c r="L77" s="204"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="200">
         <f>N56/N71</f>
         <v>0.19912191490817602</v>
       </c>
-      <c r="O77" s="82"/>
-      <c r="P77" s="85">
+      <c r="O77" s="201"/>
+      <c r="P77" s="204">
         <f>P56/P71</f>
         <v>0.23603170300143039</v>
       </c>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="89">
+      <c r="Q77" s="206"/>
+      <c r="R77" s="208">
         <f>AVERAGE(C77:Q78)</f>
         <v>0.27316232816328567</v>
       </c>
-      <c r="S77" s="89"/>
+      <c r="S77" s="208"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -5865,25 +5865,25 @@
       <c r="Z77"/>
     </row>
     <row r="78" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="86"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="86"/>
-      <c r="Q78" s="88"/>
-      <c r="R78" s="89"/>
-      <c r="S78" s="89"/>
+      <c r="A78" s="150"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="203"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="203"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="202"/>
+      <c r="J78" s="203"/>
+      <c r="K78" s="202"/>
+      <c r="L78" s="205"/>
+      <c r="M78" s="203"/>
+      <c r="N78" s="202"/>
+      <c r="O78" s="203"/>
+      <c r="P78" s="205"/>
+      <c r="Q78" s="207"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -5892,51 +5892,51 @@
       <c r="Z78"/>
     </row>
     <row r="79" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="68">
+      <c r="B79" s="190"/>
+      <c r="C79" s="210">
         <f>C56/C73</f>
         <v>0.13206232591256198</v>
       </c>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68">
+      <c r="D79" s="211"/>
+      <c r="E79" s="210">
         <f>E56/E73</f>
         <v>0.21716329668798981</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="68">
+      <c r="F79" s="211"/>
+      <c r="G79" s="210">
         <f>G56/G73</f>
         <v>0.4566254878091342</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="68">
+      <c r="H79" s="211"/>
+      <c r="I79" s="210">
         <f>I56/I73</f>
         <v>0.42817462203945961</v>
       </c>
-      <c r="J79" s="69"/>
-      <c r="K79" s="68">
+      <c r="J79" s="211"/>
+      <c r="K79" s="210">
         <f>K56/K73</f>
         <v>0.22975110889819356</v>
       </c>
-      <c r="L79" s="72"/>
-      <c r="M79" s="69"/>
-      <c r="N79" s="68">
+      <c r="L79" s="214"/>
+      <c r="M79" s="211"/>
+      <c r="N79" s="210">
         <f>N56/N73</f>
         <v>0.19734154756547778</v>
       </c>
-      <c r="O79" s="69"/>
-      <c r="P79" s="72">
+      <c r="O79" s="211"/>
+      <c r="P79" s="214">
         <f>P56/P73</f>
         <v>0.233921321850973</v>
       </c>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="76">
+      <c r="Q79" s="216"/>
+      <c r="R79" s="218">
         <f>AVERAGE(C79:Q80)</f>
         <v>0.27071995868054144</v>
       </c>
-      <c r="S79" s="76"/>
+      <c r="S79" s="218"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -5945,25 +5945,25 @@
       <c r="Z79"/>
     </row>
     <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="70"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
+      <c r="A80" s="191"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="212"/>
+      <c r="D80" s="213"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="213"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="213"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="213"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="215"/>
+      <c r="M80" s="213"/>
+      <c r="N80" s="212"/>
+      <c r="O80" s="213"/>
+      <c r="P80" s="215"/>
+      <c r="Q80" s="217"/>
+      <c r="R80" s="218"/>
+      <c r="S80" s="218"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -5984,46 +5984,46 @@
       <c r="M82"/>
     </row>
     <row r="83" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60" t="s">
+      <c r="B83" s="219"/>
+      <c r="C83" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="60" t="s">
+      <c r="E83" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F83" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="60" t="s">
+      <c r="G83" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="60" t="s">
+      <c r="I83" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="60" t="s">
+      <c r="J83" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="61" t="s">
+      <c r="L83" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="61"/>
-      <c r="N83" s="62">
+      <c r="M83" s="223"/>
+      <c r="N83" s="224">
         <f>AVERAGE(C85:I94)</f>
         <v>0.30155000000000004</v>
       </c>
       <c r="O83"/>
       <c r="P83" s="53"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="98"/>
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83"/>
@@ -6034,92 +6034,92 @@
       <c r="Z83"/>
     </row>
     <row r="84" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="63"/>
+      <c r="A84" s="219"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
+      <c r="G84" s="222"/>
+      <c r="H84" s="222"/>
+      <c r="I84" s="222"/>
+      <c r="J84" s="222"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="225"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
     </row>
     <row r="85" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56">
+      <c r="B85" s="219"/>
+      <c r="C85" s="220"/>
+      <c r="D85" s="220"/>
+      <c r="E85" s="220"/>
+      <c r="F85" s="220">
         <v>0.45810000000000001</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="220">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="220">
         <v>0.16520000000000001</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="220">
         <v>0.19980000000000001</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="221">
         <f>AVERAGE(C85:H86)</f>
         <v>0.28070000000000001</v>
       </c>
-      <c r="L85" s="61" t="s">
+      <c r="L85" s="223" t="s">
         <v>105</v>
       </c>
-      <c r="M85" s="61"/>
-      <c r="N85" s="62">
+      <c r="M85" s="223"/>
+      <c r="N85" s="224">
         <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="57"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="63"/>
+      <c r="A86" s="219"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="220"/>
+      <c r="D86" s="220"/>
+      <c r="E86" s="220"/>
+      <c r="F86" s="220"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="221"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="225"/>
     </row>
     <row r="87" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="56">
+      <c r="B87" s="219"/>
+      <c r="C87" s="220">
         <v>0.1653</v>
       </c>
-      <c r="D87" s="56">
+      <c r="D87" s="220">
         <v>0.21510000000000001</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="220">
         <v>0.61</v>
       </c>
-      <c r="F87" s="56">
+      <c r="F87" s="220">
         <v>0.38009999999999999</v>
       </c>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="57">
+      <c r="G87" s="220"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="221">
         <f>AVERAGE(C87:I88)</f>
         <v>0.34262499999999996</v>
       </c>
@@ -6127,32 +6127,32 @@
       <c r="M87"/>
     </row>
     <row r="88" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="57"/>
+      <c r="A88" s="219"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="220"/>
+      <c r="D88" s="220"/>
+      <c r="E88" s="220"/>
+      <c r="F88" s="220"/>
+      <c r="G88" s="220"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="221"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
     <row r="89" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58" t="s">
+      <c r="A89" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="58"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="57" t="e">
+      <c r="B89" s="219"/>
+      <c r="C89" s="220"/>
+      <c r="D89" s="220"/>
+      <c r="E89" s="220"/>
+      <c r="F89" s="220"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="220"/>
+      <c r="I89" s="220"/>
+      <c r="J89" s="221" t="e">
         <f>AVERAGE(C89:I90)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6160,32 +6160,32 @@
       <c r="M89"/>
     </row>
     <row r="90" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="57"/>
+      <c r="A90" s="219"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="220"/>
+      <c r="D90" s="220"/>
+      <c r="E90" s="220"/>
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="220"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="221"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="57" t="e">
+      <c r="B91" s="219"/>
+      <c r="C91" s="220"/>
+      <c r="D91" s="220"/>
+      <c r="E91" s="220"/>
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="221" t="e">
         <f>AVERAGE(C91:I92)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6193,46 +6193,46 @@
       <c r="M91"/>
     </row>
     <row r="92" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="58"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="57"/>
+      <c r="A92" s="219"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="220"/>
+      <c r="E92" s="220"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="221"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
     <row r="93" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="220"/>
+      <c r="D93" s="220"/>
+      <c r="E93" s="220"/>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="221"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
     <row r="94" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="57"/>
+      <c r="A94" s="219"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="220"/>
+      <c r="D94" s="220"/>
+      <c r="E94" s="220"/>
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="221"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
@@ -6502,18 +6502,344 @@
     </row>
   </sheetData>
   <mergeCells count="374">
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="G79:H80"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="K79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:Q80"/>
+    <mergeCell ref="R79:S80"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:H78"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:Q78"/>
+    <mergeCell ref="R77:S78"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="P73:Q74"/>
+    <mergeCell ref="R73:S74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:H76"/>
+    <mergeCell ref="I75:J76"/>
+    <mergeCell ref="K75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="G73:H74"/>
+    <mergeCell ref="I73:J74"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="P75:Q76"/>
+    <mergeCell ref="R75:S76"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:F72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="I71:J72"/>
+    <mergeCell ref="K71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="P71:Q72"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:F70"/>
+    <mergeCell ref="G69:H70"/>
+    <mergeCell ref="I69:J70"/>
+    <mergeCell ref="K69:M70"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="P64:Q65"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:H68"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="K67:M68"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:M65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="G60:H61"/>
+    <mergeCell ref="I60:J61"/>
+    <mergeCell ref="K60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:F63"/>
+    <mergeCell ref="G62:H63"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="K62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="P56:Q57"/>
+    <mergeCell ref="R56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H59"/>
+    <mergeCell ref="I58:J59"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:M57"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="N51:O53"/>
+    <mergeCell ref="P51:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:Q55"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D53"/>
+    <mergeCell ref="E51:F53"/>
+    <mergeCell ref="G51:H53"/>
+    <mergeCell ref="I51:J53"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="L41:M42"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="L45:M46"/>
+    <mergeCell ref="L47:M48"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="L35:M36"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="L33:M34"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
@@ -6538,344 +6864,18 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="AD5:AD6"/>
     <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="L33:M34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="L35:M36"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="L31:M32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="L41:M42"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="L45:M46"/>
-    <mergeCell ref="L47:M48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="N51:O53"/>
-    <mergeCell ref="P51:Q53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:Q55"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="E51:F53"/>
-    <mergeCell ref="G51:H53"/>
-    <mergeCell ref="I51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="P56:Q57"/>
-    <mergeCell ref="R56:S57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:M57"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="K60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="K62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="P64:Q65"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:F68"/>
-    <mergeCell ref="G67:H68"/>
-    <mergeCell ref="I67:J68"/>
-    <mergeCell ref="K67:M68"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:M65"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="P69:Q70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="I71:J72"/>
-    <mergeCell ref="K71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="P71:Q72"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:F70"/>
-    <mergeCell ref="G69:H70"/>
-    <mergeCell ref="I69:J70"/>
-    <mergeCell ref="K69:M70"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="P73:Q74"/>
-    <mergeCell ref="R73:S74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:H76"/>
-    <mergeCell ref="I75:J76"/>
-    <mergeCell ref="K75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="G73:H74"/>
-    <mergeCell ref="I73:J74"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="P75:Q76"/>
-    <mergeCell ref="R75:S76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:H78"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:Q78"/>
-    <mergeCell ref="R77:S78"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="G79:H80"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="K79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:Q80"/>
-    <mergeCell ref="R79:S80"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="A91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C85:I94">
